--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc2D/CTC_CLIENT/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="9172"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -15,19 +20,27 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="427">
   <si>
     <t>Id</t>
   </si>
@@ -1218,19 +1231,103 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Abaddon</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Beastmaster</t>
+  </si>
+  <si>
+    <t>NPC_HERO_BountyHunter</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Bristleback</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Clinkz</t>
+  </si>
+  <si>
+    <t>NPC_HERO_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Ezalor</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Lifestealer</t>
+  </si>
+  <si>
+    <t>NPC_HERO_TeaantProtector</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Abaddon</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Beastmaster</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/BountyHunter</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Bristleback</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Clinkz</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/CrystalMaiden</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Ezalor</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Lifestealer</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/TeaantProtector</t>
+  </si>
+  <si>
+    <t>SpriteFile</t>
+  </si>
+  <si>
+    <t>UIResources/Sprites/Item</t>
+  </si>
+  <si>
+    <t>UIResources/Sprites/Hero</t>
+  </si>
+  <si>
+    <t>Abaddon</t>
+  </si>
+  <si>
+    <t>Beastmaster</t>
+  </si>
+  <si>
+    <t>BountyHunter</t>
+  </si>
+  <si>
+    <t>Bristleback</t>
+  </si>
+  <si>
+    <t>Clinkz</t>
+  </si>
+  <si>
+    <t>CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Ezalor</t>
+  </si>
+  <si>
+    <t>Lifestealer</t>
+  </si>
+  <si>
+    <t>TeaantProtector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1245,158 +1342,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1417,192 +1376,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1728,253 +1513,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,62 +1564,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2077,12 +1603,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2409,35 +1940,42 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AB87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="J$1:L$1048576"/>
+      <pane ySplit="9" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X88" sqref="X88:X96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
-    <col min="2" max="2" width="11.6371681415929" customWidth="1"/>
-    <col min="3" max="3" width="48.8141592920354" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.8141592920354" customWidth="1"/>
-    <col min="7" max="8" width="14.6371681415929" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:28">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2504,26 +2042,29 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:28">
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -2590,26 +2131,29 @@
       <c r="V2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:28">
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -2676,7 +2220,7 @@
       <c r="V3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W3" s="2" t="b">
+      <c r="W3" s="14" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="2" t="b">
@@ -2694,8 +2238,11 @@
       <c r="AB3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:28">
+      <c r="AC3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -2762,7 +2309,7 @@
       <c r="V4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="2" t="b">
+      <c r="W4" s="14" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="2" t="b">
@@ -2772,16 +2319,19 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AB4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -2848,7 +2398,7 @@
       <c r="V5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="2" t="b">
+      <c r="W5" s="14" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="2" t="b">
@@ -2858,16 +2408,19 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AB5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:28">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -2934,7 +2487,7 @@
       <c r="V6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="2" t="b">
+      <c r="W6" s="14" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="2" t="b">
@@ -2952,8 +2505,11 @@
       <c r="AB6" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:28">
+      <c r="AC6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -3038,8 +2594,11 @@
       <c r="AB7" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:28">
+      <c r="AC7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -3124,8 +2683,11 @@
       <c r="AB8" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="41.25" spans="1:28">
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3186,26 +2748,29 @@
       <c r="V9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>65</v>
       </c>
@@ -3266,15 +2831,15 @@
       <c r="V10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
@@ -3284,8 +2849,11 @@
       <c r="AB10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
@@ -3346,15 +2914,15 @@
       <c r="V11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
@@ -3364,8 +2932,11 @@
       <c r="AB11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
@@ -3426,15 +2997,15 @@
       <c r="V12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="9" t="s">
+      <c r="W12" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="10" t="s">
+      <c r="Y12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
@@ -3444,8 +3015,11 @@
       <c r="AB12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
@@ -3506,15 +3080,15 @@
       <c r="V13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="Y13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>0</v>
       </c>
@@ -3524,8 +3098,11 @@
       <c r="AB13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
@@ -3586,15 +3163,15 @@
       <c r="V14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="Y14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
         <v>0</v>
       </c>
@@ -3604,8 +3181,11 @@
       <c r="AB14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
@@ -3666,15 +3246,15 @@
       <c r="V15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="Y15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
         <v>0</v>
       </c>
@@ -3684,8 +3264,11 @@
       <c r="AB15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>93</v>
       </c>
@@ -3746,15 +3329,15 @@
       <c r="V16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="Y16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
         <v>0</v>
       </c>
@@ -3764,8 +3347,11 @@
       <c r="AB16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>97</v>
       </c>
@@ -3826,15 +3412,15 @@
       <c r="V17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="Y17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
         <v>0</v>
       </c>
@@ -3844,8 +3430,11 @@
       <c r="AB17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>100</v>
       </c>
@@ -3906,15 +3495,15 @@
       <c r="V18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="Y18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
         <v>0</v>
       </c>
@@ -3924,8 +3513,11 @@
       <c r="AB18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>103</v>
       </c>
@@ -3986,15 +3578,15 @@
       <c r="V19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="Y19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
         <v>0</v>
       </c>
@@ -4004,8 +3596,11 @@
       <c r="AB19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>106</v>
       </c>
@@ -4066,15 +3661,15 @@
       <c r="V20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X20" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="Y20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
         <v>0</v>
       </c>
@@ -4084,8 +3679,11 @@
       <c r="AB20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -4146,15 +3744,15 @@
       <c r="V21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="Y21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -4164,8 +3762,11 @@
       <c r="AB21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>112</v>
       </c>
@@ -4226,15 +3827,15 @@
       <c r="V22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
       <c r="Z22">
         <v>0</v>
       </c>
@@ -4244,8 +3845,11 @@
       <c r="AB22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>115</v>
       </c>
@@ -4306,15 +3910,15 @@
       <c r="V23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X23" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="Y23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
       <c r="Z23">
         <v>0</v>
       </c>
@@ -4324,8 +3928,11 @@
       <c r="AB23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>118</v>
       </c>
@@ -4386,15 +3993,15 @@
       <c r="V24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="Y24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -4404,8 +4011,11 @@
       <c r="AB24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -4466,15 +4076,15 @@
       <c r="V25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="Y25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
         <v>0</v>
       </c>
@@ -4484,8 +4094,11 @@
       <c r="AB25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>124</v>
       </c>
@@ -4546,15 +4159,15 @@
       <c r="V26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X26" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="Y26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
         <v>0</v>
       </c>
@@ -4564,8 +4177,11 @@
       <c r="AB26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>127</v>
       </c>
@@ -4626,15 +4242,15 @@
       <c r="V27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X27" s="10" t="s">
+      <c r="Y27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
       <c r="Z27">
         <v>0</v>
       </c>
@@ -4644,8 +4260,11 @@
       <c r="AB27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>130</v>
       </c>
@@ -4706,15 +4325,15 @@
       <c r="V28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X28" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="X28" s="10" t="s">
+      <c r="Y28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
         <v>0</v>
       </c>
@@ -4724,8 +4343,11 @@
       <c r="AB28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>133</v>
       </c>
@@ -4786,15 +4408,15 @@
       <c r="V29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="X29" s="10" t="s">
+      <c r="Y29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
         <v>0</v>
       </c>
@@ -4804,8 +4426,11 @@
       <c r="AB29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -4866,15 +4491,15 @@
       <c r="V30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X30" t="s">
         <v>136</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="Y30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
       <c r="Z30">
         <v>0</v>
       </c>
@@ -4884,8 +4509,11 @@
       <c r="AB30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -4946,15 +4574,15 @@
       <c r="V31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X31" t="s">
         <v>140</v>
       </c>
-      <c r="X31" s="10" t="s">
+      <c r="Y31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
@@ -4964,8 +4592,11 @@
       <c r="AB31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -5026,15 +4657,15 @@
       <c r="V32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W32" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X32" t="s">
         <v>144</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="Y32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
       <c r="Z32">
         <v>0</v>
       </c>
@@ -5044,8 +4675,11 @@
       <c r="AB32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -5106,15 +4740,15 @@
       <c r="V33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X33" t="s">
         <v>148</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="Y33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
       <c r="Z33">
         <v>0</v>
       </c>
@@ -5124,8 +4758,11 @@
       <c r="AB33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -5186,15 +4823,15 @@
       <c r="V34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X34" t="s">
         <v>152</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="Y34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
         <v>0</v>
       </c>
@@ -5204,8 +4841,11 @@
       <c r="AB34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -5266,15 +4906,15 @@
       <c r="V35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X35" t="s">
         <v>156</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="Y35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
       <c r="Z35">
         <v>0</v>
       </c>
@@ -5284,8 +4924,11 @@
       <c r="AB35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -5346,15 +4989,15 @@
       <c r="V36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X36" t="s">
         <v>160</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="Y36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
       <c r="Z36">
         <v>0</v>
       </c>
@@ -5364,8 +5007,11 @@
       <c r="AB36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -5426,15 +5072,15 @@
       <c r="V37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X37" t="s">
         <v>164</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="Y37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
       <c r="Z37">
         <v>0</v>
       </c>
@@ -5444,8 +5090,11 @@
       <c r="AB37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -5506,15 +5155,15 @@
       <c r="V38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X38" t="s">
         <v>168</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="Y38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
       <c r="Z38">
         <v>0</v>
       </c>
@@ -5524,8 +5173,11 @@
       <c r="AB38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -5586,15 +5238,15 @@
       <c r="V39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X39" t="s">
         <v>172</v>
       </c>
-      <c r="X39" s="10" t="s">
+      <c r="Y39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
       <c r="Z39">
         <v>0</v>
       </c>
@@ -5604,8 +5256,11 @@
       <c r="AB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -5666,15 +5321,15 @@
       <c r="V40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X40" t="s">
         <v>176</v>
       </c>
-      <c r="X40" s="10" t="s">
+      <c r="Y40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
       <c r="Z40">
         <v>0</v>
       </c>
@@ -5684,8 +5339,11 @@
       <c r="AB40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -5746,15 +5404,15 @@
       <c r="V41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X41" t="s">
         <v>180</v>
       </c>
-      <c r="X41" s="10" t="s">
+      <c r="Y41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
       <c r="Z41">
         <v>0</v>
       </c>
@@ -5764,8 +5422,11 @@
       <c r="AB41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -5826,15 +5487,15 @@
       <c r="V42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X42" t="s">
         <v>184</v>
       </c>
-      <c r="X42" s="10" t="s">
+      <c r="Y42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
       <c r="Z42">
         <v>0</v>
       </c>
@@ -5844,8 +5505,11 @@
       <c r="AB42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -5906,15 +5570,15 @@
       <c r="V43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X43" t="s">
         <v>188</v>
       </c>
-      <c r="X43" s="10" t="s">
+      <c r="Y43" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
       <c r="Z43">
         <v>0</v>
       </c>
@@ -5924,8 +5588,11 @@
       <c r="AB43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -5986,15 +5653,15 @@
       <c r="V44" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X44" t="s">
         <v>192</v>
       </c>
-      <c r="X44" s="10" t="s">
+      <c r="Y44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
       <c r="Z44">
         <v>0</v>
       </c>
@@ -6004,8 +5671,11 @@
       <c r="AB44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -6066,15 +5736,15 @@
       <c r="V45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X45" t="s">
         <v>196</v>
       </c>
-      <c r="X45" s="10" t="s">
+      <c r="Y45" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>0</v>
       </c>
@@ -6084,8 +5754,11 @@
       <c r="AB45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -6146,15 +5819,15 @@
       <c r="V46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X46" t="s">
         <v>200</v>
       </c>
-      <c r="X46" s="10" t="s">
+      <c r="Y46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>0</v>
       </c>
@@ -6164,8 +5837,11 @@
       <c r="AB46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -6226,15 +5902,15 @@
       <c r="V47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X47" t="s">
         <v>204</v>
       </c>
-      <c r="X47" s="10" t="s">
+      <c r="Y47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
       <c r="Z47">
         <v>0</v>
       </c>
@@ -6244,8 +5920,11 @@
       <c r="AB47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -6306,15 +5985,15 @@
       <c r="V48" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X48" t="s">
         <v>208</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="Y48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
       <c r="Z48">
         <v>0</v>
       </c>
@@ -6324,8 +6003,11 @@
       <c r="AB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -6386,15 +6068,15 @@
       <c r="V49" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X49" t="s">
         <v>212</v>
       </c>
-      <c r="X49" s="10" t="s">
+      <c r="Y49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
         <v>0</v>
       </c>
@@ -6404,8 +6086,11 @@
       <c r="AB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -6466,15 +6151,15 @@
       <c r="V50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X50" t="s">
         <v>216</v>
       </c>
-      <c r="X50" s="10" t="s">
+      <c r="Y50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
       <c r="Z50">
         <v>0</v>
       </c>
@@ -6484,8 +6169,11 @@
       <c r="AB50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -6546,15 +6234,15 @@
       <c r="V51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X51" t="s">
         <v>220</v>
       </c>
-      <c r="X51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
       <c r="Z51">
         <v>0</v>
       </c>
@@ -6564,8 +6252,11 @@
       <c r="AB51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -6626,15 +6317,15 @@
       <c r="V52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X52" t="s">
         <v>224</v>
       </c>
-      <c r="X52" s="10" t="s">
+      <c r="Y52" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
       <c r="Z52">
         <v>0</v>
       </c>
@@ -6644,8 +6335,11 @@
       <c r="AB52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -6706,15 +6400,15 @@
       <c r="V53" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X53" t="s">
         <v>228</v>
       </c>
-      <c r="X53" s="10" t="s">
+      <c r="Y53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
       <c r="Z53">
         <v>0</v>
       </c>
@@ -6724,8 +6418,11 @@
       <c r="AB53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -6786,15 +6483,15 @@
       <c r="V54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X54" t="s">
         <v>232</v>
       </c>
-      <c r="X54" s="10" t="s">
+      <c r="Y54" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
       <c r="Z54">
         <v>0</v>
       </c>
@@ -6804,8 +6501,11 @@
       <c r="AB54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>236</v>
       </c>
@@ -6866,15 +6566,15 @@
       <c r="V55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X55" t="s">
         <v>236</v>
       </c>
-      <c r="X55" s="10" t="s">
+      <c r="Y55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
       <c r="Z55">
         <v>0</v>
       </c>
@@ -6884,8 +6584,11 @@
       <c r="AB55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>240</v>
       </c>
@@ -6946,15 +6649,15 @@
       <c r="V56" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X56" t="s">
         <v>240</v>
       </c>
-      <c r="X56" s="10" t="s">
+      <c r="Y56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
       <c r="Z56">
         <v>0</v>
       </c>
@@ -6964,8 +6667,11 @@
       <c r="AB56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -7026,15 +6732,15 @@
       <c r="V57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X57" t="s">
         <v>244</v>
       </c>
-      <c r="X57" s="10" t="s">
+      <c r="Y57" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
       <c r="Z57">
         <v>0</v>
       </c>
@@ -7044,8 +6750,11 @@
       <c r="AB57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7106,15 +6815,15 @@
       <c r="V58" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X58" t="s">
         <v>248</v>
       </c>
-      <c r="X58" s="10" t="s">
+      <c r="Y58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
       <c r="Z58">
         <v>0</v>
       </c>
@@ -7124,8 +6833,11 @@
       <c r="AB58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -7186,15 +6898,15 @@
       <c r="V59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X59" t="s">
         <v>252</v>
       </c>
-      <c r="X59" s="10" t="s">
+      <c r="Y59" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
       <c r="Z59">
         <v>0</v>
       </c>
@@ -7204,8 +6916,11 @@
       <c r="AB59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -7266,15 +6981,15 @@
       <c r="V60" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X60" t="s">
         <v>256</v>
       </c>
-      <c r="X60" s="10" t="s">
+      <c r="Y60" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
       <c r="Z60">
         <v>0</v>
       </c>
@@ -7284,8 +6999,11 @@
       <c r="AB60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>260</v>
       </c>
@@ -7346,15 +7064,15 @@
       <c r="V61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X61" t="s">
         <v>260</v>
       </c>
-      <c r="X61" s="10" t="s">
+      <c r="Y61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
       <c r="Z61">
         <v>0</v>
       </c>
@@ -7364,8 +7082,11 @@
       <c r="AB61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -7426,15 +7147,15 @@
       <c r="V62" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X62" t="s">
         <v>264</v>
       </c>
-      <c r="X62" s="10" t="s">
+      <c r="Y62" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
       <c r="Z62">
         <v>0</v>
       </c>
@@ -7444,8 +7165,11 @@
       <c r="AB62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -7506,15 +7230,15 @@
       <c r="V63" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X63" t="s">
         <v>267</v>
       </c>
-      <c r="X63" s="10" t="s">
+      <c r="Y63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
       <c r="Z63">
         <v>0</v>
       </c>
@@ -7524,8 +7248,11 @@
       <c r="AB63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -7586,15 +7313,15 @@
       <c r="V64" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X64" t="s">
         <v>270</v>
       </c>
-      <c r="X64" s="10" t="s">
+      <c r="Y64" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
       <c r="Z64">
         <v>0</v>
       </c>
@@ -7604,8 +7331,11 @@
       <c r="AB64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -7666,15 +7396,15 @@
       <c r="V65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X65" t="s">
         <v>273</v>
       </c>
-      <c r="X65" s="10" t="s">
+      <c r="Y65" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
       <c r="Z65">
         <v>0</v>
       </c>
@@ -7684,8 +7414,11 @@
       <c r="AB65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -7746,15 +7479,15 @@
       <c r="V66" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X66" t="s">
         <v>276</v>
       </c>
-      <c r="X66" s="10" t="s">
+      <c r="Y66" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
       <c r="Z66">
         <v>0</v>
       </c>
@@ -7764,8 +7497,11 @@
       <c r="AB66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -7826,15 +7562,15 @@
       <c r="V67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X67" t="s">
         <v>279</v>
       </c>
-      <c r="X67" s="10" t="s">
+      <c r="Y67" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
       <c r="Z67">
         <v>0</v>
       </c>
@@ -7844,8 +7580,11 @@
       <c r="AB67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -7906,15 +7645,15 @@
       <c r="V68" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X68" t="s">
         <v>282</v>
       </c>
-      <c r="X68" s="10" t="s">
+      <c r="Y68" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
       <c r="Z68">
         <v>0</v>
       </c>
@@ -7924,8 +7663,11 @@
       <c r="AB68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -7986,15 +7728,15 @@
       <c r="V69" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X69" t="s">
         <v>285</v>
       </c>
-      <c r="X69" s="10" t="s">
+      <c r="Y69" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
       <c r="Z69">
         <v>0</v>
       </c>
@@ -8004,8 +7746,11 @@
       <c r="AB69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -8066,15 +7811,15 @@
       <c r="V70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X70" t="s">
         <v>288</v>
       </c>
-      <c r="X70" s="10" t="s">
+      <c r="Y70" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
         <v>0</v>
       </c>
@@ -8084,8 +7829,11 @@
       <c r="AB70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -8146,15 +7894,15 @@
       <c r="V71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X71" t="s">
         <v>291</v>
       </c>
-      <c r="X71" s="10" t="s">
+      <c r="Y71" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
         <v>0</v>
       </c>
@@ -8164,8 +7912,11 @@
       <c r="AB71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -8226,15 +7977,15 @@
       <c r="V72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X72" t="s">
         <v>294</v>
       </c>
-      <c r="X72" s="10" t="s">
+      <c r="Y72" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
       <c r="Z72">
         <v>0</v>
       </c>
@@ -8244,8 +7995,11 @@
       <c r="AB72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>297</v>
       </c>
@@ -8306,15 +8060,15 @@
       <c r="V73" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X73" t="s">
         <v>297</v>
       </c>
-      <c r="X73" s="10" t="s">
+      <c r="Y73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
       <c r="Z73">
         <v>0</v>
       </c>
@@ -8324,8 +8078,11 @@
       <c r="AB73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>300</v>
       </c>
@@ -8386,15 +8143,15 @@
       <c r="V74" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W74" t="s">
+      <c r="W74" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X74" t="s">
         <v>300</v>
       </c>
-      <c r="X74" s="10" t="s">
+      <c r="Y74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
       <c r="Z74">
         <v>0</v>
       </c>
@@ -8404,8 +8161,11 @@
       <c r="AB74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>303</v>
       </c>
@@ -8466,15 +8226,15 @@
       <c r="V75" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X75" t="s">
         <v>303</v>
       </c>
-      <c r="X75" s="10" t="s">
+      <c r="Y75" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
       <c r="Z75">
         <v>0</v>
       </c>
@@ -8484,8 +8244,11 @@
       <c r="AB75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>306</v>
       </c>
@@ -8546,15 +8309,15 @@
       <c r="V76" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X76" t="s">
         <v>306</v>
       </c>
-      <c r="X76" s="10" t="s">
+      <c r="Y76" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
       <c r="Z76">
         <v>0</v>
       </c>
@@ -8564,8 +8327,11 @@
       <c r="AB76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>309</v>
       </c>
@@ -8626,15 +8392,15 @@
       <c r="V77" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X77" t="s">
         <v>309</v>
       </c>
-      <c r="X77" s="10" t="s">
+      <c r="Y77" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
       <c r="Z77">
         <v>0</v>
       </c>
@@ -8644,8 +8410,11 @@
       <c r="AB77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>312</v>
       </c>
@@ -8706,15 +8475,15 @@
       <c r="V78" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X78" t="s">
         <v>312</v>
       </c>
-      <c r="X78" s="10" t="s">
+      <c r="Y78" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
       <c r="Z78">
         <v>0</v>
       </c>
@@ -8724,8 +8493,11 @@
       <c r="AB78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -8786,15 +8558,15 @@
       <c r="V79" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W79" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X79" t="s">
         <v>315</v>
       </c>
-      <c r="X79" s="10" t="s">
+      <c r="Y79" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
       <c r="Z79">
         <v>0</v>
       </c>
@@ -8804,8 +8576,11 @@
       <c r="AB79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>318</v>
       </c>
@@ -8866,15 +8641,15 @@
       <c r="V80" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X80" t="s">
         <v>318</v>
       </c>
-      <c r="X80" s="10" t="s">
+      <c r="Y80" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
       <c r="Z80">
         <v>0</v>
       </c>
@@ -8884,8 +8659,11 @@
       <c r="AB80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>321</v>
       </c>
@@ -8946,15 +8724,15 @@
       <c r="V81" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X81" t="s">
         <v>321</v>
       </c>
-      <c r="X81" s="10" t="s">
+      <c r="Y81" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
       <c r="Z81">
         <v>0</v>
       </c>
@@ -8964,8 +8742,11 @@
       <c r="AB81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>324</v>
       </c>
@@ -9026,15 +8807,15 @@
       <c r="V82" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W82" t="s">
+      <c r="W82" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X82" t="s">
         <v>324</v>
       </c>
-      <c r="X82" s="10" t="s">
+      <c r="Y82" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
       <c r="Z82">
         <v>0</v>
       </c>
@@ -9044,8 +8825,11 @@
       <c r="AB82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>327</v>
       </c>
@@ -9106,15 +8890,15 @@
       <c r="V83" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W83" t="s">
+      <c r="W83" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X83" t="s">
         <v>327</v>
       </c>
-      <c r="X83" s="10" t="s">
+      <c r="Y83" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
       <c r="Z83">
         <v>0</v>
       </c>
@@ -9124,8 +8908,11 @@
       <c r="AB83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>330</v>
       </c>
@@ -9186,15 +8973,15 @@
       <c r="V84" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X84" t="s">
         <v>330</v>
       </c>
-      <c r="X84" s="10" t="s">
+      <c r="Y84" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
       <c r="Z84">
         <v>0</v>
       </c>
@@ -9204,8 +8991,11 @@
       <c r="AB84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>333</v>
       </c>
@@ -9266,15 +9056,15 @@
       <c r="V85" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X85" t="s">
         <v>333</v>
       </c>
-      <c r="X85" s="10" t="s">
+      <c r="Y85" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
       <c r="Z85">
         <v>0</v>
       </c>
@@ -9284,8 +9074,11 @@
       <c r="AB85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>336</v>
       </c>
@@ -9346,15 +9139,15 @@
       <c r="V86" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W86" t="s">
+      <c r="W86" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X86" t="s">
         <v>336</v>
       </c>
-      <c r="X86" s="10" t="s">
+      <c r="Y86" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
       <c r="Z86">
         <v>0</v>
       </c>
@@ -9364,8 +9157,11 @@
       <c r="AB86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>339</v>
       </c>
@@ -9426,15 +9222,15 @@
       <c r="V87" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="W87" t="s">
+      <c r="W87" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="X87" t="s">
         <v>339</v>
       </c>
-      <c r="X87" s="10" t="s">
+      <c r="Y87" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
       <c r="Z87">
         <v>0</v>
       </c>
@@ -9442,37 +9238,786 @@
         <v>0</v>
       </c>
       <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="11">
+        <v>0</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M88" s="11">
+        <v>2</v>
+      </c>
+      <c r="N88" s="11">
+        <v>20</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>2</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S88" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T88" s="11">
+        <v>0</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V88" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W88" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" s="11">
+        <v>0</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0</v>
+      </c>
+      <c r="G89" s="11">
+        <v>0</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M89" s="11">
+        <v>2</v>
+      </c>
+      <c r="N89" s="11">
+        <v>20</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>2</v>
+      </c>
+      <c r="R89" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S89" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T89" s="11">
+        <v>0</v>
+      </c>
+      <c r="U89" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V89" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W89" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X89" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M90" s="11">
+        <v>2</v>
+      </c>
+      <c r="N90" s="11">
+        <v>20</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q90" s="11">
+        <v>2</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S90" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T90" s="11">
+        <v>0</v>
+      </c>
+      <c r="U90" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W90" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X90" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y90" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C91" s="11">
+        <v>0</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M91" s="11">
+        <v>2</v>
+      </c>
+      <c r="N91" s="11">
+        <v>20</v>
+      </c>
+      <c r="O91" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>2</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S91" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T91" s="11">
+        <v>0</v>
+      </c>
+      <c r="U91" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V91" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W91" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X91" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="11">
+        <v>0</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M92" s="11">
+        <v>2</v>
+      </c>
+      <c r="N92" s="11">
+        <v>20</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q92" s="11">
+        <v>2</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S92" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T92" s="11">
+        <v>0</v>
+      </c>
+      <c r="U92" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V92" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W92" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X92" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" s="11">
+        <v>0</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M93" s="11">
+        <v>2</v>
+      </c>
+      <c r="N93" s="11">
+        <v>20</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q93" s="11">
+        <v>2</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S93" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T93" s="11">
+        <v>0</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V93" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W93" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y93" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" s="11">
+        <v>0</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M94" s="11">
+        <v>2</v>
+      </c>
+      <c r="N94" s="11">
+        <v>20</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q94" s="11">
+        <v>2</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T94" s="11">
+        <v>0</v>
+      </c>
+      <c r="U94" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W94" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X94" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y94" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C95" s="11">
+        <v>0</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M95" s="11">
+        <v>2</v>
+      </c>
+      <c r="N95" s="11">
+        <v>20</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q95" s="11">
+        <v>2</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S95" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T95" s="11">
+        <v>0</v>
+      </c>
+      <c r="U95" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W95" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X95" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y95" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M96" s="11">
+        <v>2</v>
+      </c>
+      <c r="N96" s="11">
+        <v>20</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q96" s="11">
+        <v>2</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="S96" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T96" s="11">
+        <v>0</v>
+      </c>
+      <c r="U96" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V96" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W96" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="X96" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y96" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I8 J7:AB8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AC8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:30">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9564,7 +10109,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -9656,7 +10201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -9840,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -9932,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -10024,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -10116,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:30">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -10208,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="68.25" spans="1:30">
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -10300,64 +10845,64 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
     </row>
   </sheetData>
@@ -10367,7 +10912,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc2D/CTC_CLIENT/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="378">
   <si>
     <t>Id</t>
   </si>
@@ -108,6 +100,9 @@
     <t>EquipIDRef</t>
   </si>
   <si>
+    <t>SpriteFile</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -258,160 +253,13 @@
     <t>EquipIDRef_1</t>
   </si>
   <si>
+    <t>UIResources/Sprites/Item</t>
+  </si>
+  <si>
     <t>UI/Hero/hero_tx_mul</t>
   </si>
   <si>
-    <t>Player_0_0</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/ActionHero</t>
-  </si>
-  <si>
-    <t>PlayerAtt2</t>
-  </si>
-  <si>
-    <t>ShowName_2</t>
-  </si>
-  <si>
-    <t>Player_0_1</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/ChopperPilot</t>
-  </si>
-  <si>
-    <t>PlayerAtt3</t>
-  </si>
-  <si>
-    <t>ShowName_3</t>
-  </si>
-  <si>
-    <t>Player_0_2</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Hero</t>
-  </si>
-  <si>
-    <t>PlayerAtt4</t>
-  </si>
-  <si>
-    <t>ShowName_4</t>
-  </si>
-  <si>
-    <t>Player_0_3</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Knight</t>
-  </si>
-  <si>
-    <t>PlayerAtt5</t>
-  </si>
-  <si>
-    <t>ShowName_5</t>
-  </si>
-  <si>
-    <t>Player_0_4</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/VietcongSoldier</t>
-  </si>
-  <si>
-    <t>PlayerAtt6</t>
-  </si>
-  <si>
-    <t>ShowName_6</t>
-  </si>
-  <si>
-    <t>Player_1_0</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Dwarf_Warrior_RIG</t>
-  </si>
-  <si>
-    <t>PlayerAtt7</t>
-  </si>
-  <si>
-    <t>ShowName_7</t>
-  </si>
-  <si>
-    <t>Player_1_1</t>
-  </si>
-  <si>
-    <t>PlayerAtt8</t>
-  </si>
-  <si>
-    <t>ShowName_8</t>
-  </si>
-  <si>
-    <t>Player_1_2</t>
-  </si>
-  <si>
-    <t>PlayerAtt9</t>
-  </si>
-  <si>
-    <t>ShowName_9</t>
-  </si>
-  <si>
-    <t>Player_1_3</t>
-  </si>
-  <si>
-    <t>PlayerAtt10</t>
-  </si>
-  <si>
-    <t>ShowName_10</t>
-  </si>
-  <si>
-    <t>Player_1_4</t>
-  </si>
-  <si>
-    <t>PlayerAtt11</t>
-  </si>
-  <si>
-    <t>ShowName_11</t>
-  </si>
-  <si>
-    <t>Player_2_0</t>
-  </si>
-  <si>
-    <t>PlayerAtt12</t>
-  </si>
-  <si>
-    <t>ShowName_12</t>
-  </si>
-  <si>
-    <t>Player_2_1</t>
-  </si>
-  <si>
-    <t>PlayerAtt13</t>
-  </si>
-  <si>
-    <t>ShowName_13</t>
-  </si>
-  <si>
-    <t>Player_2_2</t>
-  </si>
-  <si>
-    <t>PlayerAtt14</t>
-  </si>
-  <si>
-    <t>ShowName_14</t>
-  </si>
-  <si>
-    <t>Player_2_3</t>
-  </si>
-  <si>
-    <t>PlayerAtt15</t>
-  </si>
-  <si>
-    <t>ShowName_15</t>
-  </si>
-  <si>
-    <t>Player_2_4</t>
-  </si>
-  <si>
-    <t>PlayerAtt16</t>
-  </si>
-  <si>
-    <t>ShowName_16</t>
+    <t>Prefabs/Object/Dwarf_Warrior</t>
   </si>
   <si>
     <t>AttackNpc1</t>
@@ -1053,7 +901,7 @@
     <t>skeleton_warrior_teal</t>
   </si>
   <si>
-    <t>Prefabs/Object/NPC/skeleton_warrior_teal</t>
+    <t>Prefabs/Object/Orc_Slinger</t>
   </si>
   <si>
     <t>ShowName_77</t>
@@ -1068,6 +916,93 @@
     <t>ShowName_78</t>
   </si>
   <si>
+    <t>NPC_HERO_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>UIResources/Sprites/Hero</t>
+  </si>
+  <si>
+    <t>Orc_Slinger</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Orc_Slinger</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Bristleback</t>
+  </si>
+  <si>
+    <t>Bristleback</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Bristleback</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Clinkz</t>
+  </si>
+  <si>
+    <t>Clinkz</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Clinkz</t>
+  </si>
+  <si>
+    <t>NPC_HERO_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>CrystalMaiden</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Ezalor</t>
+  </si>
+  <si>
+    <t>Ezalor</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Ezalor</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Lifestealer</t>
+  </si>
+  <si>
+    <t>Lifestealer</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Lifestealer</t>
+  </si>
+  <si>
+    <t>NPC_HERO_TeaantProtector</t>
+  </si>
+  <si>
+    <t>TeaantProtector</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/TeaantProtector</t>
+  </si>
+  <si>
     <t>SUCKBLOOD</t>
   </si>
   <si>
@@ -1231,103 +1166,13 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Abaddon</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Beastmaster</t>
-  </si>
-  <si>
-    <t>NPC_HERO_BountyHunter</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Bristleback</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Clinkz</t>
-  </si>
-  <si>
-    <t>NPC_HERO_CrystalMaiden</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Ezalor</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Lifestealer</t>
-  </si>
-  <si>
-    <t>NPC_HERO_TeaantProtector</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Abaddon</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Beastmaster</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/BountyHunter</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Bristleback</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Clinkz</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/CrystalMaiden</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Ezalor</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Lifestealer</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/TeaantProtector</t>
-  </si>
-  <si>
-    <t>SpriteFile</t>
-  </si>
-  <si>
-    <t>UIResources/Sprites/Item</t>
-  </si>
-  <si>
-    <t>UIResources/Sprites/Hero</t>
-  </si>
-  <si>
-    <t>Abaddon</t>
-  </si>
-  <si>
-    <t>Beastmaster</t>
-  </si>
-  <si>
-    <t>BountyHunter</t>
-  </si>
-  <si>
-    <t>Bristleback</t>
-  </si>
-  <si>
-    <t>Clinkz</t>
-  </si>
-  <si>
-    <t>CrystalMaiden</t>
-  </si>
-  <si>
-    <t>Ezalor</t>
-  </si>
-  <si>
-    <t>Lifestealer</t>
-  </si>
-  <si>
-    <t>TeaantProtector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1342,17 +1187,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1376,13 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,25 +1407,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1449,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1612,6 +1458,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1946,36 +1795,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X88" sqref="X88:X96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.796875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
     <col min="7" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.33203125" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.46484375" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="13.796875" customWidth="1"/>
+    <col min="21" max="21" width="11.1328125" customWidth="1"/>
+    <col min="22" max="22" width="13.9296875" customWidth="1"/>
+    <col min="23" max="23" width="27.3984375" customWidth="1"/>
+    <col min="24" max="24" width="22.1328125" customWidth="1"/>
+    <col min="25" max="25" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2042,120 +1891,120 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
-        <v>415</v>
+      <c r="W1" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="W2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>0</v>
@@ -2220,7 +2069,7 @@
       <c r="V3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W3" s="14" t="b">
+      <c r="W3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="2" t="b">
@@ -2242,9 +2091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
@@ -2309,7 +2158,7 @@
       <c r="V4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="14" t="b">
+      <c r="W4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="2" t="b">
@@ -2331,9 +2180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
@@ -2398,7 +2247,7 @@
       <c r="V5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="14" t="b">
+      <c r="W5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="2" t="b">
@@ -2420,9 +2269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
@@ -2487,7 +2336,7 @@
       <c r="V6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="W6" s="14" t="b">
+      <c r="W6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="2" t="b">
@@ -2509,9 +2358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -2598,9 +2447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -2687,92 +2536,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" s="4" customFormat="1" ht="27">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>415</v>
+        <v>59</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2802,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -2811,256 +2660,256 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>67</v>
       </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>74</v>
-      </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>20</v>
       </c>
       <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>67</v>
       </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>20</v>
       </c>
       <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>67</v>
       </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s">
-        <v>69</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
-      </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3069,7 +2918,7 @@
         <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -3078,16 +2927,16 @@
         <v>84</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3102,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29">
       <c r="A14" s="9" t="s">
         <v>85</v>
       </c>
@@ -3134,43 +2983,43 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
         <v>87</v>
       </c>
-      <c r="S14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>88</v>
-      </c>
       <c r="V14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>72</v>
+      <c r="Y14" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3185,214 +3034,214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>89</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
         <v>91</v>
       </c>
-      <c r="S15" t="s">
-        <v>69</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="V15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="V15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>93</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>94</v>
-      </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>95</v>
       </c>
-      <c r="S16" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="V16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="V16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>97</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
-      </c>
       <c r="M17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3401,7 +3250,7 @@
         <v>98</v>
       </c>
       <c r="S17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3410,17 +3259,17 @@
         <v>99</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z17">
         <v>0</v>
       </c>
@@ -3434,8 +3283,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
         <v>100</v>
       </c>
       <c r="C18">
@@ -3466,43 +3315,43 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s">
         <v>100</v>
       </c>
-      <c r="Y18" s="10" t="s">
-        <v>72</v>
+      <c r="Y18" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3517,9 +3366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>103</v>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3549,43 +3398,43 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s">
         <v>104</v>
       </c>
-      <c r="S19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>105</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>72</v>
+      <c r="Y19" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3600,9 +3449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>106</v>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3632,43 +3481,43 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>20</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q20">
         <v>2</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20" t="s">
+        <v>111</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s">
         <v>108</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>72</v>
+      <c r="Y20" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3683,9 +3532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>109</v>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>112</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3715,44 +3564,44 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W21" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y21" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -3766,9 +3615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>112</v>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>116</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3798,44 +3647,44 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y22" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z22">
         <v>0</v>
       </c>
@@ -3849,9 +3698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>115</v>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>120</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3881,44 +3730,44 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>20</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y23" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z23">
         <v>0</v>
       </c>
@@ -3932,9 +3781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>118</v>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3964,44 +3813,44 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y24" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y24" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -4015,9 +3864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>121</v>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>128</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4047,44 +3896,44 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>20</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="S25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y25" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z25">
         <v>0</v>
       </c>
@@ -4098,9 +3947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>124</v>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>132</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4130,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -4139,35 +3988,35 @@
         <v>20</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W26" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y26" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z26">
         <v>0</v>
       </c>
@@ -4181,9 +4030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>127</v>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>136</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4213,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -4222,35 +4071,35 @@
         <v>20</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y27" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z27">
         <v>0</v>
       </c>
@@ -4264,9 +4113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>130</v>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4296,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -4305,35 +4154,35 @@
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="S28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W28" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y28" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z28">
         <v>0</v>
       </c>
@@ -4347,9 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>133</v>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
+        <v>144</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4379,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="M29">
         <v>2</v>
@@ -4388,35 +4237,35 @@
         <v>20</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="S29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W29" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X29" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y29" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="W29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="Z29">
         <v>0</v>
       </c>
@@ -4430,9 +4279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4462,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M30">
         <v>2</v>
@@ -4471,34 +4320,34 @@
         <v>20</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="S30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y30" s="10" t="s">
-        <v>72</v>
+        <v>148</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4513,9 +4362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4545,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -4554,34 +4403,34 @@
         <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="S31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X31" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>72</v>
+        <v>152</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4596,9 +4445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4628,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M32">
         <v>2</v>
@@ -4637,34 +4486,34 @@
         <v>20</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q32">
         <v>2</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="S32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W32" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X32" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>72</v>
+        <v>156</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4679,9 +4528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4711,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M33">
         <v>2</v>
@@ -4720,34 +4569,34 @@
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q33">
         <v>2</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="S33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W33" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X33" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>72</v>
+        <v>160</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4762,9 +4611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4794,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M34">
         <v>2</v>
@@ -4803,34 +4652,34 @@
         <v>20</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="S34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X34" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y34" s="10" t="s">
-        <v>72</v>
+        <v>164</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4845,9 +4694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4877,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M35">
         <v>2</v>
@@ -4886,34 +4735,34 @@
         <v>20</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q35">
         <v>2</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="S35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W35" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X35" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>72</v>
+        <v>168</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4928,9 +4777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4960,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -4969,34 +4818,34 @@
         <v>20</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q36">
         <v>2</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="S36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W36" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X36" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>72</v>
+        <v>172</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5011,9 +4860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5043,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M37">
         <v>2</v>
@@ -5052,34 +4901,34 @@
         <v>20</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="S37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W37" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X37" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>72</v>
+        <v>176</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -5094,9 +4943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5126,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M38">
         <v>2</v>
@@ -5135,34 +4984,34 @@
         <v>20</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q38">
         <v>2</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="S38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W38" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X38" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y38" s="10" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="Y38" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -5177,9 +5026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5209,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="M39">
         <v>2</v>
@@ -5218,34 +5067,34 @@
         <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="S39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W39" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X39" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>72</v>
+        <v>184</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -5260,9 +5109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5292,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -5301,34 +5150,34 @@
         <v>20</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="S40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W40" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X40" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y40" s="10" t="s">
-        <v>72</v>
+        <v>188</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -5343,9 +5192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5375,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M41">
         <v>2</v>
@@ -5384,34 +5233,34 @@
         <v>20</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q41">
         <v>2</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="S41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W41" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X41" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y41" s="10" t="s">
-        <v>72</v>
+        <v>192</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -5426,9 +5275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5458,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -5467,34 +5316,34 @@
         <v>20</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="S42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W42" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X42" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y42" s="10" t="s">
-        <v>72</v>
+        <v>196</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -5509,9 +5358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5541,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M43">
         <v>2</v>
@@ -5550,34 +5399,34 @@
         <v>20</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q43">
         <v>2</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="S43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W43" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X43" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y43" s="10" t="s">
-        <v>72</v>
+        <v>200</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -5592,9 +5441,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5624,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M44">
         <v>2</v>
@@ -5633,34 +5482,34 @@
         <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="S44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X44" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y44" s="10" t="s">
-        <v>72</v>
+        <v>204</v>
+      </c>
+      <c r="Y44" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5675,9 +5524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5707,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M45">
         <v>2</v>
@@ -5716,34 +5565,34 @@
         <v>20</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="S45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W45" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X45" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y45" s="10" t="s">
-        <v>72</v>
+        <v>208</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5758,9 +5607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5790,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M46">
         <v>2</v>
@@ -5799,34 +5648,34 @@
         <v>20</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W46" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X46" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y46" s="10" t="s">
-        <v>72</v>
+        <v>212</v>
+      </c>
+      <c r="Y46" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5841,9 +5690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5873,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M47">
         <v>2</v>
@@ -5882,34 +5731,34 @@
         <v>20</v>
       </c>
       <c r="O47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q47">
         <v>2</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="S47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X47" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y47" s="10" t="s">
-        <v>72</v>
+        <v>216</v>
+      </c>
+      <c r="Y47" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5924,9 +5773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5956,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M48">
         <v>2</v>
@@ -5965,34 +5814,34 @@
         <v>20</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q48">
         <v>2</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="S48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X48" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y48" s="10" t="s">
-        <v>72</v>
+        <v>219</v>
+      </c>
+      <c r="Y48" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -6007,9 +5856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6039,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M49">
         <v>2</v>
@@ -6048,7 +5897,7 @@
         <v>20</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -6057,25 +5906,25 @@
         <v>214</v>
       </c>
       <c r="S49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W49" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X49" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y49" s="10" t="s">
-        <v>72</v>
+        <v>222</v>
+      </c>
+      <c r="Y49" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -6090,9 +5939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6122,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -6131,34 +5980,34 @@
         <v>20</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q50">
         <v>2</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W50" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y50" s="10" t="s">
-        <v>72</v>
+        <v>225</v>
+      </c>
+      <c r="Y50" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -6173,9 +6022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6205,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6214,34 +6063,34 @@
         <v>20</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="S51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="V51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X51" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>72</v>
+        <v>228</v>
+      </c>
+      <c r="Y51" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -6256,9 +6105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6288,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -6297,34 +6146,34 @@
         <v>20</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W52" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X52" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y52" s="10" t="s">
-        <v>72</v>
+        <v>231</v>
+      </c>
+      <c r="Y52" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -6339,9 +6188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6371,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -6380,34 +6229,34 @@
         <v>20</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="S53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="V53" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W53" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X53" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y53" s="10" t="s">
-        <v>72</v>
+        <v>234</v>
+      </c>
+      <c r="Y53" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -6422,9 +6271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6454,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -6463,34 +6312,34 @@
         <v>20</v>
       </c>
       <c r="O54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q54">
         <v>2</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="S54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X54" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y54" s="10" t="s">
-        <v>72</v>
+        <v>237</v>
+      </c>
+      <c r="Y54" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -6505,9 +6354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6537,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -6546,34 +6395,34 @@
         <v>20</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="S55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="V55" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W55" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X55" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y55" s="10" t="s">
-        <v>72</v>
+        <v>240</v>
+      </c>
+      <c r="Y55" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -6588,9 +6437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6620,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -6629,34 +6478,34 @@
         <v>20</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q56">
         <v>2</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="S56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56" t="s">
+        <v>245</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X56" t="s">
         <v>243</v>
       </c>
-      <c r="V56" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W56" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X56" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y56" s="10" t="s">
-        <v>72</v>
+      <c r="Y56" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -6671,9 +6520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6703,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -6712,34 +6561,34 @@
         <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q57">
         <v>2</v>
       </c>
       <c r="R57" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S57" t="s">
+        <v>70</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>248</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s">
         <v>246</v>
       </c>
-      <c r="S57" t="s">
-        <v>69</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
-        <v>247</v>
-      </c>
-      <c r="V57" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X57" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y57" s="10" t="s">
-        <v>72</v>
+      <c r="Y57" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6754,9 +6603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6786,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -6795,16 +6644,16 @@
         <v>20</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q58">
         <v>2</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="S58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -6813,16 +6662,16 @@
         <v>251</v>
       </c>
       <c r="V58" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W58" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X58" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y58" s="10" t="s">
-        <v>72</v>
+        <v>249</v>
+      </c>
+      <c r="Y58" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6837,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -6878,34 +6727,34 @@
         <v>20</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q59">
         <v>2</v>
       </c>
       <c r="R59" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S59" t="s">
+        <v>70</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
         <v>254</v>
       </c>
-      <c r="S59" t="s">
-        <v>69</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
-        <v>255</v>
-      </c>
       <c r="V59" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W59" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X59" t="s">
         <v>252</v>
       </c>
-      <c r="Y59" s="10" t="s">
-        <v>72</v>
+      <c r="Y59" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6920,39 +6769,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
         <v>256</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>257</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -6961,81 +6810,81 @@
         <v>20</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q60">
         <v>2</v>
       </c>
       <c r="R60" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S60" t="s">
+        <v>70</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>257</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y60" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" t="s">
         <v>258</v>
       </c>
-      <c r="S60" t="s">
-        <v>69</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
         <v>259</v>
-      </c>
-      <c r="V60" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W60" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X60" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>260</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>261</v>
       </c>
       <c r="M61">
         <v>2</v>
@@ -7044,81 +6893,81 @@
         <v>20</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="S61" t="s">
+        <v>70</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>260</v>
+      </c>
+      <c r="V61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y61" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
         <v>262</v>
-      </c>
-      <c r="S61" t="s">
-        <v>69</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61" t="s">
-        <v>263</v>
-      </c>
-      <c r="V61" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W61" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X61" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y61" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
-        <v>265</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -7127,52 +6976,52 @@
         <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q62">
         <v>2</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V62" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W62" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X62" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y62" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" t="s">
         <v>264</v>
       </c>
-      <c r="Y62" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>267</v>
-      </c>
       <c r="C63">
         <v>0</v>
       </c>
@@ -7201,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -7210,52 +7059,52 @@
         <v>20</v>
       </c>
       <c r="O63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q63">
         <v>2</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W63" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X63" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y63" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" t="s">
         <v>267</v>
       </c>
-      <c r="Y63" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>270</v>
-      </c>
       <c r="C64">
         <v>0</v>
       </c>
@@ -7284,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M64">
         <v>2</v>
@@ -7293,52 +7142,52 @@
         <v>20</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q64">
         <v>2</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W64" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X64" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y64" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" t="s">
         <v>270</v>
       </c>
-      <c r="Y64" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>273</v>
-      </c>
       <c r="C65">
         <v>0</v>
       </c>
@@ -7367,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -7376,52 +7225,52 @@
         <v>20</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W65" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X65" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y65" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" t="s">
         <v>273</v>
       </c>
-      <c r="Y65" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>276</v>
-      </c>
       <c r="C66">
         <v>0</v>
       </c>
@@ -7450,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -7459,52 +7308,52 @@
         <v>20</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W66" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X66" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y66" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" t="s">
         <v>276</v>
       </c>
-      <c r="Y66" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>279</v>
-      </c>
       <c r="C67">
         <v>0</v>
       </c>
@@ -7533,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -7542,52 +7391,52 @@
         <v>20</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q67">
         <v>2</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W67" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X67" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y67" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" t="s">
         <v>279</v>
       </c>
-      <c r="Y67" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>282</v>
-      </c>
       <c r="C68">
         <v>0</v>
       </c>
@@ -7616,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -7625,52 +7474,52 @@
         <v>20</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q68">
         <v>2</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W68" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X68" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y68" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" t="s">
         <v>282</v>
       </c>
-      <c r="Y68" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>285</v>
-      </c>
       <c r="C69">
         <v>0</v>
       </c>
@@ -7699,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -7708,52 +7557,52 @@
         <v>20</v>
       </c>
       <c r="O69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q69">
         <v>2</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V69" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W69" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X69" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y69" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" t="s">
         <v>285</v>
       </c>
-      <c r="Y69" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>288</v>
-      </c>
       <c r="C70">
         <v>0</v>
       </c>
@@ -7782,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -7791,52 +7640,52 @@
         <v>20</v>
       </c>
       <c r="O70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q70">
         <v>2</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W70" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X70" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y70" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" t="s">
         <v>288</v>
       </c>
-      <c r="Y70" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>291</v>
-      </c>
       <c r="C71">
         <v>0</v>
       </c>
@@ -7865,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M71">
         <v>2</v>
@@ -7874,52 +7723,52 @@
         <v>20</v>
       </c>
       <c r="O71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q71">
         <v>2</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V71" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W71" s="15" t="s">
-        <v>416</v>
+        <v>72</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="X71" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y71" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" t="s">
         <v>291</v>
       </c>
-      <c r="Y71" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>294</v>
-      </c>
       <c r="C72">
         <v>0</v>
       </c>
@@ -7948,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -7957,2037 +7806,792 @@
         <v>20</v>
       </c>
       <c r="O72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q72">
         <v>2</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="S72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
+        <v>293</v>
+      </c>
+      <c r="V72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y72" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" s="10" customFormat="1">
+      <c r="A73" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M73" s="10">
+        <v>2</v>
+      </c>
+      <c r="N73" s="10">
+        <v>20</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>2</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S73" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T73" s="10">
+        <v>0</v>
+      </c>
+      <c r="U73" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V73" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W73" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X73" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="V72" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W72" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X72" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y72" s="10" t="s">
+      <c r="Y73" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" s="10" customFormat="1">
+      <c r="A74" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="10">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" s="10">
+        <v>2</v>
+      </c>
+      <c r="N74" s="10">
+        <v>20</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q74" s="10">
+        <v>2</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T74" s="10">
+        <v>0</v>
+      </c>
+      <c r="U74" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V74" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>298</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
+      <c r="W74" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X74" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y74" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" s="10" customFormat="1">
+      <c r="A75" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="M75" s="10">
+        <v>2</v>
+      </c>
+      <c r="N75" s="10">
         <v>20</v>
       </c>
-      <c r="O73" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q73">
-        <v>2</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S73" t="s">
-        <v>69</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73" t="s">
-        <v>299</v>
-      </c>
-      <c r="V73" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W73" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X73" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y73" s="10" t="s">
+      <c r="O75" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q75" s="10">
+        <v>2</v>
+      </c>
+      <c r="R75" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T75" s="10">
+        <v>0</v>
+      </c>
+      <c r="U75" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V75" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>300</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>301</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
+      <c r="W75" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X75" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y75" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" s="10" customFormat="1">
+      <c r="A76" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M76" s="10">
+        <v>2</v>
+      </c>
+      <c r="N76" s="10">
         <v>20</v>
       </c>
-      <c r="O74" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q74">
-        <v>2</v>
-      </c>
-      <c r="R74" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S74" t="s">
-        <v>69</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>302</v>
-      </c>
-      <c r="V74" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W74" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X74" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y74" s="10" t="s">
+      <c r="O76" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>2</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S76" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T76" s="10">
+        <v>0</v>
+      </c>
+      <c r="U76" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V76" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>303</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>304</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75">
+      <c r="W76" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X76" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y76" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" s="10" customFormat="1">
+      <c r="A77" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="10">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M77" s="10">
+        <v>2</v>
+      </c>
+      <c r="N77" s="10">
         <v>20</v>
       </c>
-      <c r="O75" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q75">
-        <v>2</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S75" t="s">
-        <v>69</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>305</v>
-      </c>
-      <c r="V75" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W75" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X75" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y75" s="10" t="s">
+      <c r="O77" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>2</v>
+      </c>
+      <c r="R77" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S77" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T77" s="10">
+        <v>0</v>
+      </c>
+      <c r="U77" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V77" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>307</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
+      <c r="W77" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X77" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y77" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="10" customFormat="1">
+      <c r="A78" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
+        <v>0</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M78" s="10">
+        <v>2</v>
+      </c>
+      <c r="N78" s="10">
         <v>20</v>
       </c>
-      <c r="O76" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S76" t="s">
-        <v>69</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76" t="s">
-        <v>308</v>
-      </c>
-      <c r="V76" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W76" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X76" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y76" s="10" t="s">
+      <c r="O78" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q78" s="10">
+        <v>2</v>
+      </c>
+      <c r="R78" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T78" s="10">
+        <v>0</v>
+      </c>
+      <c r="U78" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V78" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>309</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>310</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
+      <c r="W78" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X78" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y78" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" s="10" customFormat="1">
+      <c r="A79" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="10">
+        <v>0</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M79" s="10">
+        <v>2</v>
+      </c>
+      <c r="N79" s="10">
         <v>20</v>
       </c>
-      <c r="O77" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S77" t="s">
-        <v>69</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77" t="s">
-        <v>311</v>
-      </c>
-      <c r="V77" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W77" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X77" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y77" s="10" t="s">
+      <c r="O79" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q79" s="10">
+        <v>2</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T79" s="10">
+        <v>0</v>
+      </c>
+      <c r="U79" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>312</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>313</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
+      <c r="W79" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X79" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y79" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" s="10" customFormat="1">
+      <c r="A80" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" s="10">
+        <v>0</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10">
+        <v>0</v>
+      </c>
+      <c r="K80" s="10">
+        <v>0</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M80" s="10">
+        <v>2</v>
+      </c>
+      <c r="N80" s="10">
         <v>20</v>
       </c>
-      <c r="O78" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S78" t="s">
-        <v>69</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78" t="s">
-        <v>314</v>
-      </c>
-      <c r="V78" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W78" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X78" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y78" s="10" t="s">
+      <c r="O80" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q80" s="10">
+        <v>2</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T80" s="10">
+        <v>0</v>
+      </c>
+      <c r="U80" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V80" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>316</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
+      <c r="W80" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X80" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y80" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" s="10" customFormat="1">
+      <c r="A81" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="10">
+        <v>0</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M81" s="10">
+        <v>2</v>
+      </c>
+      <c r="N81" s="10">
         <v>20</v>
       </c>
-      <c r="O79" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S79" t="s">
-        <v>69</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79" t="s">
-        <v>317</v>
-      </c>
-      <c r="V79" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W79" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X79" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y79" s="10" t="s">
+      <c r="O81" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q81" s="10">
+        <v>2</v>
+      </c>
+      <c r="R81" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="S81" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T81" s="10">
+        <v>0</v>
+      </c>
+      <c r="U81" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V81" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>318</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>319</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>20</v>
-      </c>
-      <c r="O80" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S80" t="s">
-        <v>69</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80" t="s">
-        <v>320</v>
-      </c>
-      <c r="V80" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W80" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X80" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y80" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="W81" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="X81" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="Y81" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>20</v>
-      </c>
-      <c r="O81" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S81" t="s">
-        <v>69</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81" t="s">
-        <v>323</v>
-      </c>
-      <c r="V81" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W81" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X81" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y81" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" t="s">
-        <v>325</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>20</v>
-      </c>
-      <c r="O82" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q82">
-        <v>2</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S82" t="s">
-        <v>69</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82" t="s">
-        <v>326</v>
-      </c>
-      <c r="V82" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W82" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X82" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y82" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>327</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83" t="s">
-        <v>328</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>20</v>
-      </c>
-      <c r="O83" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S83" t="s">
-        <v>69</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83" t="s">
-        <v>329</v>
-      </c>
-      <c r="V83" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W83" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X83" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y83" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" t="s">
-        <v>331</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>20</v>
-      </c>
-      <c r="O84" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S84" t="s">
-        <v>69</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84" t="s">
-        <v>332</v>
-      </c>
-      <c r="V84" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W84" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X84" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y84" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>334</v>
-      </c>
-      <c r="M85">
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>20</v>
-      </c>
-      <c r="O85" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
-      <c r="R85" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S85" t="s">
-        <v>69</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85" t="s">
-        <v>335</v>
-      </c>
-      <c r="V85" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W85" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X85" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y85" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>336</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
-        <v>337</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>20</v>
-      </c>
-      <c r="O86" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
-      <c r="R86" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S86" t="s">
-        <v>69</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86" t="s">
-        <v>338</v>
-      </c>
-      <c r="V86" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W86" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X86" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y86" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>339</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
-        <v>340</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>20</v>
-      </c>
-      <c r="O87" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S87" t="s">
-        <v>69</v>
-      </c>
-      <c r="T87">
-        <v>0</v>
-      </c>
-      <c r="U87" t="s">
-        <v>341</v>
-      </c>
-      <c r="V87" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W87" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="X87" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y87" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C88" s="11">
-        <v>0</v>
-      </c>
-      <c r="D88" s="11">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-      <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>0</v>
-      </c>
-      <c r="J88" s="11">
-        <v>0</v>
-      </c>
-      <c r="K88" s="11">
-        <v>0</v>
-      </c>
-      <c r="L88" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M88" s="11">
-        <v>2</v>
-      </c>
-      <c r="N88" s="11">
-        <v>20</v>
-      </c>
-      <c r="O88" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q88" s="11">
-        <v>2</v>
-      </c>
-      <c r="R88" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S88" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T88" s="11">
-        <v>0</v>
-      </c>
-      <c r="U88" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V88" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W88" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y88" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C89" s="11">
-        <v>0</v>
-      </c>
-      <c r="D89" s="11">
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>0</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>0</v>
-      </c>
-      <c r="J89" s="11">
-        <v>0</v>
-      </c>
-      <c r="K89" s="11">
-        <v>0</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M89" s="11">
-        <v>2</v>
-      </c>
-      <c r="N89" s="11">
-        <v>20</v>
-      </c>
-      <c r="O89" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q89" s="11">
-        <v>2</v>
-      </c>
-      <c r="R89" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S89" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T89" s="11">
-        <v>0</v>
-      </c>
-      <c r="U89" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V89" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W89" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X89" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y89" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0</v>
-      </c>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>0</v>
-      </c>
-      <c r="J90" s="11">
-        <v>0</v>
-      </c>
-      <c r="K90" s="11">
-        <v>0</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M90" s="11">
-        <v>2</v>
-      </c>
-      <c r="N90" s="11">
-        <v>20</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q90" s="11">
-        <v>2</v>
-      </c>
-      <c r="R90" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S90" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T90" s="11">
-        <v>0</v>
-      </c>
-      <c r="U90" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V90" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W90" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y90" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C91" s="11">
-        <v>0</v>
-      </c>
-      <c r="D91" s="11">
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0</v>
-      </c>
-      <c r="J91" s="11">
-        <v>0</v>
-      </c>
-      <c r="K91" s="11">
-        <v>0</v>
-      </c>
-      <c r="L91" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M91" s="11">
-        <v>2</v>
-      </c>
-      <c r="N91" s="11">
-        <v>20</v>
-      </c>
-      <c r="O91" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q91" s="11">
-        <v>2</v>
-      </c>
-      <c r="R91" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S91" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T91" s="11">
-        <v>0</v>
-      </c>
-      <c r="U91" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V91" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W91" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X91" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y91" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C92" s="11">
-        <v>0</v>
-      </c>
-      <c r="D92" s="11">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11">
-        <v>0</v>
-      </c>
-      <c r="K92" s="11">
-        <v>0</v>
-      </c>
-      <c r="L92" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M92" s="11">
-        <v>2</v>
-      </c>
-      <c r="N92" s="11">
-        <v>20</v>
-      </c>
-      <c r="O92" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q92" s="11">
-        <v>2</v>
-      </c>
-      <c r="R92" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S92" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T92" s="11">
-        <v>0</v>
-      </c>
-      <c r="U92" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V92" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W92" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X92" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y92" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z92" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C93" s="11">
-        <v>0</v>
-      </c>
-      <c r="D93" s="11">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <v>0</v>
-      </c>
-      <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="11">
-        <v>0</v>
-      </c>
-      <c r="L93" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M93" s="11">
-        <v>2</v>
-      </c>
-      <c r="N93" s="11">
-        <v>20</v>
-      </c>
-      <c r="O93" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q93" s="11">
-        <v>2</v>
-      </c>
-      <c r="R93" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S93" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T93" s="11">
-        <v>0</v>
-      </c>
-      <c r="U93" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V93" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W93" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y93" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C94" s="11">
-        <v>0</v>
-      </c>
-      <c r="D94" s="11">
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-      <c r="J94" s="11">
-        <v>0</v>
-      </c>
-      <c r="K94" s="11">
-        <v>0</v>
-      </c>
-      <c r="L94" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M94" s="11">
-        <v>2</v>
-      </c>
-      <c r="N94" s="11">
-        <v>20</v>
-      </c>
-      <c r="O94" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q94" s="11">
-        <v>2</v>
-      </c>
-      <c r="R94" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S94" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T94" s="11">
-        <v>0</v>
-      </c>
-      <c r="U94" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V94" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W94" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X94" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y94" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z94" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C95" s="11">
-        <v>0</v>
-      </c>
-      <c r="D95" s="11">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
-        <v>0</v>
-      </c>
-      <c r="J95" s="11">
-        <v>0</v>
-      </c>
-      <c r="K95" s="11">
-        <v>0</v>
-      </c>
-      <c r="L95" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M95" s="11">
-        <v>2</v>
-      </c>
-      <c r="N95" s="11">
-        <v>20</v>
-      </c>
-      <c r="O95" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q95" s="11">
-        <v>2</v>
-      </c>
-      <c r="R95" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S95" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T95" s="11">
-        <v>0</v>
-      </c>
-      <c r="U95" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V95" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W95" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X95" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y95" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C96" s="11">
-        <v>0</v>
-      </c>
-      <c r="D96" s="11">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11">
-        <v>0</v>
-      </c>
-      <c r="K96" s="11">
-        <v>0</v>
-      </c>
-      <c r="L96" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M96" s="11">
-        <v>2</v>
-      </c>
-      <c r="N96" s="11">
-        <v>20</v>
-      </c>
-      <c r="O96" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q96" s="11">
-        <v>2</v>
-      </c>
-      <c r="R96" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S96" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="T96" s="11">
-        <v>0</v>
-      </c>
-      <c r="U96" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V96" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W96" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y96" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="11">
+      <c r="Z81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="10">
         <v>0</v>
       </c>
     </row>
@@ -10012,198 +8616,198 @@
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:30" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>1</v>
@@ -10293,9 +8897,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -10385,9 +8989,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
@@ -10477,9 +9081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
@@ -10569,9 +9173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -10661,9 +9265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -10753,156 +9357,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="54">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="9"/>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1797,18 +1797,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.1328125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.796875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="3" max="3" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
     <col min="6" max="6" width="13.796875" customWidth="1"/>
     <col min="7" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M76" s="10">
         <v>2</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M77" s="10">
         <v>2</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M78" s="10">
         <v>2</v>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M79" s="10">
         <v>2</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M80" s="10">
         <v>2</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="M81" s="10">
         <v>2</v>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -70,9 +70,6 @@
     <t>Prefab</t>
   </si>
   <si>
-    <t>MoveType</t>
-  </si>
-  <si>
     <t>AtkDis</t>
   </si>
   <si>
@@ -919,21 +916,12 @@
     <t>NPC_HERO_Orc_Slinger</t>
   </si>
   <si>
-    <t>UIResources/Sprites/Hero</t>
-  </si>
-  <si>
-    <t>Orc_Slinger</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Orc_Slinger</t>
   </si>
   <si>
     <t>NPC_HERO_Dwarf_Warrior</t>
   </si>
   <si>
-    <t>Dwarf_Warrior</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Dwarf_Warrior</t>
   </si>
   <si>
@@ -943,63 +931,42 @@
     <t>Prefabs/Object/Wererat_Soldier</t>
   </si>
   <si>
-    <t>Wererat_Soldier</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Wererat_Soldier</t>
   </si>
   <si>
     <t>NPC_HERO_Bristleback</t>
   </si>
   <si>
-    <t>Bristleback</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Bristleback</t>
   </si>
   <si>
     <t>NPC_HERO_Clinkz</t>
   </si>
   <si>
-    <t>Clinkz</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Clinkz</t>
   </si>
   <si>
     <t>NPC_HERO_CrystalMaiden</t>
   </si>
   <si>
-    <t>CrystalMaiden</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/CrystalMaiden</t>
   </si>
   <si>
     <t>NPC_HERO_Ezalor</t>
   </si>
   <si>
-    <t>Ezalor</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Ezalor</t>
   </si>
   <si>
     <t>NPC_HERO_Lifestealer</t>
   </si>
   <si>
-    <t>Lifestealer</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/Lifestealer</t>
   </si>
   <si>
     <t>NPC_HERO_TeaantProtector</t>
   </si>
   <si>
-    <t>TeaantProtector</t>
-  </si>
-  <si>
     <t>UIResources/HeroSprite/TeaantProtector</t>
   </si>
   <si>
@@ -1166,6 +1133,39 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>UIResources/ItemSprite</t>
+  </si>
+  <si>
+    <t>Hero_Bristleback</t>
+  </si>
+  <si>
+    <t>Hero_Clinkz</t>
+  </si>
+  <si>
+    <t>Hero_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Hero_Ezalor</t>
+  </si>
+  <si>
+    <t>Hero_Lifestealer</t>
+  </si>
+  <si>
+    <t>Hero_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Hero_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>Hero_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>Hero_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Climb</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,7 +1431,10 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,9 +1806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L76" sqref="L76:L81"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10:M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1815,6 +1824,9 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="47.46484375" customWidth="1"/>
+    <col min="13" max="13" width="14.73046875" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" customWidth="1"/>
+    <col min="16" max="16" width="16.06640625" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="13.796875" customWidth="1"/>
     <col min="21" max="21" width="11.1328125" customWidth="1"/>
@@ -1822,6 +1834,8 @@
     <col min="23" max="23" width="27.3984375" customWidth="1"/>
     <col min="24" max="24" width="22.1328125" customWidth="1"/>
     <col min="25" max="25" width="36" customWidth="1"/>
+    <col min="26" max="26" width="9.9296875" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="27">
@@ -1862,149 +1876,149 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>0</v>
@@ -2093,7 +2107,7 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
@@ -2182,7 +2196,7 @@
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
@@ -2271,7 +2285,7 @@
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
@@ -2360,7 +2374,7 @@
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -2449,179 +2463,179 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="4" customFormat="1" ht="40.5">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="4" customFormat="1" ht="27">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2651,43 +2665,43 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
         <v>69</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>70</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="W10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="X10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2704,7 +2718,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2734,43 +2748,43 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>77</v>
       </c>
-      <c r="S11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>78</v>
-      </c>
       <c r="V11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="X11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2787,7 +2801,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2817,43 +2831,43 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12">
         <v>2</v>
       </c>
       <c r="R12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>80</v>
       </c>
-      <c r="S12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>81</v>
-      </c>
       <c r="V12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y12" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2870,7 +2884,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2900,43 +2914,43 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
         <v>83</v>
       </c>
-      <c r="S13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>84</v>
-      </c>
       <c r="V13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="X13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y13" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2953,7 +2967,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2983,43 +2997,43 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
         <v>86</v>
       </c>
-      <c r="S14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>87</v>
-      </c>
       <c r="V14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W14" s="13" t="s">
+      <c r="X14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3036,73 +3050,73 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>88</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>89</v>
-      </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
         <v>90</v>
       </c>
-      <c r="S15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>91</v>
-      </c>
       <c r="V15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W15" s="13" t="s">
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3119,73 +3133,73 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>92</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>94</v>
       </c>
-      <c r="S16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>95</v>
-      </c>
       <c r="V16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="X16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y16" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3202,73 +3216,73 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>96</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>97</v>
-      </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17">
         <v>2</v>
       </c>
       <c r="R17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
         <v>98</v>
       </c>
-      <c r="S17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>99</v>
-      </c>
       <c r="V17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="X17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y17" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3285,73 +3299,73 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>100</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>101</v>
-      </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>102</v>
       </c>
-      <c r="S18" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>103</v>
-      </c>
       <c r="V18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="X18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3368,73 +3382,73 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>104</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>105</v>
-      </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>106</v>
       </c>
-      <c r="S19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>107</v>
-      </c>
       <c r="V19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W19" s="13" t="s">
+      <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3451,73 +3465,73 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>108</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>109</v>
-      </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>20</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q20">
         <v>2</v>
       </c>
       <c r="R20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
         <v>110</v>
       </c>
-      <c r="S20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>111</v>
-      </c>
       <c r="V20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="X20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y20" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X20" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3534,73 +3548,73 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>112</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>113</v>
-      </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q21">
         <v>2</v>
       </c>
       <c r="R21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>114</v>
       </c>
-      <c r="S21" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>115</v>
-      </c>
       <c r="V21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W21" s="13" t="s">
+      <c r="X21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y21" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3617,73 +3631,73 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
         <v>116</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>117</v>
-      </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
         <v>118</v>
       </c>
-      <c r="S22" t="s">
-        <v>70</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>119</v>
-      </c>
       <c r="V22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="X22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3700,73 +3714,73 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>120</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>121</v>
-      </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>20</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" t="s">
+        <v>69</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
         <v>122</v>
       </c>
-      <c r="S23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>123</v>
-      </c>
       <c r="V23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W23" s="13" t="s">
+      <c r="X23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y23" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X23" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3783,73 +3797,73 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>124</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>125</v>
-      </c>
       <c r="M24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>20</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>126</v>
       </c>
-      <c r="S24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>127</v>
-      </c>
       <c r="V24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W24" s="13" t="s">
+      <c r="X24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y24" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3866,73 +3880,73 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>128</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>129</v>
-      </c>
       <c r="M25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>20</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S25" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
         <v>130</v>
       </c>
-      <c r="S25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>131</v>
-      </c>
       <c r="V25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W25" s="13" t="s">
+      <c r="X25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y25" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X25" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3949,73 +3963,73 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>132</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>133</v>
-      </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>20</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
         <v>134</v>
       </c>
-      <c r="S26" t="s">
-        <v>70</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>135</v>
-      </c>
       <c r="V26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="X26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X26" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -4032,73 +4046,73 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
         <v>136</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>137</v>
-      </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>20</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S27" t="s">
+        <v>69</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" t="s">
         <v>138</v>
       </c>
-      <c r="S27" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
-        <v>139</v>
-      </c>
       <c r="V27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="X27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y27" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X27" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4115,73 +4129,73 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>140</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>141</v>
-      </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S28" t="s">
+        <v>69</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
         <v>142</v>
       </c>
-      <c r="S28" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>143</v>
-      </c>
       <c r="V28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="X28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y28" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X28" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -4198,73 +4212,73 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
         <v>144</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>145</v>
-      </c>
       <c r="M29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>20</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q29">
         <v>2</v>
       </c>
       <c r="R29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
         <v>146</v>
       </c>
-      <c r="S29" t="s">
-        <v>70</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>147</v>
-      </c>
       <c r="V29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W29" s="13" t="s">
+      <c r="X29" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y29" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X29" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -4281,73 +4295,73 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>148</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>149</v>
-      </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>20</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q30">
         <v>2</v>
       </c>
       <c r="R30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30" t="s">
+        <v>69</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>150</v>
       </c>
-      <c r="S30" t="s">
-        <v>70</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
-        <v>151</v>
-      </c>
       <c r="V30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="X30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y30" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X30" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4364,73 +4378,73 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
         <v>152</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>153</v>
-      </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" t="s">
+        <v>69</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>154</v>
       </c>
-      <c r="S31" t="s">
-        <v>70</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>155</v>
-      </c>
       <c r="V31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="X31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y31" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X31" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4447,73 +4461,73 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
         <v>156</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>157</v>
-      </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>20</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q32">
         <v>2</v>
       </c>
       <c r="R32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
         <v>158</v>
       </c>
-      <c r="S32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>159</v>
-      </c>
       <c r="V32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W32" s="13" t="s">
+      <c r="X32" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y32" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4530,73 +4544,73 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>160</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>161</v>
-      </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q33">
         <v>2</v>
       </c>
       <c r="R33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S33" t="s">
+        <v>69</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
         <v>162</v>
       </c>
-      <c r="S33" t="s">
-        <v>70</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>163</v>
-      </c>
       <c r="V33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="X33" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y33" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X33" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y33" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4613,73 +4627,73 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>164</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>165</v>
-      </c>
       <c r="M34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>20</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S34" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
         <v>166</v>
       </c>
-      <c r="S34" t="s">
-        <v>70</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
-        <v>167</v>
-      </c>
       <c r="V34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W34" s="13" t="s">
+      <c r="X34" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y34" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X34" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4696,73 +4710,73 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
         <v>168</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>169</v>
-      </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>20</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q35">
         <v>2</v>
       </c>
       <c r="R35" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S35" t="s">
+        <v>69</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" t="s">
         <v>170</v>
       </c>
-      <c r="S35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>171</v>
-      </c>
       <c r="V35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W35" s="13" t="s">
+      <c r="X35" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y35" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X35" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4779,73 +4793,73 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
         <v>172</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>173</v>
-      </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>20</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q36">
         <v>2</v>
       </c>
       <c r="R36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S36" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
         <v>174</v>
       </c>
-      <c r="S36" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36" t="s">
-        <v>175</v>
-      </c>
       <c r="V36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W36" s="13" t="s">
+      <c r="X36" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y36" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X36" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y36" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4862,73 +4876,73 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
         <v>176</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>177</v>
-      </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>20</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q37">
         <v>2</v>
       </c>
       <c r="R37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="S37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
         <v>178</v>
       </c>
-      <c r="S37" t="s">
-        <v>70</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>179</v>
-      </c>
       <c r="V37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W37" s="13" t="s">
+      <c r="X37" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y37" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X37" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y37" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4945,73 +4959,73 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
         <v>180</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>181</v>
-      </c>
       <c r="M38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>20</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q38">
         <v>2</v>
       </c>
       <c r="R38" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" t="s">
+        <v>69</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
         <v>182</v>
       </c>
-      <c r="S38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>183</v>
-      </c>
       <c r="V38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="X38" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y38" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X38" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y38" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -5028,73 +5042,73 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
         <v>184</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>185</v>
-      </c>
       <c r="M39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="S39" t="s">
+        <v>69</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
         <v>186</v>
       </c>
-      <c r="S39" t="s">
-        <v>70</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>187</v>
-      </c>
       <c r="V39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W39" s="13" t="s">
+      <c r="X39" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y39" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X39" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -5111,73 +5125,73 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
         <v>188</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>189</v>
-      </c>
       <c r="M40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>20</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="S40" t="s">
+        <v>69</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
         <v>190</v>
       </c>
-      <c r="S40" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40" t="s">
-        <v>191</v>
-      </c>
       <c r="V40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W40" s="13" t="s">
+      <c r="X40" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y40" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X40" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -5194,73 +5208,73 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
         <v>192</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>193</v>
-      </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>20</v>
       </c>
       <c r="O41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q41">
         <v>2</v>
       </c>
       <c r="R41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="S41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="s">
         <v>194</v>
       </c>
-      <c r="S41" t="s">
-        <v>70</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
-        <v>195</v>
-      </c>
       <c r="V41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W41" s="13" t="s">
+      <c r="X41" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y41" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X41" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -5277,73 +5291,73 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>196</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>197</v>
-      </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>20</v>
       </c>
       <c r="O42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="S42" t="s">
+        <v>69</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
         <v>198</v>
       </c>
-      <c r="S42" t="s">
-        <v>70</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>199</v>
-      </c>
       <c r="V42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W42" s="13" t="s">
+      <c r="X42" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y42" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X42" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -5360,73 +5374,73 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
         <v>200</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>201</v>
-      </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>20</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q43">
         <v>2</v>
       </c>
       <c r="R43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="S43" t="s">
+        <v>69</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
         <v>202</v>
       </c>
-      <c r="S43" t="s">
-        <v>70</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43" t="s">
-        <v>203</v>
-      </c>
       <c r="V43" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W43" s="13" t="s">
+      <c r="X43" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y43" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X43" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y43" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -5443,73 +5457,73 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
         <v>204</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>205</v>
-      </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q44">
         <v>2</v>
       </c>
       <c r="R44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S44" t="s">
+        <v>69</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" t="s">
         <v>206</v>
       </c>
-      <c r="S44" t="s">
-        <v>70</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>207</v>
-      </c>
       <c r="V44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W44" s="13" t="s">
+      <c r="X44" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y44" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X44" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y44" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5526,73 +5540,73 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
         <v>208</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>209</v>
-      </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>20</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="S45" t="s">
+        <v>69</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" t="s">
         <v>210</v>
       </c>
-      <c r="S45" t="s">
-        <v>70</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45" t="s">
-        <v>211</v>
-      </c>
       <c r="V45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W45" s="13" t="s">
+      <c r="X45" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y45" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X45" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y45" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5609,73 +5623,73 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
         <v>212</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>213</v>
-      </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>20</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="S46" t="s">
+        <v>69</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
         <v>214</v>
       </c>
-      <c r="S46" t="s">
-        <v>70</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46" t="s">
-        <v>215</v>
-      </c>
       <c r="V46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W46" s="13" t="s">
+      <c r="X46" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y46" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X46" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y46" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5692,73 +5706,73 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>216</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>217</v>
-      </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>20</v>
       </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q47">
         <v>2</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V47" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W47" s="13" t="s">
+      <c r="X47" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y47" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X47" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y47" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5775,73 +5789,73 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
         <v>219</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>220</v>
-      </c>
       <c r="M48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>20</v>
       </c>
       <c r="O48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q48">
         <v>2</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V48" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W48" s="13" t="s">
+      <c r="X48" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y48" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X48" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y48" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5858,73 +5872,73 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>222</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>223</v>
-      </c>
       <c r="M49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>20</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q49">
         <v>2</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W49" s="13" t="s">
+      <c r="X49" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y49" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X49" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y49" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5941,73 +5955,73 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
         <v>225</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>226</v>
-      </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>20</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q50">
         <v>2</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W50" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W50" s="13" t="s">
+      <c r="X50" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y50" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y50" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -6024,73 +6038,73 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
         <v>228</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>229</v>
-      </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>20</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V51" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W51" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W51" s="13" t="s">
+      <c r="X51" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y51" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y51" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -6107,73 +6121,73 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
         <v>231</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>232</v>
-      </c>
       <c r="M52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>20</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V52" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W52" s="13" t="s">
+      <c r="X52" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y52" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X52" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y52" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -6190,73 +6204,73 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
         <v>234</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
-        <v>235</v>
-      </c>
       <c r="M53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>20</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W53" s="13" t="s">
+      <c r="X53" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y53" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X53" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y53" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -6273,73 +6287,73 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
         <v>237</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>238</v>
-      </c>
       <c r="M54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>20</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q54">
         <v>2</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W54" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W54" s="13" t="s">
+      <c r="X54" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y54" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X54" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y54" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -6356,73 +6370,73 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
         <v>240</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>241</v>
-      </c>
       <c r="M55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>20</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q55">
         <v>2</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W55" s="13" t="s">
+      <c r="X55" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y55" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X55" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y55" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -6439,73 +6453,73 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
         <v>243</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
-        <v>244</v>
-      </c>
       <c r="M56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>20</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q56">
         <v>2</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W56" s="13" t="s">
+      <c r="X56" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y56" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X56" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y56" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -6522,73 +6536,73 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
         <v>246</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
-        <v>247</v>
-      </c>
       <c r="M57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>20</v>
       </c>
       <c r="O57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q57">
         <v>2</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W57" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W57" s="13" t="s">
+      <c r="X57" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y57" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X57" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y57" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6605,73 +6619,73 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
         <v>249</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>250</v>
-      </c>
       <c r="M58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>20</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q58">
         <v>2</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W58" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W58" s="13" t="s">
+      <c r="X58" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y58" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X58" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y58" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6688,73 +6702,73 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
         <v>252</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>253</v>
-      </c>
       <c r="M59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>20</v>
       </c>
       <c r="O59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q59">
         <v>2</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V59" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W59" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W59" s="13" t="s">
+      <c r="X59" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y59" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X59" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y59" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6771,73 +6785,73 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
         <v>255</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>256</v>
-      </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>20</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q60">
         <v>2</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W60" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W60" s="13" t="s">
+      <c r="X60" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y60" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X60" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y60" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6854,73 +6868,73 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
         <v>258</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>259</v>
-      </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>20</v>
       </c>
       <c r="O61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W61" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W61" s="13" t="s">
+      <c r="X61" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y61" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X61" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y61" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6937,73 +6951,73 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
         <v>261</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
-        <v>262</v>
-      </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q62">
         <v>2</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W62" s="13" t="s">
+      <c r="X62" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y62" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X62" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y62" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -7020,73 +7034,73 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
         <v>264</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>265</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>20</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q63">
         <v>2</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W63" s="13" t="s">
+      <c r="X63" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y63" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X63" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y63" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -7103,73 +7117,73 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
         <v>267</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>268</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>20</v>
       </c>
       <c r="O64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q64">
         <v>2</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W64" s="13" t="s">
+      <c r="X64" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y64" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X64" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y64" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -7186,73 +7200,73 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
         <v>270</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>271</v>
-      </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>20</v>
       </c>
       <c r="O65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W65" s="13" t="s">
+      <c r="X65" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y65" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X65" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y65" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -7269,73 +7283,73 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
         <v>273</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
-        <v>274</v>
-      </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>20</v>
       </c>
       <c r="O66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q66">
         <v>2</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W66" s="13" t="s">
+      <c r="X66" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y66" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X66" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y66" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -7352,73 +7366,73 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
         <v>276</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67" t="s">
-        <v>277</v>
-      </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>20</v>
       </c>
       <c r="O67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q67">
         <v>2</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W67" s="13" t="s">
+      <c r="X67" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y67" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X67" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y67" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -7435,73 +7449,73 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
         <v>279</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
-        <v>280</v>
-      </c>
       <c r="M68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>20</v>
       </c>
       <c r="O68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q68">
         <v>2</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V68" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W68" s="13" t="s">
+      <c r="X68" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y68" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X68" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y68" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -7518,73 +7532,73 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>282</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>283</v>
-      </c>
       <c r="M69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>20</v>
       </c>
       <c r="O69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q69">
         <v>2</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V69" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W69" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W69" s="13" t="s">
+      <c r="X69" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y69" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X69" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y69" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7601,73 +7615,73 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
         <v>285</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>286</v>
-      </c>
       <c r="M70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>20</v>
       </c>
       <c r="O70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q70">
         <v>2</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W70" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W70" s="13" t="s">
+      <c r="X70" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y70" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X70" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y70" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7684,73 +7698,73 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
         <v>288</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>289</v>
-      </c>
       <c r="M71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>20</v>
       </c>
       <c r="O71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q71">
         <v>2</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W71" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W71" s="13" t="s">
+      <c r="X71" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y71" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X71" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y71" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7767,73 +7781,73 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
         <v>291</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>292</v>
-      </c>
       <c r="M72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>20</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q72">
         <v>2</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W72" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W72" s="13" t="s">
+      <c r="X72" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y72" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="X72" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y72" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7850,7 +7864,7 @@
     </row>
     <row r="73" spans="1:29" s="10" customFormat="1">
       <c r="A73" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="10">
         <v>0</v>
@@ -7880,43 +7894,43 @@
         <v>0</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M73" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" s="10">
         <v>20</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q73" s="10">
         <v>2</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T73" s="10">
         <v>0</v>
       </c>
       <c r="U73" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W73" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X73" s="10" t="s">
-        <v>296</v>
+        <v>71</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X73" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="Y73" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z73" s="10">
         <v>0</v>
@@ -7933,7 +7947,7 @@
     </row>
     <row r="74" spans="1:29" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
@@ -7963,43 +7977,43 @@
         <v>0</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M74" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74" s="10">
         <v>20</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q74" s="10">
         <v>2</v>
       </c>
       <c r="R74" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T74" s="10">
         <v>0</v>
       </c>
       <c r="U74" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V74" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W74" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X74" s="10" t="s">
-        <v>299</v>
+        <v>71</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X74" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="Y74" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Z74" s="10">
         <v>0</v>
@@ -8016,7 +8030,7 @@
     </row>
     <row r="75" spans="1:29" s="10" customFormat="1">
       <c r="A75" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
@@ -8046,43 +8060,43 @@
         <v>0</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M75" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N75" s="10">
         <v>20</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q75" s="10">
         <v>2</v>
       </c>
       <c r="R75" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T75" s="10">
         <v>0</v>
       </c>
       <c r="U75" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W75" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X75" s="10" t="s">
-        <v>303</v>
+        <v>71</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X75" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="Y75" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z75" s="10">
         <v>0</v>
@@ -8099,7 +8113,7 @@
     </row>
     <row r="76" spans="1:29" s="10" customFormat="1">
       <c r="A76" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
@@ -8129,43 +8143,43 @@
         <v>0</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M76" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76" s="10">
         <v>20</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q76" s="10">
         <v>2</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S76" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T76" s="10">
         <v>0</v>
       </c>
       <c r="U76" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W76" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X76" s="10" t="s">
-        <v>306</v>
+        <v>71</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X76" s="17" t="s">
+        <v>368</v>
       </c>
       <c r="Y76" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Z76" s="10">
         <v>0</v>
@@ -8182,7 +8196,7 @@
     </row>
     <row r="77" spans="1:29" s="10" customFormat="1">
       <c r="A77" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -8212,43 +8226,43 @@
         <v>0</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M77" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N77" s="10">
         <v>20</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q77" s="10">
         <v>2</v>
       </c>
       <c r="R77" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T77" s="10">
         <v>0</v>
       </c>
       <c r="U77" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V77" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W77" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X77" s="10" t="s">
-        <v>309</v>
+        <v>71</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X77" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="Y77" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Z77" s="10">
         <v>0</v>
@@ -8265,7 +8279,7 @@
     </row>
     <row r="78" spans="1:29" s="10" customFormat="1">
       <c r="A78" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -8295,43 +8309,43 @@
         <v>0</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M78" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78" s="10">
         <v>20</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q78" s="10">
         <v>2</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T78" s="10">
         <v>0</v>
       </c>
       <c r="U78" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W78" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X78" s="10" t="s">
-        <v>312</v>
+        <v>71</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X78" s="17" t="s">
+        <v>370</v>
       </c>
       <c r="Y78" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Z78" s="10">
         <v>0</v>
@@ -8348,7 +8362,7 @@
     </row>
     <row r="79" spans="1:29" s="10" customFormat="1">
       <c r="A79" s="10" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -8378,43 +8392,43 @@
         <v>0</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M79" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79" s="10">
         <v>20</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q79" s="10">
         <v>2</v>
       </c>
       <c r="R79" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T79" s="10">
         <v>0</v>
       </c>
       <c r="U79" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V79" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W79" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X79" s="10" t="s">
-        <v>315</v>
+        <v>71</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X79" s="17" t="s">
+        <v>371</v>
       </c>
       <c r="Y79" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Z79" s="10">
         <v>0</v>
@@ -8431,7 +8445,7 @@
     </row>
     <row r="80" spans="1:29" s="10" customFormat="1">
       <c r="A80" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -8461,43 +8475,43 @@
         <v>0</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M80" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80" s="10">
         <v>20</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q80" s="10">
         <v>2</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T80" s="10">
         <v>0</v>
       </c>
       <c r="U80" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W80" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X80" s="10" t="s">
-        <v>318</v>
+        <v>71</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X80" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="Y80" s="10" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Z80" s="10">
         <v>0</v>
@@ -8514,7 +8528,7 @@
     </row>
     <row r="81" spans="1:29" s="10" customFormat="1">
       <c r="A81" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -8544,43 +8558,43 @@
         <v>0</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M81" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" s="10">
         <v>20</v>
       </c>
       <c r="O81" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q81" s="10">
         <v>2</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T81" s="10">
         <v>0</v>
       </c>
       <c r="U81" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="W81" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="X81" s="10" t="s">
-        <v>321</v>
+        <v>71</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="X81" s="17" t="s">
+        <v>373</v>
       </c>
       <c r="Y81" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="Z81" s="10">
         <v>0</v>
@@ -8626,188 +8640,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>1</v>
@@ -8899,7 +8913,7 @@
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -8991,7 +9005,7 @@
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
@@ -9083,7 +9097,7 @@
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
@@ -9175,7 +9189,7 @@
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -9267,7 +9281,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -9359,94 +9373,94 @@
     </row>
     <row r="9" spans="1:30" s="4" customFormat="1" ht="54">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:30">

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="418">
   <si>
     <t>Id</t>
   </si>
@@ -1256,6 +1256,36 @@
   </si>
   <si>
     <t>SKILL_TeaantProtector_THUMP</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Orc_Slinger_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Dwarf_Warrior_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Wererat_Soldier_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Bristleback_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Clinkz_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_CrystalMaiden_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Ezalor_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_Lifestealer_Idle</t>
+  </si>
+  <si>
+    <t>SKILL_TeaantProtector_Idle</t>
   </si>
 </sst>
 </file>
@@ -1894,11 +1924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y75" sqref="Y75"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P73" sqref="P73:P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1916,20 +1946,21 @@
     <col min="12" max="12" width="47.46484375" customWidth="1"/>
     <col min="13" max="13" width="14.73046875" customWidth="1"/>
     <col min="15" max="15" width="16.86328125" customWidth="1"/>
-    <col min="16" max="18" width="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.796875" customWidth="1"/>
-    <col min="23" max="23" width="11.1328125" customWidth="1"/>
-    <col min="24" max="24" width="13.9296875" customWidth="1"/>
-    <col min="25" max="25" width="27.3984375" customWidth="1"/>
-    <col min="26" max="26" width="22.1328125" customWidth="1"/>
-    <col min="27" max="27" width="36" customWidth="1"/>
-    <col min="28" max="28" width="9.9296875" customWidth="1"/>
-    <col min="30" max="30" width="12.59765625" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="13.796875" customWidth="1"/>
+    <col min="24" max="24" width="11.1328125" customWidth="1"/>
+    <col min="25" max="25" width="13.9296875" customWidth="1"/>
+    <col min="26" max="26" width="27.3984375" customWidth="1"/>
+    <col min="27" max="27" width="22.1328125" customWidth="1"/>
+    <col min="28" max="28" width="36" customWidth="1"/>
+    <col min="29" max="29" width="9.9296875" customWidth="1"/>
+    <col min="31" max="31" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1976,55 +2007,58 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="14.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -2080,46 +2114,49 @@
         <v>28</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" ht="14.25">
+    <row r="3" spans="1:32" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -2192,10 +2229,10 @@
       <c r="X3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2" t="b">
+      <c r="Y3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="AA3" s="2" t="b">
@@ -2213,8 +2250,11 @@
       <c r="AE3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="14.25">
+      <c r="AF3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -2287,10 +2327,10 @@
       <c r="X4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="b">
+      <c r="Y4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="AA4" s="2" t="b">
@@ -2300,16 +2340,19 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="14.25">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2382,10 +2425,10 @@
       <c r="X5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="b">
+      <c r="Y5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="AA5" s="2" t="b">
@@ -2395,16 +2438,19 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" ht="14.25">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -2477,10 +2523,10 @@
       <c r="X6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="b">
+      <c r="Y6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="AA6" s="2" t="b">
@@ -2498,8 +2544,11 @@
       <c r="AE6" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="3" customFormat="1">
+      <c r="AF6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -2593,8 +2642,11 @@
       <c r="AE7" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="3" customFormat="1">
+      <c r="AF7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
@@ -2688,8 +2740,11 @@
       <c r="AE8" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="4" customFormat="1" ht="40.5">
+      <c r="AF8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="4" customFormat="1" ht="40.5">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2739,46 +2794,49 @@
         <v>51</v>
       </c>
       <c r="S9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Z9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
@@ -2821,36 +2879,33 @@
       <c r="O10" t="s">
         <v>66</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>68</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Z10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="AA10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AA10" s="14" t="s">
+      <c r="AB10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>0</v>
       </c>
@@ -2860,8 +2915,11 @@
       <c r="AE10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -2904,36 +2962,33 @@
       <c r="O11" t="s">
         <v>66</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="U11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>68</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>76</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="Y11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Z11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="AA11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="14" t="s">
+      <c r="AB11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
         <v>0</v>
       </c>
@@ -2943,8 +2998,11 @@
       <c r="AE11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
@@ -2987,36 +3045,33 @@
       <c r="O12" t="s">
         <v>66</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="U12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>68</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="Y12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Z12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="9" t="s">
+      <c r="AA12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AA12" s="14" t="s">
+      <c r="AB12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
         <v>0</v>
       </c>
@@ -3026,8 +3081,11 @@
       <c r="AE12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -3070,36 +3128,33 @@
       <c r="O13" t="s">
         <v>66</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="U13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>68</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>82</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="Y13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Z13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z13" s="9" t="s">
+      <c r="AA13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AA13" s="14" t="s">
+      <c r="AB13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
         <v>0</v>
       </c>
@@ -3109,8 +3164,11 @@
       <c r="AE13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
@@ -3153,36 +3211,33 @@
       <c r="O14" t="s">
         <v>66</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>68</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>85</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="Y14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Z14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AA14" s="14" t="s">
+      <c r="AB14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
       <c r="AC14">
         <v>0</v>
       </c>
@@ -3192,8 +3247,11 @@
       <c r="AE14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -3236,36 +3294,33 @@
       <c r="O15" t="s">
         <v>66</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>68</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>89</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="Y15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="Z15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>86</v>
       </c>
-      <c r="AA15" s="14" t="s">
+      <c r="AB15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15">
         <v>0</v>
       </c>
@@ -3275,8 +3330,11 @@
       <c r="AE15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3319,36 +3377,33 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>68</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
         <v>93</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="Y16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="Z16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>90</v>
       </c>
-      <c r="AA16" s="14" t="s">
+      <c r="AB16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
         <v>0</v>
       </c>
@@ -3358,8 +3413,11 @@
       <c r="AE16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -3402,36 +3460,33 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>68</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>97</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="Y17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="Z17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>94</v>
       </c>
-      <c r="AA17" s="14" t="s">
+      <c r="AB17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
         <v>0</v>
       </c>
@@ -3441,8 +3496,11 @@
       <c r="AE17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3485,36 +3543,33 @@
       <c r="O18" t="s">
         <v>66</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="U18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>68</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>101</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="Y18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y18" s="13" t="s">
+      <c r="Z18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>98</v>
       </c>
-      <c r="AA18" s="14" t="s">
+      <c r="AB18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
       <c r="AC18">
         <v>0</v>
       </c>
@@ -3524,8 +3579,11 @@
       <c r="AE18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3568,36 +3626,33 @@
       <c r="O19" t="s">
         <v>66</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="U19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>68</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>105</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="Y19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y19" s="13" t="s">
+      <c r="Z19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AA19" s="14" t="s">
+      <c r="AB19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
         <v>0</v>
       </c>
@@ -3607,8 +3662,11 @@
       <c r="AE19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -3651,36 +3709,33 @@
       <c r="O20" t="s">
         <v>66</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="U20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>68</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>109</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="Y20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y20" s="13" t="s">
+      <c r="Z20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>106</v>
       </c>
-      <c r="AA20" s="14" t="s">
+      <c r="AB20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
       <c r="AC20">
         <v>0</v>
       </c>
@@ -3690,8 +3745,11 @@
       <c r="AE20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -3734,36 +3792,33 @@
       <c r="O21" t="s">
         <v>66</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="U21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>68</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>113</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="Y21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y21" s="13" t="s">
+      <c r="Z21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>110</v>
       </c>
-      <c r="AA21" s="14" t="s">
+      <c r="AB21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
         <v>0</v>
       </c>
@@ -3773,8 +3828,11 @@
       <c r="AE21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -3817,36 +3875,33 @@
       <c r="O22" t="s">
         <v>66</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>68</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>117</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="Y22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y22" s="13" t="s">
+      <c r="Z22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>114</v>
       </c>
-      <c r="AA22" s="14" t="s">
+      <c r="AB22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
         <v>0</v>
       </c>
@@ -3856,8 +3911,11 @@
       <c r="AE22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -3900,36 +3958,33 @@
       <c r="O23" t="s">
         <v>66</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>68</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>121</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="Y23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y23" s="13" t="s">
+      <c r="Z23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>118</v>
       </c>
-      <c r="AA23" s="14" t="s">
+      <c r="AB23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
         <v>0</v>
       </c>
@@ -3939,8 +3994,11 @@
       <c r="AE23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3983,36 +4041,33 @@
       <c r="O24" t="s">
         <v>66</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="U24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>68</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>125</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="Y24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y24" s="13" t="s">
+      <c r="Z24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>122</v>
       </c>
-      <c r="AA24" s="14" t="s">
+      <c r="AB24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
         <v>0</v>
       </c>
@@ -4022,8 +4077,11 @@
       <c r="AE24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -4066,36 +4124,33 @@
       <c r="O25" t="s">
         <v>66</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="U25" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>68</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>129</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="Y25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y25" s="13" t="s">
+      <c r="Z25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>126</v>
       </c>
-      <c r="AA25" s="14" t="s">
+      <c r="AB25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
         <v>0</v>
       </c>
@@ -4105,8 +4160,11 @@
       <c r="AE25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4149,36 +4207,33 @@
       <c r="O26" t="s">
         <v>66</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="U26" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>68</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>133</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="Y26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y26" s="13" t="s">
+      <c r="Z26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>130</v>
       </c>
-      <c r="AA26" s="14" t="s">
+      <c r="AB26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
         <v>0</v>
       </c>
@@ -4188,8 +4243,11 @@
       <c r="AE26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4232,36 +4290,33 @@
       <c r="O27" t="s">
         <v>66</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="U27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>68</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
         <v>137</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="Y27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="13" t="s">
+      <c r="Z27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>134</v>
       </c>
-      <c r="AA27" s="14" t="s">
+      <c r="AB27" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
         <v>0</v>
       </c>
@@ -4271,8 +4326,11 @@
       <c r="AE27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4315,36 +4373,33 @@
       <c r="O28" t="s">
         <v>66</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="U28" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>68</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
         <v>141</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="Y28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y28" s="13" t="s">
+      <c r="Z28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>138</v>
       </c>
-      <c r="AA28" s="14" t="s">
+      <c r="AB28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
         <v>0</v>
       </c>
@@ -4354,8 +4409,11 @@
       <c r="AE28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4398,36 +4456,33 @@
       <c r="O29" t="s">
         <v>66</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="U29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>68</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
         <v>145</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="Y29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y29" s="13" t="s">
+      <c r="Z29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>142</v>
       </c>
-      <c r="AA29" s="14" t="s">
+      <c r="AB29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
         <v>0</v>
       </c>
@@ -4437,8 +4492,11 @@
       <c r="AE29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -4481,36 +4539,33 @@
       <c r="O30" t="s">
         <v>66</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="U30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>68</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
         <v>149</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="Y30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y30" s="13" t="s">
+      <c r="Z30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>146</v>
       </c>
-      <c r="AA30" s="14" t="s">
+      <c r="AB30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
         <v>0</v>
       </c>
@@ -4520,8 +4575,11 @@
       <c r="AE30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4564,36 +4622,33 @@
       <c r="O31" t="s">
         <v>66</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="U31" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>68</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>153</v>
       </c>
-      <c r="X31" s="9" t="s">
+      <c r="Y31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Z31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>150</v>
       </c>
-      <c r="AA31" s="14" t="s">
+      <c r="AB31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
       <c r="AC31">
         <v>0</v>
       </c>
@@ -4603,8 +4658,11 @@
       <c r="AE31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -4647,36 +4705,33 @@
       <c r="O32" t="s">
         <v>66</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2</v>
       </c>
-      <c r="T32" s="9" t="s">
+      <c r="U32" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>68</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
         <v>157</v>
       </c>
-      <c r="X32" s="9" t="s">
+      <c r="Y32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y32" s="13" t="s">
+      <c r="Z32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>154</v>
       </c>
-      <c r="AA32" s="14" t="s">
+      <c r="AB32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
       <c r="AC32">
         <v>0</v>
       </c>
@@ -4686,8 +4741,11 @@
       <c r="AE32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4730,36 +4788,33 @@
       <c r="O33" t="s">
         <v>66</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2</v>
       </c>
-      <c r="T33" s="9" t="s">
+      <c r="U33" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>68</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>161</v>
       </c>
-      <c r="X33" s="9" t="s">
+      <c r="Y33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y33" s="13" t="s">
+      <c r="Z33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>158</v>
       </c>
-      <c r="AA33" s="14" t="s">
+      <c r="AB33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
         <v>0</v>
       </c>
@@ -4769,8 +4824,11 @@
       <c r="AE33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -4813,36 +4871,33 @@
       <c r="O34" t="s">
         <v>66</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="U34" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>68</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>165</v>
       </c>
-      <c r="X34" s="9" t="s">
+      <c r="Y34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y34" s="13" t="s">
+      <c r="Z34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>162</v>
       </c>
-      <c r="AA34" s="14" t="s">
+      <c r="AB34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
       <c r="AC34">
         <v>0</v>
       </c>
@@ -4852,8 +4907,11 @@
       <c r="AE34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -4896,36 +4954,33 @@
       <c r="O35" t="s">
         <v>66</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="U35" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>68</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
         <v>169</v>
       </c>
-      <c r="X35" s="9" t="s">
+      <c r="Y35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y35" s="13" t="s">
+      <c r="Z35" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>166</v>
       </c>
-      <c r="AA35" s="14" t="s">
+      <c r="AB35" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>0</v>
       </c>
@@ -4935,8 +4990,11 @@
       <c r="AE35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AF35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -4979,36 +5037,33 @@
       <c r="O36" t="s">
         <v>66</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2</v>
       </c>
-      <c r="T36" s="9" t="s">
+      <c r="U36" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>68</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
         <v>173</v>
       </c>
-      <c r="X36" s="9" t="s">
+      <c r="Y36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y36" s="13" t="s">
+      <c r="Z36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>170</v>
       </c>
-      <c r="AA36" s="14" t="s">
+      <c r="AB36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
       <c r="AC36">
         <v>0</v>
       </c>
@@ -5018,8 +5073,11 @@
       <c r="AE36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -5062,36 +5120,33 @@
       <c r="O37" t="s">
         <v>66</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="U37" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>68</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
         <v>177</v>
       </c>
-      <c r="X37" s="9" t="s">
+      <c r="Y37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y37" s="13" t="s">
+      <c r="Z37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>174</v>
       </c>
-      <c r="AA37" s="14" t="s">
+      <c r="AB37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
         <v>0</v>
       </c>
@@ -5101,8 +5156,11 @@
       <c r="AE37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AF37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -5145,36 +5203,33 @@
       <c r="O38" t="s">
         <v>66</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2</v>
       </c>
-      <c r="T38" s="9" t="s">
+      <c r="U38" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>68</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
         <v>181</v>
       </c>
-      <c r="X38" s="9" t="s">
+      <c r="Y38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y38" s="13" t="s">
+      <c r="Z38" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>178</v>
       </c>
-      <c r="AA38" s="14" t="s">
+      <c r="AB38" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
       <c r="AC38">
         <v>0</v>
       </c>
@@ -5184,8 +5239,11 @@
       <c r="AE38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AF38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -5228,36 +5286,33 @@
       <c r="O39" t="s">
         <v>66</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>2</v>
       </c>
-      <c r="T39" s="9" t="s">
+      <c r="U39" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>68</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
         <v>185</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="Y39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y39" s="13" t="s">
+      <c r="Z39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>182</v>
       </c>
-      <c r="AA39" s="14" t="s">
+      <c r="AB39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
         <v>0</v>
       </c>
@@ -5267,8 +5322,11 @@
       <c r="AE39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -5311,36 +5369,33 @@
       <c r="O40" t="s">
         <v>66</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>2</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="U40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>68</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>189</v>
       </c>
-      <c r="X40" s="9" t="s">
+      <c r="Y40" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y40" s="13" t="s">
+      <c r="Z40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>186</v>
       </c>
-      <c r="AA40" s="14" t="s">
+      <c r="AB40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
       <c r="AC40">
         <v>0</v>
       </c>
@@ -5350,8 +5405,11 @@
       <c r="AE40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AF40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -5394,36 +5452,33 @@
       <c r="O41" t="s">
         <v>66</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2</v>
       </c>
-      <c r="T41" s="9" t="s">
+      <c r="U41" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>68</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
         <v>193</v>
       </c>
-      <c r="X41" s="9" t="s">
+      <c r="Y41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y41" s="13" t="s">
+      <c r="Z41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>190</v>
       </c>
-      <c r="AA41" s="14" t="s">
+      <c r="AB41" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
         <v>0</v>
       </c>
@@ -5433,8 +5488,11 @@
       <c r="AE41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AF41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -5477,36 +5535,33 @@
       <c r="O42" t="s">
         <v>66</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>2</v>
       </c>
-      <c r="T42" s="9" t="s">
+      <c r="U42" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>68</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
         <v>197</v>
       </c>
-      <c r="X42" s="9" t="s">
+      <c r="Y42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y42" s="13" t="s">
+      <c r="Z42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>194</v>
       </c>
-      <c r="AA42" s="14" t="s">
+      <c r="AB42" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
       <c r="AC42">
         <v>0</v>
       </c>
@@ -5516,8 +5571,11 @@
       <c r="AE42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AF42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -5560,36 +5618,33 @@
       <c r="O43" t="s">
         <v>66</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>2</v>
       </c>
-      <c r="T43" s="9" t="s">
+      <c r="U43" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>68</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
         <v>201</v>
       </c>
-      <c r="X43" s="9" t="s">
+      <c r="Y43" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y43" s="13" t="s">
+      <c r="Z43" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>198</v>
       </c>
-      <c r="AA43" s="14" t="s">
+      <c r="AB43" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
       <c r="AC43">
         <v>0</v>
       </c>
@@ -5599,8 +5654,11 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -5643,36 +5701,33 @@
       <c r="O44" t="s">
         <v>66</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2</v>
       </c>
-      <c r="T44" s="9" t="s">
+      <c r="U44" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>68</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>205</v>
       </c>
-      <c r="X44" s="9" t="s">
+      <c r="Y44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y44" s="13" t="s">
+      <c r="Z44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>202</v>
       </c>
-      <c r="AA44" s="14" t="s">
+      <c r="AB44" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>0</v>
       </c>
@@ -5682,8 +5737,11 @@
       <c r="AE44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AF44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -5726,36 +5784,33 @@
       <c r="O45" t="s">
         <v>66</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>2</v>
       </c>
-      <c r="T45" s="9" t="s">
+      <c r="U45" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>68</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
         <v>209</v>
       </c>
-      <c r="X45" s="9" t="s">
+      <c r="Y45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y45" s="13" t="s">
+      <c r="Z45" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>206</v>
       </c>
-      <c r="AA45" s="14" t="s">
+      <c r="AB45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
       <c r="AC45">
         <v>0</v>
       </c>
@@ -5765,8 +5820,11 @@
       <c r="AE45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AF45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -5809,36 +5867,33 @@
       <c r="O46" t="s">
         <v>66</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="T46" s="9" t="s">
+      <c r="U46" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>68</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
         <v>213</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="Y46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y46" s="13" t="s">
+      <c r="Z46" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>210</v>
       </c>
-      <c r="AA46" s="14" t="s">
+      <c r="AB46" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
       <c r="AC46">
         <v>0</v>
       </c>
@@ -5848,8 +5903,11 @@
       <c r="AE46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AF46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -5892,36 +5950,33 @@
       <c r="O47" t="s">
         <v>66</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>2</v>
       </c>
-      <c r="T47" s="9" t="s">
+      <c r="U47" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>68</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
         <v>216</v>
       </c>
-      <c r="X47" s="9" t="s">
+      <c r="Y47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" s="13" t="s">
+      <c r="Z47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>214</v>
       </c>
-      <c r="AA47" s="14" t="s">
+      <c r="AB47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
       <c r="AC47">
         <v>0</v>
       </c>
@@ -5931,8 +5986,11 @@
       <c r="AE47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -5975,36 +6033,33 @@
       <c r="O48" t="s">
         <v>66</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>2</v>
       </c>
-      <c r="T48" s="9" t="s">
+      <c r="U48" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>68</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48" t="s">
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>219</v>
       </c>
-      <c r="X48" s="9" t="s">
+      <c r="Y48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y48" s="13" t="s">
+      <c r="Z48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>217</v>
       </c>
-      <c r="AA48" s="14" t="s">
+      <c r="AB48" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
       <c r="AC48">
         <v>0</v>
       </c>
@@ -6014,8 +6069,11 @@
       <c r="AE48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AF48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>220</v>
       </c>
@@ -6058,36 +6116,33 @@
       <c r="O49" t="s">
         <v>66</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>2</v>
       </c>
-      <c r="T49" s="9" t="s">
+      <c r="U49" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>68</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
         <v>222</v>
       </c>
-      <c r="X49" s="9" t="s">
+      <c r="Y49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y49" s="13" t="s">
+      <c r="Z49" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>220</v>
       </c>
-      <c r="AA49" s="14" t="s">
+      <c r="AB49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
       <c r="AC49">
         <v>0</v>
       </c>
@@ -6097,8 +6152,11 @@
       <c r="AE49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AF49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6141,36 +6199,33 @@
       <c r="O50" t="s">
         <v>66</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>2</v>
       </c>
-      <c r="T50" s="9" t="s">
+      <c r="U50" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>68</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50" t="s">
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
         <v>225</v>
       </c>
-      <c r="X50" s="9" t="s">
+      <c r="Y50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y50" s="13" t="s">
+      <c r="Z50" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>223</v>
       </c>
-      <c r="AA50" s="14" t="s">
+      <c r="AB50" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
       <c r="AC50">
         <v>0</v>
       </c>
@@ -6180,8 +6235,11 @@
       <c r="AE50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>226</v>
       </c>
@@ -6224,36 +6282,33 @@
       <c r="O51" t="s">
         <v>66</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>2</v>
       </c>
-      <c r="T51" s="9" t="s">
+      <c r="U51" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>68</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51" t="s">
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
         <v>228</v>
       </c>
-      <c r="X51" s="9" t="s">
+      <c r="Y51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y51" s="13" t="s">
+      <c r="Z51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>226</v>
       </c>
-      <c r="AA51" s="14" t="s">
+      <c r="AB51" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
       <c r="AC51">
         <v>0</v>
       </c>
@@ -6263,8 +6318,11 @@
       <c r="AE51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AF51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
         <v>229</v>
       </c>
@@ -6307,36 +6365,33 @@
       <c r="O52" t="s">
         <v>66</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>2</v>
       </c>
-      <c r="T52" s="9" t="s">
+      <c r="U52" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>68</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s">
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>231</v>
       </c>
-      <c r="X52" s="9" t="s">
+      <c r="Y52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y52" s="13" t="s">
+      <c r="Z52" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>229</v>
       </c>
-      <c r="AA52" s="14" t="s">
+      <c r="AB52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
       <c r="AC52">
         <v>0</v>
       </c>
@@ -6346,8 +6401,11 @@
       <c r="AE52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AF52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -6390,36 +6448,33 @@
       <c r="O53" t="s">
         <v>66</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>2</v>
       </c>
-      <c r="T53" s="9" t="s">
+      <c r="U53" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>68</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s">
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
         <v>234</v>
       </c>
-      <c r="X53" s="9" t="s">
+      <c r="Y53" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y53" s="13" t="s">
+      <c r="Z53" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>232</v>
       </c>
-      <c r="AA53" s="14" t="s">
+      <c r="AB53" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AC53">
         <v>0</v>
       </c>
@@ -6429,8 +6484,11 @@
       <c r="AE53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AF53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -6473,36 +6531,33 @@
       <c r="O54" t="s">
         <v>66</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>2</v>
       </c>
-      <c r="T54" s="9" t="s">
+      <c r="U54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>68</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54" t="s">
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
         <v>237</v>
       </c>
-      <c r="X54" s="9" t="s">
+      <c r="Y54" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y54" s="13" t="s">
+      <c r="Z54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>235</v>
       </c>
-      <c r="AA54" s="14" t="s">
+      <c r="AB54" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
       <c r="AC54">
         <v>0</v>
       </c>
@@ -6512,8 +6567,11 @@
       <c r="AE54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AF54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
         <v>238</v>
       </c>
@@ -6556,36 +6614,33 @@
       <c r="O55" t="s">
         <v>66</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>2</v>
       </c>
-      <c r="T55" s="9" t="s">
+      <c r="U55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>68</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
         <v>240</v>
       </c>
-      <c r="X55" s="9" t="s">
+      <c r="Y55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y55" s="13" t="s">
+      <c r="Z55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>238</v>
       </c>
-      <c r="AA55" s="14" t="s">
+      <c r="AB55" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
       <c r="AC55">
         <v>0</v>
       </c>
@@ -6595,8 +6650,11 @@
       <c r="AE55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AF55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>241</v>
       </c>
@@ -6639,36 +6697,33 @@
       <c r="O56" t="s">
         <v>66</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>2</v>
       </c>
-      <c r="T56" s="9" t="s">
+      <c r="U56" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>68</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56" t="s">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
         <v>243</v>
       </c>
-      <c r="X56" s="9" t="s">
+      <c r="Y56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y56" s="13" t="s">
+      <c r="Z56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>241</v>
       </c>
-      <c r="AA56" s="14" t="s">
+      <c r="AB56" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
       <c r="AC56">
         <v>0</v>
       </c>
@@ -6678,8 +6733,11 @@
       <c r="AE56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AF56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -6722,36 +6780,33 @@
       <c r="O57" t="s">
         <v>66</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>2</v>
       </c>
-      <c r="T57" s="9" t="s">
+      <c r="U57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>68</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
         <v>246</v>
       </c>
-      <c r="X57" s="9" t="s">
+      <c r="Y57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y57" s="13" t="s">
+      <c r="Z57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>244</v>
       </c>
-      <c r="AA57" s="14" t="s">
+      <c r="AB57" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
       <c r="AC57">
         <v>0</v>
       </c>
@@ -6761,8 +6816,11 @@
       <c r="AE57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AF57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>247</v>
       </c>
@@ -6805,36 +6863,33 @@
       <c r="O58" t="s">
         <v>66</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>2</v>
       </c>
-      <c r="T58" s="9" t="s">
+      <c r="U58" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>68</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s">
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
         <v>249</v>
       </c>
-      <c r="X58" s="9" t="s">
+      <c r="Y58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y58" s="13" t="s">
+      <c r="Z58" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>247</v>
       </c>
-      <c r="AA58" s="14" t="s">
+      <c r="AB58" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
       <c r="AC58">
         <v>0</v>
       </c>
@@ -6844,8 +6899,11 @@
       <c r="AE58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AF58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
         <v>250</v>
       </c>
@@ -6888,36 +6946,33 @@
       <c r="O59" t="s">
         <v>66</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>2</v>
       </c>
-      <c r="T59" s="9" t="s">
+      <c r="U59" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>68</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
         <v>252</v>
       </c>
-      <c r="X59" s="9" t="s">
+      <c r="Y59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y59" s="13" t="s">
+      <c r="Z59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>250</v>
       </c>
-      <c r="AA59" s="14" t="s">
+      <c r="AB59" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
       <c r="AC59">
         <v>0</v>
       </c>
@@ -6927,8 +6982,11 @@
       <c r="AE59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -6971,36 +7029,33 @@
       <c r="O60" t="s">
         <v>66</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>2</v>
       </c>
-      <c r="T60" s="9" t="s">
+      <c r="U60" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>68</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60" t="s">
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
         <v>255</v>
       </c>
-      <c r="X60" s="9" t="s">
+      <c r="Y60" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y60" s="13" t="s">
+      <c r="Z60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>253</v>
       </c>
-      <c r="AA60" s="14" t="s">
+      <c r="AB60" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
       <c r="AC60">
         <v>0</v>
       </c>
@@ -7010,8 +7065,11 @@
       <c r="AE60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AF60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
         <v>256</v>
       </c>
@@ -7054,36 +7112,33 @@
       <c r="O61" t="s">
         <v>66</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>2</v>
       </c>
-      <c r="T61" s="9" t="s">
+      <c r="U61" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>68</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61" t="s">
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
         <v>258</v>
       </c>
-      <c r="X61" s="9" t="s">
+      <c r="Y61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y61" s="13" t="s">
+      <c r="Z61" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>256</v>
       </c>
-      <c r="AA61" s="14" t="s">
+      <c r="AB61" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
       <c r="AC61">
         <v>0</v>
       </c>
@@ -7093,8 +7148,11 @@
       <c r="AE61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AF61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
         <v>259</v>
       </c>
@@ -7137,36 +7195,33 @@
       <c r="O62" t="s">
         <v>66</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>2</v>
       </c>
-      <c r="T62" s="9" t="s">
+      <c r="U62" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>68</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62" t="s">
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="s">
         <v>261</v>
       </c>
-      <c r="X62" s="9" t="s">
+      <c r="Y62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y62" s="13" t="s">
+      <c r="Z62" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>259</v>
       </c>
-      <c r="AA62" s="14" t="s">
+      <c r="AB62" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
       <c r="AC62">
         <v>0</v>
       </c>
@@ -7176,8 +7231,11 @@
       <c r="AE62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AF62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
         <v>262</v>
       </c>
@@ -7220,36 +7278,33 @@
       <c r="O63" t="s">
         <v>66</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>2</v>
       </c>
-      <c r="T63" s="9" t="s">
+      <c r="U63" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>68</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63" t="s">
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="s">
         <v>264</v>
       </c>
-      <c r="X63" s="9" t="s">
+      <c r="Y63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y63" s="13" t="s">
+      <c r="Z63" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>262</v>
       </c>
-      <c r="AA63" s="14" t="s">
+      <c r="AB63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
       <c r="AC63">
         <v>0</v>
       </c>
@@ -7259,8 +7314,11 @@
       <c r="AE63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AF63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
         <v>265</v>
       </c>
@@ -7303,36 +7361,33 @@
       <c r="O64" t="s">
         <v>66</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>2</v>
       </c>
-      <c r="T64" s="9" t="s">
+      <c r="U64" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>68</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s">
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
         <v>267</v>
       </c>
-      <c r="X64" s="9" t="s">
+      <c r="Y64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y64" s="13" t="s">
+      <c r="Z64" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>265</v>
       </c>
-      <c r="AA64" s="14" t="s">
+      <c r="AB64" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
       <c r="AC64">
         <v>0</v>
       </c>
@@ -7342,8 +7397,11 @@
       <c r="AE64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -7386,36 +7444,33 @@
       <c r="O65" t="s">
         <v>66</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>2</v>
       </c>
-      <c r="T65" s="9" t="s">
+      <c r="U65" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>68</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65" t="s">
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
         <v>270</v>
       </c>
-      <c r="X65" s="9" t="s">
+      <c r="Y65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y65" s="13" t="s">
+      <c r="Z65" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>268</v>
       </c>
-      <c r="AA65" s="14" t="s">
+      <c r="AB65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
       <c r="AC65">
         <v>0</v>
       </c>
@@ -7425,8 +7480,11 @@
       <c r="AE65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
         <v>271</v>
       </c>
@@ -7469,36 +7527,33 @@
       <c r="O66" t="s">
         <v>66</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>2</v>
       </c>
-      <c r="T66" s="9" t="s">
+      <c r="U66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>68</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66" t="s">
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66" t="s">
         <v>273</v>
       </c>
-      <c r="X66" s="9" t="s">
+      <c r="Y66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y66" s="13" t="s">
+      <c r="Z66" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>271</v>
       </c>
-      <c r="AA66" s="14" t="s">
+      <c r="AB66" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
       <c r="AC66">
         <v>0</v>
       </c>
@@ -7508,8 +7563,11 @@
       <c r="AE66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
         <v>274</v>
       </c>
@@ -7552,36 +7610,33 @@
       <c r="O67" t="s">
         <v>66</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>2</v>
       </c>
-      <c r="T67" s="9" t="s">
+      <c r="U67" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>68</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67" t="s">
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67" t="s">
         <v>276</v>
       </c>
-      <c r="X67" s="9" t="s">
+      <c r="Y67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y67" s="13" t="s">
+      <c r="Z67" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>274</v>
       </c>
-      <c r="AA67" s="14" t="s">
+      <c r="AB67" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
       <c r="AC67">
         <v>0</v>
       </c>
@@ -7591,8 +7646,11 @@
       <c r="AE67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
         <v>277</v>
       </c>
@@ -7635,36 +7693,33 @@
       <c r="O68" t="s">
         <v>66</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>2</v>
       </c>
-      <c r="T68" s="9" t="s">
+      <c r="U68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>68</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68" t="s">
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68" t="s">
         <v>279</v>
       </c>
-      <c r="X68" s="9" t="s">
+      <c r="Y68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y68" s="13" t="s">
+      <c r="Z68" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>277</v>
       </c>
-      <c r="AA68" s="14" t="s">
+      <c r="AB68" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68">
         <v>0</v>
       </c>
@@ -7674,8 +7729,11 @@
       <c r="AE68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -7718,36 +7776,33 @@
       <c r="O69" t="s">
         <v>66</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>2</v>
       </c>
-      <c r="T69" s="9" t="s">
+      <c r="U69" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>68</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
         <v>282</v>
       </c>
-      <c r="X69" s="9" t="s">
+      <c r="Y69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y69" s="13" t="s">
+      <c r="Z69" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>280</v>
       </c>
-      <c r="AA69" s="14" t="s">
+      <c r="AB69" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
       <c r="AC69">
         <v>0</v>
       </c>
@@ -7757,8 +7812,11 @@
       <c r="AE69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
         <v>283</v>
       </c>
@@ -7801,36 +7859,33 @@
       <c r="O70" t="s">
         <v>66</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>2</v>
       </c>
-      <c r="T70" s="9" t="s">
+      <c r="U70" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>68</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
         <v>285</v>
       </c>
-      <c r="X70" s="9" t="s">
+      <c r="Y70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y70" s="13" t="s">
+      <c r="Z70" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>283</v>
       </c>
-      <c r="AA70" s="14" t="s">
+      <c r="AB70" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
       <c r="AC70">
         <v>0</v>
       </c>
@@ -7840,8 +7895,11 @@
       <c r="AE70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
         <v>286</v>
       </c>
@@ -7884,36 +7942,33 @@
       <c r="O71" t="s">
         <v>66</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>2</v>
       </c>
-      <c r="T71" s="9" t="s">
+      <c r="U71" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>68</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
         <v>288</v>
       </c>
-      <c r="X71" s="9" t="s">
+      <c r="Y71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y71" s="13" t="s">
+      <c r="Z71" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>286</v>
       </c>
-      <c r="AA71" s="14" t="s">
+      <c r="AB71" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
       <c r="AC71">
         <v>0</v>
       </c>
@@ -7923,8 +7978,11 @@
       <c r="AE71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -7967,36 +8025,33 @@
       <c r="O72" t="s">
         <v>66</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>2</v>
       </c>
-      <c r="T72" s="9" t="s">
+      <c r="U72" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>68</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72" t="s">
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
         <v>291</v>
       </c>
-      <c r="X72" s="9" t="s">
+      <c r="Y72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y72" s="13" t="s">
+      <c r="Z72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>289</v>
       </c>
-      <c r="AA72" s="14" t="s">
+      <c r="AB72" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
         <v>0</v>
       </c>
@@ -8006,8 +8061,11 @@
       <c r="AE72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" s="10" customFormat="1">
+      <c r="AF72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="10" customFormat="1">
       <c r="A73" s="10" t="s">
         <v>292</v>
       </c>
@@ -8051,44 +8109,44 @@
         <v>66</v>
       </c>
       <c r="P73" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q73" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="Q73" s="10" t="s">
+      <c r="R73" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="R73" s="10" t="s">
+      <c r="S73" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="S73" s="10">
+      <c r="T73" s="10">
         <v>2</v>
       </c>
-      <c r="T73" s="15" t="s">
+      <c r="U73" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U73" s="10" t="s">
+      <c r="V73" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V73" s="10">
-        <v>0</v>
-      </c>
-      <c r="W73" s="10" t="s">
+      <c r="W73" s="10">
+        <v>0</v>
+      </c>
+      <c r="X73" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X73" s="15" t="s">
+      <c r="Y73" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y73" s="13" t="s">
+      <c r="Z73" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z73" s="16" t="s">
+      <c r="AA73" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="AA73" s="10" t="s">
+      <c r="AB73" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="AB73" s="10">
-        <v>0</v>
-      </c>
       <c r="AC73" s="10">
         <v>0</v>
       </c>
@@ -8098,8 +8156,11 @@
       <c r="AE73" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" s="10" customFormat="1">
+      <c r="AF73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="10" customFormat="1">
       <c r="A74" s="10" t="s">
         <v>294</v>
       </c>
@@ -8143,44 +8204,44 @@
         <v>66</v>
       </c>
       <c r="P74" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q74" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="Q74" s="10" t="s">
+      <c r="R74" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="R74" s="10" t="s">
+      <c r="S74" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="S74" s="10">
+      <c r="T74" s="10">
         <v>2</v>
       </c>
-      <c r="T74" s="15" t="s">
+      <c r="U74" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U74" s="10" t="s">
+      <c r="V74" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V74" s="10">
-        <v>0</v>
-      </c>
-      <c r="W74" s="10" t="s">
+      <c r="W74" s="10">
+        <v>0</v>
+      </c>
+      <c r="X74" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X74" s="15" t="s">
+      <c r="Y74" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y74" s="13" t="s">
+      <c r="Z74" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z74" s="17" t="s">
+      <c r="AA74" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="AA74" s="10" t="s">
+      <c r="AB74" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AB74" s="10">
-        <v>0</v>
-      </c>
       <c r="AC74" s="10">
         <v>0</v>
       </c>
@@ -8190,8 +8251,11 @@
       <c r="AE74" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" s="10" customFormat="1">
+      <c r="AF74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="10" customFormat="1">
       <c r="A75" s="10" t="s">
         <v>296</v>
       </c>
@@ -8235,44 +8299,44 @@
         <v>66</v>
       </c>
       <c r="P75" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q75" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="Q75" s="10" t="s">
+      <c r="R75" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="R75" s="10" t="s">
+      <c r="S75" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="S75" s="10">
+      <c r="T75" s="10">
         <v>2</v>
       </c>
-      <c r="T75" s="15" t="s">
+      <c r="U75" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U75" s="10" t="s">
+      <c r="V75" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V75" s="10">
-        <v>0</v>
-      </c>
-      <c r="W75" s="10" t="s">
+      <c r="W75" s="10">
+        <v>0</v>
+      </c>
+      <c r="X75" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X75" s="15" t="s">
+      <c r="Y75" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y75" s="13" t="s">
+      <c r="Z75" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z75" s="17" t="s">
+      <c r="AA75" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="AA75" s="10" t="s">
+      <c r="AB75" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AB75" s="10">
-        <v>0</v>
-      </c>
       <c r="AC75" s="10">
         <v>0</v>
       </c>
@@ -8282,8 +8346,11 @@
       <c r="AE75" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" s="10" customFormat="1">
+      <c r="AF75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="10" customFormat="1">
       <c r="A76" s="10" t="s">
         <v>299</v>
       </c>
@@ -8327,44 +8394,44 @@
         <v>66</v>
       </c>
       <c r="P76" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q76" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="Q76" s="10" t="s">
+      <c r="R76" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="R76" s="10" t="s">
+      <c r="S76" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="S76" s="10">
+      <c r="T76" s="10">
         <v>2</v>
       </c>
-      <c r="T76" s="15" t="s">
+      <c r="U76" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U76" s="10" t="s">
+      <c r="V76" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V76" s="10">
-        <v>0</v>
-      </c>
-      <c r="W76" s="10" t="s">
+      <c r="W76" s="10">
+        <v>0</v>
+      </c>
+      <c r="X76" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X76" s="15" t="s">
+      <c r="Y76" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y76" s="13" t="s">
+      <c r="Z76" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z76" s="17" t="s">
+      <c r="AA76" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="AA76" s="10" t="s">
+      <c r="AB76" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="AB76" s="10">
-        <v>0</v>
-      </c>
       <c r="AC76" s="10">
         <v>0</v>
       </c>
@@ -8374,8 +8441,11 @@
       <c r="AE76" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" s="10" customFormat="1">
+      <c r="AF76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="10" customFormat="1">
       <c r="A77" s="10" t="s">
         <v>301</v>
       </c>
@@ -8419,44 +8489,44 @@
         <v>66</v>
       </c>
       <c r="P77" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q77" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="Q77" s="10" t="s">
+      <c r="R77" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="R77" s="10" t="s">
+      <c r="S77" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="S77" s="10">
+      <c r="T77" s="10">
         <v>2</v>
       </c>
-      <c r="T77" s="15" t="s">
+      <c r="U77" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U77" s="10" t="s">
+      <c r="V77" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V77" s="10">
-        <v>0</v>
-      </c>
-      <c r="W77" s="10" t="s">
+      <c r="W77" s="10">
+        <v>0</v>
+      </c>
+      <c r="X77" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X77" s="15" t="s">
+      <c r="Y77" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y77" s="13" t="s">
+      <c r="Z77" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z77" s="17" t="s">
+      <c r="AA77" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="AA77" s="10" t="s">
+      <c r="AB77" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="AB77" s="10">
-        <v>0</v>
-      </c>
       <c r="AC77" s="10">
         <v>0</v>
       </c>
@@ -8466,8 +8536,11 @@
       <c r="AE77" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" s="10" customFormat="1">
+      <c r="AF77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="10" customFormat="1">
       <c r="A78" s="10" t="s">
         <v>303</v>
       </c>
@@ -8511,44 +8584,44 @@
         <v>66</v>
       </c>
       <c r="P78" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q78" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="Q78" s="10" t="s">
+      <c r="R78" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="R78" s="10" t="s">
+      <c r="S78" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="S78" s="10">
+      <c r="T78" s="10">
         <v>2</v>
       </c>
-      <c r="T78" s="15" t="s">
+      <c r="U78" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U78" s="10" t="s">
+      <c r="V78" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V78" s="10">
-        <v>0</v>
-      </c>
-      <c r="W78" s="10" t="s">
+      <c r="W78" s="10">
+        <v>0</v>
+      </c>
+      <c r="X78" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X78" s="15" t="s">
+      <c r="Y78" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y78" s="13" t="s">
+      <c r="Z78" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z78" s="17" t="s">
+      <c r="AA78" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="AA78" s="10" t="s">
+      <c r="AB78" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="AB78" s="10">
-        <v>0</v>
-      </c>
       <c r="AC78" s="10">
         <v>0</v>
       </c>
@@ -8558,8 +8631,11 @@
       <c r="AE78" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" s="10" customFormat="1">
+      <c r="AF78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" s="10" customFormat="1">
       <c r="A79" s="10" t="s">
         <v>305</v>
       </c>
@@ -8603,44 +8679,44 @@
         <v>66</v>
       </c>
       <c r="P79" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q79" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="Q79" s="10" t="s">
+      <c r="R79" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="R79" s="10" t="s">
+      <c r="S79" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="S79" s="10">
+      <c r="T79" s="10">
         <v>2</v>
       </c>
-      <c r="T79" s="15" t="s">
+      <c r="U79" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U79" s="10" t="s">
+      <c r="V79" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V79" s="10">
-        <v>0</v>
-      </c>
-      <c r="W79" s="10" t="s">
+      <c r="W79" s="10">
+        <v>0</v>
+      </c>
+      <c r="X79" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X79" s="15" t="s">
+      <c r="Y79" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y79" s="13" t="s">
+      <c r="Z79" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z79" s="17" t="s">
+      <c r="AA79" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="AA79" s="10" t="s">
+      <c r="AB79" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="AB79" s="10">
-        <v>0</v>
-      </c>
       <c r="AC79" s="10">
         <v>0</v>
       </c>
@@ -8650,8 +8726,11 @@
       <c r="AE79" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" s="10" customFormat="1">
+      <c r="AF79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="10" customFormat="1">
       <c r="A80" s="10" t="s">
         <v>307</v>
       </c>
@@ -8695,44 +8774,44 @@
         <v>66</v>
       </c>
       <c r="P80" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q80" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="Q80" s="10" t="s">
+      <c r="R80" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="R80" s="10" t="s">
+      <c r="S80" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="S80" s="10">
+      <c r="T80" s="10">
         <v>2</v>
       </c>
-      <c r="T80" s="15" t="s">
+      <c r="U80" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U80" s="10" t="s">
+      <c r="V80" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V80" s="10">
-        <v>0</v>
-      </c>
-      <c r="W80" s="10" t="s">
+      <c r="W80" s="10">
+        <v>0</v>
+      </c>
+      <c r="X80" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X80" s="15" t="s">
+      <c r="Y80" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y80" s="13" t="s">
+      <c r="Z80" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z80" s="17" t="s">
+      <c r="AA80" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="AA80" s="10" t="s">
+      <c r="AB80" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="AB80" s="10">
-        <v>0</v>
-      </c>
       <c r="AC80" s="10">
         <v>0</v>
       </c>
@@ -8742,8 +8821,11 @@
       <c r="AE80" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" s="10" customFormat="1">
+      <c r="AF80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" s="10" customFormat="1">
       <c r="A81" s="10" t="s">
         <v>309</v>
       </c>
@@ -8787,44 +8869,44 @@
         <v>66</v>
       </c>
       <c r="P81" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q81" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="Q81" s="10" t="s">
+      <c r="R81" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="R81" s="10" t="s">
+      <c r="S81" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="S81" s="10">
+      <c r="T81" s="10">
         <v>2</v>
       </c>
-      <c r="T81" s="15" t="s">
+      <c r="U81" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U81" s="10" t="s">
+      <c r="V81" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="V81" s="10">
-        <v>0</v>
-      </c>
-      <c r="W81" s="10" t="s">
+      <c r="W81" s="10">
+        <v>0</v>
+      </c>
+      <c r="X81" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="X81" s="15" t="s">
+      <c r="Y81" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y81" s="13" t="s">
+      <c r="Z81" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="Z81" s="17" t="s">
+      <c r="AA81" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="AA81" s="10" t="s">
+      <c r="AB81" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AB81" s="10">
-        <v>0</v>
-      </c>
       <c r="AC81" s="10">
         <v>0</v>
       </c>
@@ -8832,13 +8914,16 @@
         <v>0</v>
       </c>
       <c r="AE81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:R8 S7:AE8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AF8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="457">
   <si>
     <t>Id</t>
   </si>
@@ -1286,6 +1286,123 @@
   </si>
   <si>
     <t>SKILL_TeaantProtector_Idle</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Build_townhall_1</t>
+  </si>
+  <si>
+    <t>Build_camp_1</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Build_barrack_1</t>
+  </si>
+  <si>
+    <t>Build_bomb_1</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Build_townhall_2</t>
+  </si>
+  <si>
+    <t>Build_camp_2</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Build_barrack_2</t>
+  </si>
+  <si>
+    <t>Build_bomb_2</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Build_townhall_3</t>
+  </si>
+  <si>
+    <t>Build_camp_3</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Build_barrack_3</t>
+  </si>
+  <si>
+    <t>Build_bomb_3</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/anti_air_tower_upg_01</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/anti_air_tower_upg_02</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/anti_air_tower_upg_03</t>
+  </si>
+  <si>
+    <t>Build_mana_well_1</t>
+  </si>
+  <si>
+    <t>Build_mana_well_2</t>
+  </si>
+  <si>
+    <t>Build_mana_well_3</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,8 +1475,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1496,13 +1619,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,9 +1680,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,13 +1692,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,11 +2143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P73" sqref="P73:P81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2036,7 +2255,7 @@
       <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -2134,7 +2353,7 @@
       <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -2232,7 +2451,7 @@
       <c r="Y3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z3" s="12" t="b">
+      <c r="Z3" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AA3" s="2" t="b">
@@ -2330,7 +2549,7 @@
       <c r="Y4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="12" t="b">
+      <c r="Z4" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AA4" s="2" t="b">
@@ -2428,7 +2647,7 @@
       <c r="Y5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="12" t="b">
+      <c r="Z5" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AA5" s="2" t="b">
@@ -2526,7 +2745,7 @@
       <c r="Y6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="12" t="b">
+      <c r="Z6" s="11" t="b">
         <v>0</v>
       </c>
       <c r="AA6" s="2" t="b">
@@ -2814,7 +3033,7 @@
       <c r="Y9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AA9" s="4" t="s">
@@ -2897,13 +3116,13 @@
       <c r="Y10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="13" t="s">
+      <c r="Z10" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC10">
@@ -2980,13 +3199,13 @@
       <c r="Y11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AB11" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC11">
@@ -3063,13 +3282,13 @@
       <c r="Y12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="Z12" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" s="14" t="s">
+      <c r="AB12" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC12">
@@ -3146,13 +3365,13 @@
       <c r="Y13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="Z13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="14" t="s">
+      <c r="AB13" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC13">
@@ -3229,13 +3448,13 @@
       <c r="Y14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z14" s="13" t="s">
+      <c r="Z14" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AB14" s="14" t="s">
+      <c r="AB14" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC14">
@@ -3312,13 +3531,13 @@
       <c r="Y15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="Z15" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA15" t="s">
         <v>86</v>
       </c>
-      <c r="AB15" s="14" t="s">
+      <c r="AB15" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC15">
@@ -3395,13 +3614,13 @@
       <c r="Y16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z16" s="13" t="s">
+      <c r="Z16" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA16" t="s">
         <v>90</v>
       </c>
-      <c r="AB16" s="14" t="s">
+      <c r="AB16" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC16">
@@ -3478,13 +3697,13 @@
       <c r="Y17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA17" t="s">
         <v>94</v>
       </c>
-      <c r="AB17" s="14" t="s">
+      <c r="AB17" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC17">
@@ -3561,13 +3780,13 @@
       <c r="Y18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA18" t="s">
         <v>98</v>
       </c>
-      <c r="AB18" s="14" t="s">
+      <c r="AB18" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC18">
@@ -3644,13 +3863,13 @@
       <c r="Y19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z19" s="13" t="s">
+      <c r="Z19" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AB19" s="14" t="s">
+      <c r="AB19" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC19">
@@ -3727,13 +3946,13 @@
       <c r="Y20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z20" s="13" t="s">
+      <c r="Z20" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA20" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" s="14" t="s">
+      <c r="AB20" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC20">
@@ -3810,13 +4029,13 @@
       <c r="Y21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z21" s="13" t="s">
+      <c r="Z21" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA21" t="s">
         <v>110</v>
       </c>
-      <c r="AB21" s="14" t="s">
+      <c r="AB21" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC21">
@@ -3893,13 +4112,13 @@
       <c r="Y22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="13" t="s">
+      <c r="Z22" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA22" t="s">
         <v>114</v>
       </c>
-      <c r="AB22" s="14" t="s">
+      <c r="AB22" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC22">
@@ -3976,13 +4195,13 @@
       <c r="Y23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="13" t="s">
+      <c r="Z23" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA23" t="s">
         <v>118</v>
       </c>
-      <c r="AB23" s="14" t="s">
+      <c r="AB23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC23">
@@ -4059,13 +4278,13 @@
       <c r="Y24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z24" s="13" t="s">
+      <c r="Z24" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA24" t="s">
         <v>122</v>
       </c>
-      <c r="AB24" s="14" t="s">
+      <c r="AB24" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC24">
@@ -4142,13 +4361,13 @@
       <c r="Y25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z25" s="13" t="s">
+      <c r="Z25" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA25" t="s">
         <v>126</v>
       </c>
-      <c r="AB25" s="14" t="s">
+      <c r="AB25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC25">
@@ -4225,13 +4444,13 @@
       <c r="Y26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="Z26" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA26" t="s">
         <v>130</v>
       </c>
-      <c r="AB26" s="14" t="s">
+      <c r="AB26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC26">
@@ -4308,13 +4527,13 @@
       <c r="Y27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z27" s="13" t="s">
+      <c r="Z27" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA27" t="s">
         <v>134</v>
       </c>
-      <c r="AB27" s="14" t="s">
+      <c r="AB27" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC27">
@@ -4391,13 +4610,13 @@
       <c r="Y28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z28" s="13" t="s">
+      <c r="Z28" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA28" t="s">
         <v>138</v>
       </c>
-      <c r="AB28" s="14" t="s">
+      <c r="AB28" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC28">
@@ -4474,13 +4693,13 @@
       <c r="Y29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z29" s="13" t="s">
+      <c r="Z29" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA29" t="s">
         <v>142</v>
       </c>
-      <c r="AB29" s="14" t="s">
+      <c r="AB29" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC29">
@@ -4557,13 +4776,13 @@
       <c r="Y30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z30" s="13" t="s">
+      <c r="Z30" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA30" t="s">
         <v>146</v>
       </c>
-      <c r="AB30" s="14" t="s">
+      <c r="AB30" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC30">
@@ -4640,13 +4859,13 @@
       <c r="Y31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z31" s="13" t="s">
+      <c r="Z31" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA31" t="s">
         <v>150</v>
       </c>
-      <c r="AB31" s="14" t="s">
+      <c r="AB31" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC31">
@@ -4723,13 +4942,13 @@
       <c r="Y32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="13" t="s">
+      <c r="Z32" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA32" t="s">
         <v>154</v>
       </c>
-      <c r="AB32" s="14" t="s">
+      <c r="AB32" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC32">
@@ -4806,13 +5025,13 @@
       <c r="Y33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z33" s="13" t="s">
+      <c r="Z33" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA33" t="s">
         <v>158</v>
       </c>
-      <c r="AB33" s="14" t="s">
+      <c r="AB33" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC33">
@@ -4889,13 +5108,13 @@
       <c r="Y34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z34" s="13" t="s">
+      <c r="Z34" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA34" t="s">
         <v>162</v>
       </c>
-      <c r="AB34" s="14" t="s">
+      <c r="AB34" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC34">
@@ -4972,13 +5191,13 @@
       <c r="Y35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z35" s="13" t="s">
+      <c r="Z35" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA35" t="s">
         <v>166</v>
       </c>
-      <c r="AB35" s="14" t="s">
+      <c r="AB35" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC35">
@@ -5055,13 +5274,13 @@
       <c r="Y36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z36" s="13" t="s">
+      <c r="Z36" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA36" t="s">
         <v>170</v>
       </c>
-      <c r="AB36" s="14" t="s">
+      <c r="AB36" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC36">
@@ -5138,13 +5357,13 @@
       <c r="Y37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z37" s="13" t="s">
+      <c r="Z37" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA37" t="s">
         <v>174</v>
       </c>
-      <c r="AB37" s="14" t="s">
+      <c r="AB37" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC37">
@@ -5221,13 +5440,13 @@
       <c r="Y38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z38" s="13" t="s">
+      <c r="Z38" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA38" t="s">
         <v>178</v>
       </c>
-      <c r="AB38" s="14" t="s">
+      <c r="AB38" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC38">
@@ -5304,13 +5523,13 @@
       <c r="Y39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="Z39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA39" t="s">
         <v>182</v>
       </c>
-      <c r="AB39" s="14" t="s">
+      <c r="AB39" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC39">
@@ -5387,13 +5606,13 @@
       <c r="Y40" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA40" t="s">
         <v>186</v>
       </c>
-      <c r="AB40" s="14" t="s">
+      <c r="AB40" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC40">
@@ -5470,13 +5689,13 @@
       <c r="Y41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z41" s="13" t="s">
+      <c r="Z41" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA41" t="s">
         <v>190</v>
       </c>
-      <c r="AB41" s="14" t="s">
+      <c r="AB41" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC41">
@@ -5553,13 +5772,13 @@
       <c r="Y42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="Z42" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA42" t="s">
         <v>194</v>
       </c>
-      <c r="AB42" s="14" t="s">
+      <c r="AB42" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC42">
@@ -5636,13 +5855,13 @@
       <c r="Y43" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="Z43" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA43" t="s">
         <v>198</v>
       </c>
-      <c r="AB43" s="14" t="s">
+      <c r="AB43" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC43">
@@ -5719,13 +5938,13 @@
       <c r="Y44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z44" s="13" t="s">
+      <c r="Z44" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA44" t="s">
         <v>202</v>
       </c>
-      <c r="AB44" s="14" t="s">
+      <c r="AB44" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC44">
@@ -5802,13 +6021,13 @@
       <c r="Y45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z45" s="13" t="s">
+      <c r="Z45" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA45" t="s">
         <v>206</v>
       </c>
-      <c r="AB45" s="14" t="s">
+      <c r="AB45" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC45">
@@ -5885,13 +6104,13 @@
       <c r="Y46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="Z46" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA46" t="s">
         <v>210</v>
       </c>
-      <c r="AB46" s="14" t="s">
+      <c r="AB46" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC46">
@@ -5968,13 +6187,13 @@
       <c r="Y47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="13" t="s">
+      <c r="Z47" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA47" t="s">
         <v>214</v>
       </c>
-      <c r="AB47" s="14" t="s">
+      <c r="AB47" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC47">
@@ -6051,13 +6270,13 @@
       <c r="Y48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z48" s="13" t="s">
+      <c r="Z48" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA48" t="s">
         <v>217</v>
       </c>
-      <c r="AB48" s="14" t="s">
+      <c r="AB48" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC48">
@@ -6134,13 +6353,13 @@
       <c r="Y49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z49" s="13" t="s">
+      <c r="Z49" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA49" t="s">
         <v>220</v>
       </c>
-      <c r="AB49" s="14" t="s">
+      <c r="AB49" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC49">
@@ -6217,13 +6436,13 @@
       <c r="Y50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z50" s="13" t="s">
+      <c r="Z50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA50" t="s">
         <v>223</v>
       </c>
-      <c r="AB50" s="14" t="s">
+      <c r="AB50" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC50">
@@ -6300,13 +6519,13 @@
       <c r="Y51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z51" s="13" t="s">
+      <c r="Z51" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA51" t="s">
         <v>226</v>
       </c>
-      <c r="AB51" s="14" t="s">
+      <c r="AB51" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC51">
@@ -6383,13 +6602,13 @@
       <c r="Y52" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z52" s="13" t="s">
+      <c r="Z52" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA52" t="s">
         <v>229</v>
       </c>
-      <c r="AB52" s="14" t="s">
+      <c r="AB52" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC52">
@@ -6466,13 +6685,13 @@
       <c r="Y53" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z53" s="13" t="s">
+      <c r="Z53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA53" t="s">
         <v>232</v>
       </c>
-      <c r="AB53" s="14" t="s">
+      <c r="AB53" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC53">
@@ -6549,13 +6768,13 @@
       <c r="Y54" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z54" s="13" t="s">
+      <c r="Z54" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA54" t="s">
         <v>235</v>
       </c>
-      <c r="AB54" s="14" t="s">
+      <c r="AB54" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC54">
@@ -6632,13 +6851,13 @@
       <c r="Y55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z55" s="13" t="s">
+      <c r="Z55" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA55" t="s">
         <v>238</v>
       </c>
-      <c r="AB55" s="14" t="s">
+      <c r="AB55" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC55">
@@ -6715,13 +6934,13 @@
       <c r="Y56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z56" s="13" t="s">
+      <c r="Z56" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA56" t="s">
         <v>241</v>
       </c>
-      <c r="AB56" s="14" t="s">
+      <c r="AB56" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC56">
@@ -6798,13 +7017,13 @@
       <c r="Y57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z57" s="13" t="s">
+      <c r="Z57" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA57" t="s">
         <v>244</v>
       </c>
-      <c r="AB57" s="14" t="s">
+      <c r="AB57" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC57">
@@ -6881,13 +7100,13 @@
       <c r="Y58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z58" s="13" t="s">
+      <c r="Z58" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA58" t="s">
         <v>247</v>
       </c>
-      <c r="AB58" s="14" t="s">
+      <c r="AB58" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC58">
@@ -6964,13 +7183,13 @@
       <c r="Y59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z59" s="13" t="s">
+      <c r="Z59" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA59" t="s">
         <v>250</v>
       </c>
-      <c r="AB59" s="14" t="s">
+      <c r="AB59" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC59">
@@ -7047,13 +7266,13 @@
       <c r="Y60" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z60" s="13" t="s">
+      <c r="Z60" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA60" t="s">
         <v>253</v>
       </c>
-      <c r="AB60" s="14" t="s">
+      <c r="AB60" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC60">
@@ -7130,13 +7349,13 @@
       <c r="Y61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z61" s="13" t="s">
+      <c r="Z61" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA61" t="s">
         <v>256</v>
       </c>
-      <c r="AB61" s="14" t="s">
+      <c r="AB61" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC61">
@@ -7213,13 +7432,13 @@
       <c r="Y62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z62" s="13" t="s">
+      <c r="Z62" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA62" t="s">
         <v>259</v>
       </c>
-      <c r="AB62" s="14" t="s">
+      <c r="AB62" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC62">
@@ -7296,13 +7515,13 @@
       <c r="Y63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z63" s="13" t="s">
+      <c r="Z63" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA63" t="s">
         <v>262</v>
       </c>
-      <c r="AB63" s="14" t="s">
+      <c r="AB63" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC63">
@@ -7379,13 +7598,13 @@
       <c r="Y64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z64" s="13" t="s">
+      <c r="Z64" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA64" t="s">
         <v>265</v>
       </c>
-      <c r="AB64" s="14" t="s">
+      <c r="AB64" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC64">
@@ -7462,13 +7681,13 @@
       <c r="Y65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z65" s="13" t="s">
+      <c r="Z65" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA65" t="s">
         <v>268</v>
       </c>
-      <c r="AB65" s="14" t="s">
+      <c r="AB65" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC65">
@@ -7545,13 +7764,13 @@
       <c r="Y66" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z66" s="13" t="s">
+      <c r="Z66" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA66" t="s">
         <v>271</v>
       </c>
-      <c r="AB66" s="14" t="s">
+      <c r="AB66" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC66">
@@ -7628,13 +7847,13 @@
       <c r="Y67" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z67" s="13" t="s">
+      <c r="Z67" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA67" t="s">
         <v>274</v>
       </c>
-      <c r="AB67" s="14" t="s">
+      <c r="AB67" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC67">
@@ -7711,13 +7930,13 @@
       <c r="Y68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z68" s="13" t="s">
+      <c r="Z68" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA68" t="s">
         <v>277</v>
       </c>
-      <c r="AB68" s="14" t="s">
+      <c r="AB68" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC68">
@@ -7794,13 +8013,13 @@
       <c r="Y69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z69" s="13" t="s">
+      <c r="Z69" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA69" t="s">
         <v>280</v>
       </c>
-      <c r="AB69" s="14" t="s">
+      <c r="AB69" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC69">
@@ -7877,13 +8096,13 @@
       <c r="Y70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z70" s="13" t="s">
+      <c r="Z70" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA70" t="s">
         <v>283</v>
       </c>
-      <c r="AB70" s="14" t="s">
+      <c r="AB70" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC70">
@@ -7960,13 +8179,13 @@
       <c r="Y71" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="13" t="s">
+      <c r="Z71" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA71" t="s">
         <v>286</v>
       </c>
-      <c r="AB71" s="14" t="s">
+      <c r="AB71" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC71">
@@ -7982,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" ht="13.9" thickBot="1">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -8043,13 +8262,13 @@
       <c r="Y72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z72" s="13" t="s">
+      <c r="Z72" s="16" t="s">
         <v>71</v>
       </c>
       <c r="AA72" t="s">
         <v>289</v>
       </c>
-      <c r="AB72" s="14" t="s">
+      <c r="AB72" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AC72">
@@ -8065,858 +8284,3846 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="10" customFormat="1">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:32" s="32" customFormat="1">
+      <c r="A73" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C73" s="10">
-        <v>0</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10">
-        <v>0</v>
-      </c>
-      <c r="J73" s="10">
-        <v>0</v>
-      </c>
-      <c r="K73" s="10">
-        <v>0</v>
-      </c>
-      <c r="L73" s="10" t="s">
+      <c r="C73" s="32">
+        <v>0</v>
+      </c>
+      <c r="D73" s="32">
+        <v>0</v>
+      </c>
+      <c r="E73" s="32">
+        <v>0</v>
+      </c>
+      <c r="F73" s="32">
+        <v>0</v>
+      </c>
+      <c r="G73" s="32">
+        <v>0</v>
+      </c>
+      <c r="H73" s="32">
+        <v>0</v>
+      </c>
+      <c r="I73" s="32">
+        <v>0</v>
+      </c>
+      <c r="J73" s="32">
+        <v>0</v>
+      </c>
+      <c r="K73" s="32">
+        <v>0</v>
+      </c>
+      <c r="L73" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="M73" s="10">
-        <v>0</v>
-      </c>
-      <c r="N73" s="10">
+      <c r="M73" s="32">
+        <v>0</v>
+      </c>
+      <c r="N73" s="32">
         <v>20</v>
       </c>
-      <c r="O73" s="10" t="s">
+      <c r="O73" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P73" s="10" t="s">
+      <c r="P73" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="Q73" s="10" t="s">
+      <c r="Q73" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="R73" s="10" t="s">
+      <c r="R73" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="S73" s="10" t="s">
+      <c r="S73" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="T73" s="10">
+      <c r="T73" s="32">
         <v>2</v>
       </c>
-      <c r="U73" s="15" t="s">
+      <c r="U73" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="V73" s="10" t="s">
+      <c r="V73" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="W73" s="10">
-        <v>0</v>
-      </c>
-      <c r="X73" s="10" t="s">
+      <c r="W73" s="32">
+        <v>0</v>
+      </c>
+      <c r="X73" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="Y73" s="15" t="s">
+      <c r="Y73" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Z73" s="13" t="s">
+      <c r="Z73" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="AA73" s="16" t="s">
+      <c r="AA73" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="AB73" s="10" t="s">
+      <c r="AB73" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="AC73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" s="10" customFormat="1">
-      <c r="A74" s="10" t="s">
+      <c r="AC73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="28" customFormat="1">
+      <c r="A74" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="10">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0</v>
-      </c>
-      <c r="E74" s="10">
-        <v>0</v>
-      </c>
-      <c r="F74" s="10">
-        <v>0</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>0</v>
-      </c>
-      <c r="I74" s="10">
-        <v>0</v>
-      </c>
-      <c r="J74" s="10">
-        <v>0</v>
-      </c>
-      <c r="K74" s="10">
-        <v>0</v>
-      </c>
-      <c r="L74" s="10" t="s">
+      <c r="C74" s="28">
+        <v>0</v>
+      </c>
+      <c r="D74" s="28">
+        <v>0</v>
+      </c>
+      <c r="E74" s="28">
+        <v>0</v>
+      </c>
+      <c r="F74" s="28">
+        <v>0</v>
+      </c>
+      <c r="G74" s="28">
+        <v>0</v>
+      </c>
+      <c r="H74" s="28">
+        <v>0</v>
+      </c>
+      <c r="I74" s="28">
+        <v>0</v>
+      </c>
+      <c r="J74" s="28">
+        <v>0</v>
+      </c>
+      <c r="K74" s="28">
+        <v>0</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M74" s="28">
         <v>1</v>
       </c>
-      <c r="N74" s="10">
+      <c r="N74" s="28">
         <v>20</v>
       </c>
-      <c r="O74" s="10" t="s">
+      <c r="O74" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P74" s="10" t="s">
+      <c r="P74" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="Q74" s="10" t="s">
+      <c r="Q74" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="R74" s="10" t="s">
+      <c r="R74" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="S74" s="10" t="s">
+      <c r="S74" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="T74" s="10">
+      <c r="T74" s="28">
         <v>2</v>
       </c>
-      <c r="U74" s="15" t="s">
+      <c r="U74" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V74" s="10" t="s">
+      <c r="V74" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W74" s="10">
-        <v>0</v>
-      </c>
-      <c r="X74" s="10" t="s">
+      <c r="W74" s="28">
+        <v>0</v>
+      </c>
+      <c r="X74" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y74" s="15" t="s">
+      <c r="Y74" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z74" s="13" t="s">
+      <c r="Z74" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA74" s="17" t="s">
+      <c r="AA74" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="AB74" s="10" t="s">
+      <c r="AB74" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="AC74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" s="10" customFormat="1">
-      <c r="A75" s="10" t="s">
+      <c r="AC74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="28" customFormat="1">
+      <c r="A75" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="10">
-        <v>0</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <v>0</v>
-      </c>
-      <c r="I75" s="10">
-        <v>0</v>
-      </c>
-      <c r="J75" s="10">
-        <v>0</v>
-      </c>
-      <c r="K75" s="10">
-        <v>0</v>
-      </c>
-      <c r="L75" s="10" t="s">
+      <c r="C75" s="28">
+        <v>0</v>
+      </c>
+      <c r="D75" s="28">
+        <v>0</v>
+      </c>
+      <c r="E75" s="28">
+        <v>0</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0</v>
+      </c>
+      <c r="G75" s="28">
+        <v>0</v>
+      </c>
+      <c r="H75" s="28">
+        <v>0</v>
+      </c>
+      <c r="I75" s="28">
+        <v>0</v>
+      </c>
+      <c r="J75" s="28">
+        <v>0</v>
+      </c>
+      <c r="K75" s="28">
+        <v>0</v>
+      </c>
+      <c r="L75" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="M75" s="10">
-        <v>0</v>
-      </c>
-      <c r="N75" s="10">
+      <c r="M75" s="28">
+        <v>0</v>
+      </c>
+      <c r="N75" s="28">
         <v>20</v>
       </c>
-      <c r="O75" s="10" t="s">
+      <c r="O75" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P75" s="10" t="s">
+      <c r="P75" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="Q75" s="10" t="s">
+      <c r="Q75" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="R75" s="10" t="s">
+      <c r="R75" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="S75" s="10" t="s">
+      <c r="S75" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="T75" s="10">
+      <c r="T75" s="28">
         <v>2</v>
       </c>
-      <c r="U75" s="15" t="s">
+      <c r="U75" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V75" s="10" t="s">
+      <c r="V75" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W75" s="10">
-        <v>0</v>
-      </c>
-      <c r="X75" s="10" t="s">
+      <c r="W75" s="28">
+        <v>0</v>
+      </c>
+      <c r="X75" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y75" s="15" t="s">
+      <c r="Y75" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z75" s="13" t="s">
+      <c r="Z75" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA75" s="17" t="s">
+      <c r="AA75" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="AB75" s="10" t="s">
+      <c r="AB75" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="AC75" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" s="10" customFormat="1">
-      <c r="A76" s="10" t="s">
+      <c r="AC75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="28" customFormat="1">
+      <c r="A76" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="10">
-        <v>0</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0</v>
-      </c>
-      <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0</v>
-      </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0</v>
-      </c>
-      <c r="J76" s="10">
-        <v>0</v>
-      </c>
-      <c r="K76" s="10">
-        <v>0</v>
-      </c>
-      <c r="L76" s="10" t="s">
+      <c r="C76" s="28">
+        <v>0</v>
+      </c>
+      <c r="D76" s="28">
+        <v>0</v>
+      </c>
+      <c r="E76" s="28">
+        <v>0</v>
+      </c>
+      <c r="F76" s="28">
+        <v>0</v>
+      </c>
+      <c r="G76" s="28">
+        <v>0</v>
+      </c>
+      <c r="H76" s="28">
+        <v>0</v>
+      </c>
+      <c r="I76" s="28">
+        <v>0</v>
+      </c>
+      <c r="J76" s="28">
+        <v>0</v>
+      </c>
+      <c r="K76" s="28">
+        <v>0</v>
+      </c>
+      <c r="L76" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="M76" s="10">
-        <v>0</v>
-      </c>
-      <c r="N76" s="10">
+      <c r="M76" s="28">
+        <v>0</v>
+      </c>
+      <c r="N76" s="28">
         <v>20</v>
       </c>
-      <c r="O76" s="10" t="s">
+      <c r="O76" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P76" s="10" t="s">
+      <c r="P76" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="Q76" s="10" t="s">
+      <c r="Q76" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="R76" s="10" t="s">
+      <c r="R76" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="S76" s="10" t="s">
+      <c r="S76" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T76" s="28">
         <v>2</v>
       </c>
-      <c r="U76" s="15" t="s">
+      <c r="U76" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V76" s="10" t="s">
+      <c r="V76" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W76" s="10">
-        <v>0</v>
-      </c>
-      <c r="X76" s="10" t="s">
+      <c r="W76" s="28">
+        <v>0</v>
+      </c>
+      <c r="X76" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y76" s="15" t="s">
+      <c r="Y76" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z76" s="13" t="s">
+      <c r="Z76" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA76" s="17" t="s">
+      <c r="AA76" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="AB76" s="10" t="s">
+      <c r="AB76" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="AC76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" s="10" customFormat="1">
-      <c r="A77" s="10" t="s">
+      <c r="AC76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="28" customFormat="1">
+      <c r="A77" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C77" s="10">
-        <v>0</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0</v>
-      </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10">
-        <v>0</v>
-      </c>
-      <c r="I77" s="10">
-        <v>0</v>
-      </c>
-      <c r="J77" s="10">
-        <v>0</v>
-      </c>
-      <c r="K77" s="10">
-        <v>0</v>
-      </c>
-      <c r="L77" s="10" t="s">
+      <c r="C77" s="28">
+        <v>0</v>
+      </c>
+      <c r="D77" s="28">
+        <v>0</v>
+      </c>
+      <c r="E77" s="28">
+        <v>0</v>
+      </c>
+      <c r="F77" s="28">
+        <v>0</v>
+      </c>
+      <c r="G77" s="28">
+        <v>0</v>
+      </c>
+      <c r="H77" s="28">
+        <v>0</v>
+      </c>
+      <c r="I77" s="28">
+        <v>0</v>
+      </c>
+      <c r="J77" s="28">
+        <v>0</v>
+      </c>
+      <c r="K77" s="28">
+        <v>0</v>
+      </c>
+      <c r="L77" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M77" s="10">
-        <v>0</v>
-      </c>
-      <c r="N77" s="10">
+      <c r="M77" s="28">
+        <v>0</v>
+      </c>
+      <c r="N77" s="28">
         <v>20</v>
       </c>
-      <c r="O77" s="10" t="s">
+      <c r="O77" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P77" s="10" t="s">
+      <c r="P77" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="Q77" s="10" t="s">
+      <c r="Q77" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="R77" s="10" t="s">
+      <c r="R77" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="S77" s="10" t="s">
+      <c r="S77" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="T77" s="10">
+      <c r="T77" s="28">
         <v>2</v>
       </c>
-      <c r="U77" s="15" t="s">
+      <c r="U77" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V77" s="10" t="s">
+      <c r="V77" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W77" s="10">
-        <v>0</v>
-      </c>
-      <c r="X77" s="10" t="s">
+      <c r="W77" s="28">
+        <v>0</v>
+      </c>
+      <c r="X77" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y77" s="15" t="s">
+      <c r="Y77" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z77" s="13" t="s">
+      <c r="Z77" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA77" s="17" t="s">
+      <c r="AA77" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="AB77" s="10" t="s">
+      <c r="AB77" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="AC77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE77" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" s="10" customFormat="1">
-      <c r="A78" s="10" t="s">
+      <c r="AC77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="28" customFormat="1">
+      <c r="A78" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="C78" s="10">
-        <v>0</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-      <c r="I78" s="10">
-        <v>0</v>
-      </c>
-      <c r="J78" s="10">
-        <v>0</v>
-      </c>
-      <c r="K78" s="10">
-        <v>0</v>
-      </c>
-      <c r="L78" s="10" t="s">
+      <c r="C78" s="28">
+        <v>0</v>
+      </c>
+      <c r="D78" s="28">
+        <v>0</v>
+      </c>
+      <c r="E78" s="28">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28">
+        <v>0</v>
+      </c>
+      <c r="G78" s="28">
+        <v>0</v>
+      </c>
+      <c r="H78" s="28">
+        <v>0</v>
+      </c>
+      <c r="I78" s="28">
+        <v>0</v>
+      </c>
+      <c r="J78" s="28">
+        <v>0</v>
+      </c>
+      <c r="K78" s="28">
+        <v>0</v>
+      </c>
+      <c r="L78" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M78" s="10">
-        <v>0</v>
-      </c>
-      <c r="N78" s="10">
+      <c r="M78" s="28">
+        <v>0</v>
+      </c>
+      <c r="N78" s="28">
         <v>20</v>
       </c>
-      <c r="O78" s="10" t="s">
+      <c r="O78" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P78" s="10" t="s">
+      <c r="P78" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="Q78" s="10" t="s">
+      <c r="Q78" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="R78" s="10" t="s">
+      <c r="R78" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="S78" s="10" t="s">
+      <c r="S78" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="T78" s="10">
+      <c r="T78" s="28">
         <v>2</v>
       </c>
-      <c r="U78" s="15" t="s">
+      <c r="U78" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V78" s="10" t="s">
+      <c r="V78" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W78" s="10">
-        <v>0</v>
-      </c>
-      <c r="X78" s="10" t="s">
+      <c r="W78" s="28">
+        <v>0</v>
+      </c>
+      <c r="X78" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y78" s="15" t="s">
+      <c r="Y78" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z78" s="13" t="s">
+      <c r="Z78" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA78" s="17" t="s">
+      <c r="AA78" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="AB78" s="10" t="s">
+      <c r="AB78" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="AC78" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" s="10" customFormat="1">
-      <c r="A79" s="10" t="s">
+      <c r="AC78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" s="28" customFormat="1">
+      <c r="A79" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="10">
-        <v>0</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-      <c r="F79" s="10">
-        <v>0</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
-      <c r="I79" s="10">
-        <v>0</v>
-      </c>
-      <c r="J79" s="10">
-        <v>0</v>
-      </c>
-      <c r="K79" s="10">
-        <v>0</v>
-      </c>
-      <c r="L79" s="10" t="s">
+      <c r="C79" s="28">
+        <v>0</v>
+      </c>
+      <c r="D79" s="28">
+        <v>0</v>
+      </c>
+      <c r="E79" s="28">
+        <v>0</v>
+      </c>
+      <c r="F79" s="28">
+        <v>0</v>
+      </c>
+      <c r="G79" s="28">
+        <v>0</v>
+      </c>
+      <c r="H79" s="28">
+        <v>0</v>
+      </c>
+      <c r="I79" s="28">
+        <v>0</v>
+      </c>
+      <c r="J79" s="28">
+        <v>0</v>
+      </c>
+      <c r="K79" s="28">
+        <v>0</v>
+      </c>
+      <c r="L79" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M79" s="10">
-        <v>0</v>
-      </c>
-      <c r="N79" s="10">
+      <c r="M79" s="28">
+        <v>0</v>
+      </c>
+      <c r="N79" s="28">
         <v>20</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="O79" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P79" s="10" t="s">
+      <c r="P79" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="Q79" s="10" t="s">
+      <c r="Q79" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="R79" s="10" t="s">
+      <c r="R79" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="S79" s="10" t="s">
+      <c r="S79" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="T79" s="10">
+      <c r="T79" s="28">
         <v>2</v>
       </c>
-      <c r="U79" s="15" t="s">
+      <c r="U79" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V79" s="10" t="s">
+      <c r="V79" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W79" s="10">
-        <v>0</v>
-      </c>
-      <c r="X79" s="10" t="s">
+      <c r="W79" s="28">
+        <v>0</v>
+      </c>
+      <c r="X79" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y79" s="15" t="s">
+      <c r="Y79" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z79" s="13" t="s">
+      <c r="Z79" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA79" s="17" t="s">
+      <c r="AA79" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="AB79" s="10" t="s">
+      <c r="AB79" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="AC79" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" s="10" customFormat="1">
-      <c r="A80" s="10" t="s">
+      <c r="AC79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="28" customFormat="1">
+      <c r="A80" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="10">
-        <v>0</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="10">
-        <v>0</v>
-      </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10">
-        <v>0</v>
-      </c>
-      <c r="I80" s="10">
-        <v>0</v>
-      </c>
-      <c r="J80" s="10">
-        <v>0</v>
-      </c>
-      <c r="K80" s="10">
-        <v>0</v>
-      </c>
-      <c r="L80" s="10" t="s">
+      <c r="C80" s="28">
+        <v>0</v>
+      </c>
+      <c r="D80" s="28">
+        <v>0</v>
+      </c>
+      <c r="E80" s="28">
+        <v>0</v>
+      </c>
+      <c r="F80" s="28">
+        <v>0</v>
+      </c>
+      <c r="G80" s="28">
+        <v>0</v>
+      </c>
+      <c r="H80" s="28">
+        <v>0</v>
+      </c>
+      <c r="I80" s="28">
+        <v>0</v>
+      </c>
+      <c r="J80" s="28">
+        <v>0</v>
+      </c>
+      <c r="K80" s="28">
+        <v>0</v>
+      </c>
+      <c r="L80" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M80" s="10">
-        <v>0</v>
-      </c>
-      <c r="N80" s="10">
+      <c r="M80" s="28">
+        <v>0</v>
+      </c>
+      <c r="N80" s="28">
         <v>20</v>
       </c>
-      <c r="O80" s="10" t="s">
+      <c r="O80" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P80" s="10" t="s">
+      <c r="P80" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="Q80" s="10" t="s">
+      <c r="Q80" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="R80" s="10" t="s">
+      <c r="R80" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="S80" s="10" t="s">
+      <c r="S80" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="T80" s="10">
+      <c r="T80" s="28">
         <v>2</v>
       </c>
-      <c r="U80" s="15" t="s">
+      <c r="U80" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="V80" s="10" t="s">
+      <c r="V80" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="W80" s="10">
-        <v>0</v>
-      </c>
-      <c r="X80" s="10" t="s">
+      <c r="W80" s="28">
+        <v>0</v>
+      </c>
+      <c r="X80" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="Y80" s="15" t="s">
+      <c r="Y80" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z80" s="13" t="s">
+      <c r="Z80" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="AA80" s="17" t="s">
+      <c r="AA80" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="AB80" s="10" t="s">
+      <c r="AB80" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="AC80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" s="10" customFormat="1">
-      <c r="A81" s="10" t="s">
+      <c r="AC80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" s="38" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A81" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="10">
-        <v>0</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="10">
-        <v>0</v>
-      </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10">
-        <v>0</v>
-      </c>
-      <c r="I81" s="10">
-        <v>0</v>
-      </c>
-      <c r="J81" s="10">
-        <v>0</v>
-      </c>
-      <c r="K81" s="10">
-        <v>0</v>
-      </c>
-      <c r="L81" s="10" t="s">
+      <c r="C81" s="38">
+        <v>0</v>
+      </c>
+      <c r="D81" s="38">
+        <v>0</v>
+      </c>
+      <c r="E81" s="38">
+        <v>0</v>
+      </c>
+      <c r="F81" s="38">
+        <v>0</v>
+      </c>
+      <c r="G81" s="38">
+        <v>0</v>
+      </c>
+      <c r="H81" s="38">
+        <v>0</v>
+      </c>
+      <c r="I81" s="38">
+        <v>0</v>
+      </c>
+      <c r="J81" s="38">
+        <v>0</v>
+      </c>
+      <c r="K81" s="38">
+        <v>0</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="M81" s="10">
-        <v>0</v>
-      </c>
-      <c r="N81" s="10">
+      <c r="M81" s="38">
+        <v>0</v>
+      </c>
+      <c r="N81" s="38">
         <v>20</v>
       </c>
-      <c r="O81" s="10" t="s">
+      <c r="O81" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P81" s="10" t="s">
+      <c r="P81" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="Q81" s="10" t="s">
+      <c r="Q81" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="R81" s="10" t="s">
+      <c r="R81" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="S81" s="10" t="s">
+      <c r="S81" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="T81" s="10">
+      <c r="T81" s="38">
         <v>2</v>
       </c>
-      <c r="U81" s="15" t="s">
+      <c r="U81" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="V81" s="10" t="s">
+      <c r="V81" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="W81" s="10">
-        <v>0</v>
-      </c>
-      <c r="X81" s="10" t="s">
+      <c r="W81" s="38">
+        <v>0</v>
+      </c>
+      <c r="X81" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="Y81" s="15" t="s">
+      <c r="Y81" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="Z81" s="13" t="s">
+      <c r="Z81" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AA81" s="17" t="s">
+      <c r="AA81" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AB81" s="10" t="s">
+      <c r="AB81" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="AC81" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="10">
+      <c r="AC81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" s="26" customFormat="1">
+      <c r="A82" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" s="26">
+        <v>0</v>
+      </c>
+      <c r="D82" s="26">
+        <v>0</v>
+      </c>
+      <c r="E82" s="26">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26">
+        <v>0</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26">
+        <v>0</v>
+      </c>
+      <c r="I82" s="26">
+        <v>0</v>
+      </c>
+      <c r="J82" s="26">
+        <v>0</v>
+      </c>
+      <c r="K82" s="26">
+        <v>0</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="M82" s="26">
+        <v>0</v>
+      </c>
+      <c r="N82" s="26">
+        <v>20</v>
+      </c>
+      <c r="O82" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T82" s="26">
+        <v>2</v>
+      </c>
+      <c r="U82" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="V82" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="W82" s="26">
+        <v>0</v>
+      </c>
+      <c r="X82" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y82" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z82" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA82" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB82" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC82" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" s="17" customFormat="1">
+      <c r="A83" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0</v>
+      </c>
+      <c r="G83" s="17">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17">
+        <v>0</v>
+      </c>
+      <c r="I83" s="17">
+        <v>0</v>
+      </c>
+      <c r="J83" s="17">
+        <v>0</v>
+      </c>
+      <c r="K83" s="17">
+        <v>0</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="M83" s="17">
+        <v>0</v>
+      </c>
+      <c r="N83" s="17">
+        <v>20</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T83" s="17">
+        <v>2</v>
+      </c>
+      <c r="U83" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V83" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W83" s="17">
+        <v>0</v>
+      </c>
+      <c r="X83" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y83" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z83" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA83" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB83" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC83" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" s="17" customFormat="1">
+      <c r="A84" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C84" s="17">
+        <v>0</v>
+      </c>
+      <c r="D84" s="17">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="17">
+        <v>0</v>
+      </c>
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
+        <v>0</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="M84" s="17">
+        <v>0</v>
+      </c>
+      <c r="N84" s="17">
+        <v>20</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T84" s="17">
+        <v>2</v>
+      </c>
+      <c r="U84" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V84" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W84" s="17">
+        <v>0</v>
+      </c>
+      <c r="X84" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y84" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z84" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA84" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB84" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC84" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" s="17" customFormat="1">
+      <c r="A85" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0</v>
+      </c>
+      <c r="D85" s="17">
+        <v>0</v>
+      </c>
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0</v>
+      </c>
+      <c r="G85" s="17">
+        <v>0</v>
+      </c>
+      <c r="H85" s="17">
+        <v>0</v>
+      </c>
+      <c r="I85" s="17">
+        <v>0</v>
+      </c>
+      <c r="J85" s="17">
+        <v>0</v>
+      </c>
+      <c r="K85" s="17">
+        <v>0</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M85" s="17">
+        <v>0</v>
+      </c>
+      <c r="N85" s="17">
+        <v>20</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T85" s="17">
+        <v>2</v>
+      </c>
+      <c r="U85" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V85" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W85" s="17">
+        <v>0</v>
+      </c>
+      <c r="X85" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y85" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z85" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA85" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB85" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC85" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" s="17" customFormat="1">
+      <c r="A86" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0</v>
+      </c>
+      <c r="E86" s="17">
+        <v>0</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0</v>
+      </c>
+      <c r="H86" s="17">
+        <v>0</v>
+      </c>
+      <c r="I86" s="17">
+        <v>0</v>
+      </c>
+      <c r="J86" s="17">
+        <v>0</v>
+      </c>
+      <c r="K86" s="17">
+        <v>0</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M86" s="17">
+        <v>0</v>
+      </c>
+      <c r="N86" s="17">
+        <v>20</v>
+      </c>
+      <c r="O86" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T86" s="17">
+        <v>2</v>
+      </c>
+      <c r="U86" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V86" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W86" s="17">
+        <v>0</v>
+      </c>
+      <c r="X86" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y86" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z86" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA86" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB86" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC86" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" s="17" customFormat="1">
+      <c r="A87" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C87" s="17">
+        <v>0</v>
+      </c>
+      <c r="D87" s="17">
+        <v>0</v>
+      </c>
+      <c r="E87" s="17">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="M87" s="17">
+        <v>0</v>
+      </c>
+      <c r="N87" s="17">
+        <v>20</v>
+      </c>
+      <c r="O87" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T87" s="17">
+        <v>2</v>
+      </c>
+      <c r="U87" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V87" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W87" s="17">
+        <v>0</v>
+      </c>
+      <c r="X87" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y87" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z87" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA87" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB87" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC87" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" s="17" customFormat="1">
+      <c r="A88" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C88" s="17">
+        <v>0</v>
+      </c>
+      <c r="D88" s="17">
+        <v>0</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0</v>
+      </c>
+      <c r="H88" s="17">
+        <v>0</v>
+      </c>
+      <c r="I88" s="17">
+        <v>0</v>
+      </c>
+      <c r="J88" s="17">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17">
+        <v>0</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="M88" s="17">
+        <v>0</v>
+      </c>
+      <c r="N88" s="17">
+        <v>20</v>
+      </c>
+      <c r="O88" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T88" s="17">
+        <v>2</v>
+      </c>
+      <c r="U88" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V88" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W88" s="17">
+        <v>0</v>
+      </c>
+      <c r="X88" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y88" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z88" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA88" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB88" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC88" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" s="17" customFormat="1">
+      <c r="A89" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C89" s="17">
+        <v>0</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0</v>
+      </c>
+      <c r="E89" s="17">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17">
+        <v>0</v>
+      </c>
+      <c r="G89" s="17">
+        <v>0</v>
+      </c>
+      <c r="H89" s="17">
+        <v>0</v>
+      </c>
+      <c r="I89" s="17">
+        <v>0</v>
+      </c>
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="17">
+        <v>20</v>
+      </c>
+      <c r="O89" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T89" s="17">
+        <v>2</v>
+      </c>
+      <c r="U89" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V89" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W89" s="17">
+        <v>0</v>
+      </c>
+      <c r="X89" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y89" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z89" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA89" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB89" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC89" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" s="17" customFormat="1">
+      <c r="A90" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0</v>
+      </c>
+      <c r="G90" s="17">
+        <v>0</v>
+      </c>
+      <c r="H90" s="17">
+        <v>0</v>
+      </c>
+      <c r="I90" s="17">
+        <v>0</v>
+      </c>
+      <c r="J90" s="17">
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
+        <v>0</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M90" s="17">
+        <v>0</v>
+      </c>
+      <c r="N90" s="17">
+        <v>20</v>
+      </c>
+      <c r="O90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T90" s="17">
+        <v>2</v>
+      </c>
+      <c r="U90" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V90" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W90" s="17">
+        <v>0</v>
+      </c>
+      <c r="X90" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y90" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z90" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA90" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB90" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC90" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" s="17" customFormat="1">
+      <c r="A91" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0</v>
+      </c>
+      <c r="G91" s="17">
+        <v>0</v>
+      </c>
+      <c r="H91" s="17">
+        <v>0</v>
+      </c>
+      <c r="I91" s="17">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17">
+        <v>0</v>
+      </c>
+      <c r="K91" s="17">
+        <v>0</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="M91" s="17">
+        <v>0</v>
+      </c>
+      <c r="N91" s="17">
+        <v>20</v>
+      </c>
+      <c r="O91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T91" s="17">
+        <v>2</v>
+      </c>
+      <c r="U91" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V91" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W91" s="17">
+        <v>0</v>
+      </c>
+      <c r="X91" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y91" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z91" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA91" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB91" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC91" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" s="17" customFormat="1">
+      <c r="A92" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0</v>
+      </c>
+      <c r="E92" s="17">
+        <v>0</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0</v>
+      </c>
+      <c r="G92" s="17">
+        <v>0</v>
+      </c>
+      <c r="H92" s="17">
+        <v>0</v>
+      </c>
+      <c r="I92" s="17">
+        <v>0</v>
+      </c>
+      <c r="J92" s="17">
+        <v>0</v>
+      </c>
+      <c r="K92" s="17">
+        <v>0</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M92" s="17">
+        <v>0</v>
+      </c>
+      <c r="N92" s="17">
+        <v>20</v>
+      </c>
+      <c r="O92" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T92" s="17">
+        <v>2</v>
+      </c>
+      <c r="U92" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V92" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W92" s="17">
+        <v>0</v>
+      </c>
+      <c r="X92" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y92" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z92" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA92" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB92" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC92" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" s="17" customFormat="1">
+      <c r="A93" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="17">
+        <v>0</v>
+      </c>
+      <c r="E93" s="17">
+        <v>0</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0</v>
+      </c>
+      <c r="G93" s="17">
+        <v>0</v>
+      </c>
+      <c r="H93" s="17">
+        <v>0</v>
+      </c>
+      <c r="I93" s="17">
+        <v>0</v>
+      </c>
+      <c r="J93" s="17">
+        <v>0</v>
+      </c>
+      <c r="K93" s="17">
+        <v>0</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M93" s="17">
+        <v>0</v>
+      </c>
+      <c r="N93" s="17">
+        <v>20</v>
+      </c>
+      <c r="O93" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T93" s="17">
+        <v>2</v>
+      </c>
+      <c r="U93" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V93" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W93" s="17">
+        <v>0</v>
+      </c>
+      <c r="X93" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y93" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z93" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA93" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB93" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" s="17" customFormat="1">
+      <c r="A94" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0</v>
+      </c>
+      <c r="E94" s="17">
+        <v>0</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0</v>
+      </c>
+      <c r="G94" s="17">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0</v>
+      </c>
+      <c r="J94" s="17">
+        <v>0</v>
+      </c>
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0</v>
+      </c>
+      <c r="N94" s="17">
+        <v>20</v>
+      </c>
+      <c r="O94" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T94" s="17">
+        <v>2</v>
+      </c>
+      <c r="U94" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V94" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y94" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z94" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA94" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB94" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC94" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" s="17" customFormat="1">
+      <c r="A95" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0</v>
+      </c>
+      <c r="D95" s="17">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
+        <v>0</v>
+      </c>
+      <c r="F95" s="17">
+        <v>0</v>
+      </c>
+      <c r="G95" s="17">
+        <v>0</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17">
+        <v>0</v>
+      </c>
+      <c r="J95" s="17">
+        <v>0</v>
+      </c>
+      <c r="K95" s="17">
+        <v>0</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M95" s="17">
+        <v>0</v>
+      </c>
+      <c r="N95" s="17">
+        <v>20</v>
+      </c>
+      <c r="O95" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T95" s="17">
+        <v>2</v>
+      </c>
+      <c r="U95" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V95" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W95" s="17">
+        <v>0</v>
+      </c>
+      <c r="X95" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y95" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z95" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA95" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB95" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC95" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" s="17" customFormat="1">
+      <c r="A96" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0</v>
+      </c>
+      <c r="D96" s="17">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0</v>
+      </c>
+      <c r="G96" s="17">
+        <v>0</v>
+      </c>
+      <c r="H96" s="17">
+        <v>0</v>
+      </c>
+      <c r="I96" s="17">
+        <v>0</v>
+      </c>
+      <c r="J96" s="17">
+        <v>0</v>
+      </c>
+      <c r="K96" s="17">
+        <v>0</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="M96" s="17">
+        <v>0</v>
+      </c>
+      <c r="N96" s="17">
+        <v>20</v>
+      </c>
+      <c r="O96" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T96" s="17">
+        <v>2</v>
+      </c>
+      <c r="U96" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V96" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W96" s="17">
+        <v>0</v>
+      </c>
+      <c r="X96" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y96" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z96" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA96" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB96" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC96" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" s="17" customFormat="1">
+      <c r="A97" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0</v>
+      </c>
+      <c r="D97" s="17">
+        <v>0</v>
+      </c>
+      <c r="E97" s="17">
+        <v>0</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17">
+        <v>0</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17">
+        <v>0</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M97" s="17">
+        <v>0</v>
+      </c>
+      <c r="N97" s="17">
+        <v>20</v>
+      </c>
+      <c r="O97" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T97" s="17">
+        <v>2</v>
+      </c>
+      <c r="U97" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V97" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W97" s="17">
+        <v>0</v>
+      </c>
+      <c r="X97" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y97" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z97" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA97" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB97" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC97" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" s="17" customFormat="1">
+      <c r="A98" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="17">
+        <v>0</v>
+      </c>
+      <c r="D98" s="17">
+        <v>0</v>
+      </c>
+      <c r="E98" s="17">
+        <v>0</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17">
+        <v>0</v>
+      </c>
+      <c r="J98" s="17">
+        <v>0</v>
+      </c>
+      <c r="K98" s="17">
+        <v>0</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M98" s="17">
+        <v>0</v>
+      </c>
+      <c r="N98" s="17">
+        <v>20</v>
+      </c>
+      <c r="O98" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T98" s="17">
+        <v>2</v>
+      </c>
+      <c r="U98" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V98" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W98" s="17">
+        <v>0</v>
+      </c>
+      <c r="X98" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y98" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z98" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA98" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB98" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC98" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" s="17" customFormat="1">
+      <c r="A99" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="17">
+        <v>0</v>
+      </c>
+      <c r="D99" s="17">
+        <v>0</v>
+      </c>
+      <c r="E99" s="17">
+        <v>0</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0</v>
+      </c>
+      <c r="G99" s="17">
+        <v>0</v>
+      </c>
+      <c r="H99" s="17">
+        <v>0</v>
+      </c>
+      <c r="I99" s="17">
+        <v>0</v>
+      </c>
+      <c r="J99" s="17">
+        <v>0</v>
+      </c>
+      <c r="K99" s="17">
+        <v>0</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M99" s="17">
+        <v>0</v>
+      </c>
+      <c r="N99" s="17">
+        <v>20</v>
+      </c>
+      <c r="O99" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T99" s="17">
+        <v>2</v>
+      </c>
+      <c r="U99" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V99" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W99" s="17">
+        <v>0</v>
+      </c>
+      <c r="X99" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y99" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z99" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA99" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB99" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC99" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" s="17" customFormat="1">
+      <c r="A100" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" s="17">
+        <v>0</v>
+      </c>
+      <c r="D100" s="17">
+        <v>0</v>
+      </c>
+      <c r="E100" s="17">
+        <v>0</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0</v>
+      </c>
+      <c r="G100" s="17">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17">
+        <v>0</v>
+      </c>
+      <c r="J100" s="17">
+        <v>0</v>
+      </c>
+      <c r="K100" s="17">
+        <v>0</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="M100" s="17">
+        <v>0</v>
+      </c>
+      <c r="N100" s="17">
+        <v>20</v>
+      </c>
+      <c r="O100" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T100" s="17">
+        <v>2</v>
+      </c>
+      <c r="U100" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V100" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W100" s="17">
+        <v>0</v>
+      </c>
+      <c r="X100" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y100" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z100" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA100" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB100" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC100" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" s="17" customFormat="1">
+      <c r="A101" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0</v>
+      </c>
+      <c r="D101" s="17">
+        <v>0</v>
+      </c>
+      <c r="E101" s="17">
+        <v>0</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0</v>
+      </c>
+      <c r="G101" s="17">
+        <v>0</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17">
+        <v>0</v>
+      </c>
+      <c r="J101" s="17">
+        <v>0</v>
+      </c>
+      <c r="K101" s="17">
+        <v>0</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M101" s="17">
+        <v>0</v>
+      </c>
+      <c r="N101" s="17">
+        <v>20</v>
+      </c>
+      <c r="O101" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T101" s="17">
+        <v>2</v>
+      </c>
+      <c r="U101" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V101" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W101" s="17">
+        <v>0</v>
+      </c>
+      <c r="X101" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y101" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z101" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA101" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB101" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC101" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" s="17" customFormat="1">
+      <c r="A102" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17">
+        <v>0</v>
+      </c>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17">
+        <v>0</v>
+      </c>
+      <c r="J102" s="17">
+        <v>0</v>
+      </c>
+      <c r="K102" s="17">
+        <v>0</v>
+      </c>
+      <c r="L102" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M102" s="17">
+        <v>0</v>
+      </c>
+      <c r="N102" s="17">
+        <v>20</v>
+      </c>
+      <c r="O102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T102" s="17">
+        <v>2</v>
+      </c>
+      <c r="U102" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V102" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W102" s="17">
+        <v>0</v>
+      </c>
+      <c r="X102" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y102" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z102" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA102" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB102" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC102" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" s="17" customFormat="1">
+      <c r="A103" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" s="17">
+        <v>0</v>
+      </c>
+      <c r="D103" s="17">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17">
+        <v>0</v>
+      </c>
+      <c r="F103" s="17">
+        <v>0</v>
+      </c>
+      <c r="G103" s="17">
+        <v>0</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0</v>
+      </c>
+      <c r="I103" s="17">
+        <v>0</v>
+      </c>
+      <c r="J103" s="17">
+        <v>0</v>
+      </c>
+      <c r="K103" s="17">
+        <v>0</v>
+      </c>
+      <c r="L103" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="M103" s="17">
+        <v>0</v>
+      </c>
+      <c r="N103" s="17">
+        <v>20</v>
+      </c>
+      <c r="O103" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T103" s="17">
+        <v>2</v>
+      </c>
+      <c r="U103" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V103" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W103" s="17">
+        <v>0</v>
+      </c>
+      <c r="X103" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y103" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z103" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA103" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB103" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC103" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" s="17" customFormat="1">
+      <c r="A104" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C104" s="17">
+        <v>0</v>
+      </c>
+      <c r="D104" s="17">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17">
+        <v>0</v>
+      </c>
+      <c r="F104" s="17">
+        <v>0</v>
+      </c>
+      <c r="G104" s="17">
+        <v>0</v>
+      </c>
+      <c r="H104" s="17">
+        <v>0</v>
+      </c>
+      <c r="I104" s="17">
+        <v>0</v>
+      </c>
+      <c r="J104" s="17">
+        <v>0</v>
+      </c>
+      <c r="K104" s="17">
+        <v>0</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="M104" s="17">
+        <v>0</v>
+      </c>
+      <c r="N104" s="17">
+        <v>20</v>
+      </c>
+      <c r="O104" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T104" s="17">
+        <v>2</v>
+      </c>
+      <c r="U104" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V104" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W104" s="17">
+        <v>0</v>
+      </c>
+      <c r="X104" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y104" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z104" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA104" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB104" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC104" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" s="17" customFormat="1">
+      <c r="A105" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C105" s="17">
+        <v>0</v>
+      </c>
+      <c r="D105" s="17">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <v>0</v>
+      </c>
+      <c r="F105" s="17">
+        <v>0</v>
+      </c>
+      <c r="G105" s="17">
+        <v>0</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0</v>
+      </c>
+      <c r="I105" s="17">
+        <v>0</v>
+      </c>
+      <c r="J105" s="17">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
+        <v>0</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="M105" s="17">
+        <v>0</v>
+      </c>
+      <c r="N105" s="17">
+        <v>20</v>
+      </c>
+      <c r="O105" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T105" s="17">
+        <v>2</v>
+      </c>
+      <c r="U105" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V105" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W105" s="17">
+        <v>0</v>
+      </c>
+      <c r="X105" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y105" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z105" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA105" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB105" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC105" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" s="17" customFormat="1">
+      <c r="A106" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="17">
+        <v>0</v>
+      </c>
+      <c r="E106" s="17">
+        <v>0</v>
+      </c>
+      <c r="F106" s="17">
+        <v>0</v>
+      </c>
+      <c r="G106" s="17">
+        <v>0</v>
+      </c>
+      <c r="H106" s="17">
+        <v>0</v>
+      </c>
+      <c r="I106" s="17">
+        <v>0</v>
+      </c>
+      <c r="J106" s="17">
+        <v>0</v>
+      </c>
+      <c r="K106" s="17">
+        <v>0</v>
+      </c>
+      <c r="L106" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M106" s="17">
+        <v>0</v>
+      </c>
+      <c r="N106" s="17">
+        <v>20</v>
+      </c>
+      <c r="O106" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T106" s="17">
+        <v>2</v>
+      </c>
+      <c r="U106" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V106" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W106" s="17">
+        <v>0</v>
+      </c>
+      <c r="X106" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y106" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z106" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA106" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB106" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC106" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" s="17" customFormat="1">
+      <c r="A107" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" s="17">
+        <v>0</v>
+      </c>
+      <c r="D107" s="17">
+        <v>0</v>
+      </c>
+      <c r="E107" s="17">
+        <v>0</v>
+      </c>
+      <c r="F107" s="17">
+        <v>0</v>
+      </c>
+      <c r="G107" s="17">
+        <v>0</v>
+      </c>
+      <c r="H107" s="17">
+        <v>0</v>
+      </c>
+      <c r="I107" s="17">
+        <v>0</v>
+      </c>
+      <c r="J107" s="17">
+        <v>0</v>
+      </c>
+      <c r="K107" s="17">
+        <v>0</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="M107" s="17">
+        <v>0</v>
+      </c>
+      <c r="N107" s="17">
+        <v>20</v>
+      </c>
+      <c r="O107" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T107" s="17">
+        <v>2</v>
+      </c>
+      <c r="U107" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V107" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W107" s="17">
+        <v>0</v>
+      </c>
+      <c r="X107" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y107" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z107" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA107" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB107" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC107" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" s="17" customFormat="1">
+      <c r="A108" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" s="17">
+        <v>0</v>
+      </c>
+      <c r="D108" s="17">
+        <v>0</v>
+      </c>
+      <c r="E108" s="17">
+        <v>0</v>
+      </c>
+      <c r="F108" s="17">
+        <v>0</v>
+      </c>
+      <c r="G108" s="17">
+        <v>0</v>
+      </c>
+      <c r="H108" s="17">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17">
+        <v>0</v>
+      </c>
+      <c r="J108" s="17">
+        <v>0</v>
+      </c>
+      <c r="K108" s="17">
+        <v>0</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M108" s="17">
+        <v>0</v>
+      </c>
+      <c r="N108" s="17">
+        <v>20</v>
+      </c>
+      <c r="O108" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T108" s="17">
+        <v>2</v>
+      </c>
+      <c r="U108" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V108" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W108" s="17">
+        <v>0</v>
+      </c>
+      <c r="X108" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y108" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z108" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA108" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB108" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC108" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" s="17" customFormat="1">
+      <c r="A109" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C109" s="17">
+        <v>0</v>
+      </c>
+      <c r="D109" s="17">
+        <v>0</v>
+      </c>
+      <c r="E109" s="17">
+        <v>0</v>
+      </c>
+      <c r="F109" s="17">
+        <v>0</v>
+      </c>
+      <c r="G109" s="17">
+        <v>0</v>
+      </c>
+      <c r="H109" s="17">
+        <v>0</v>
+      </c>
+      <c r="I109" s="17">
+        <v>0</v>
+      </c>
+      <c r="J109" s="17">
+        <v>0</v>
+      </c>
+      <c r="K109" s="17">
+        <v>0</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M109" s="17">
+        <v>0</v>
+      </c>
+      <c r="N109" s="17">
+        <v>20</v>
+      </c>
+      <c r="O109" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T109" s="17">
+        <v>2</v>
+      </c>
+      <c r="U109" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V109" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W109" s="17">
+        <v>0</v>
+      </c>
+      <c r="X109" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y109" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z109" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA109" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB109" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC109" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" s="17" customFormat="1">
+      <c r="A110" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C110" s="17">
+        <v>0</v>
+      </c>
+      <c r="D110" s="17">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17">
+        <v>0</v>
+      </c>
+      <c r="F110" s="17">
+        <v>0</v>
+      </c>
+      <c r="G110" s="17">
+        <v>0</v>
+      </c>
+      <c r="H110" s="17">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17">
+        <v>0</v>
+      </c>
+      <c r="J110" s="17">
+        <v>0</v>
+      </c>
+      <c r="K110" s="17">
+        <v>0</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="M110" s="17">
+        <v>0</v>
+      </c>
+      <c r="N110" s="17">
+        <v>20</v>
+      </c>
+      <c r="O110" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T110" s="17">
+        <v>2</v>
+      </c>
+      <c r="U110" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V110" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W110" s="17">
+        <v>0</v>
+      </c>
+      <c r="X110" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y110" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z110" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA110" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB110" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC110" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" s="17" customFormat="1">
+      <c r="A111" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C111" s="17">
+        <v>0</v>
+      </c>
+      <c r="D111" s="17">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17">
+        <v>0</v>
+      </c>
+      <c r="G111" s="17">
+        <v>0</v>
+      </c>
+      <c r="H111" s="17">
+        <v>0</v>
+      </c>
+      <c r="I111" s="17">
+        <v>0</v>
+      </c>
+      <c r="J111" s="17">
+        <v>0</v>
+      </c>
+      <c r="K111" s="17">
+        <v>0</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="M111" s="17">
+        <v>0</v>
+      </c>
+      <c r="N111" s="17">
+        <v>20</v>
+      </c>
+      <c r="O111" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T111" s="17">
+        <v>2</v>
+      </c>
+      <c r="U111" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V111" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W111" s="17">
+        <v>0</v>
+      </c>
+      <c r="X111" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y111" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z111" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA111" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB111" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC111" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" s="17" customFormat="1">
+      <c r="A112" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="17">
+        <v>0</v>
+      </c>
+      <c r="D112" s="17">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0</v>
+      </c>
+      <c r="F112" s="17">
+        <v>0</v>
+      </c>
+      <c r="G112" s="17">
+        <v>0</v>
+      </c>
+      <c r="H112" s="17">
+        <v>0</v>
+      </c>
+      <c r="I112" s="17">
+        <v>0</v>
+      </c>
+      <c r="J112" s="17">
+        <v>0</v>
+      </c>
+      <c r="K112" s="17">
+        <v>0</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="M112" s="17">
+        <v>0</v>
+      </c>
+      <c r="N112" s="17">
+        <v>20</v>
+      </c>
+      <c r="O112" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T112" s="17">
+        <v>2</v>
+      </c>
+      <c r="U112" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V112" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W112" s="17">
+        <v>0</v>
+      </c>
+      <c r="X112" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y112" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z112" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA112" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB112" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC112" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" s="17" customFormat="1">
+      <c r="A113" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C113" s="17">
+        <v>0</v>
+      </c>
+      <c r="D113" s="17">
+        <v>0</v>
+      </c>
+      <c r="E113" s="17">
+        <v>0</v>
+      </c>
+      <c r="F113" s="17">
+        <v>0</v>
+      </c>
+      <c r="G113" s="17">
+        <v>0</v>
+      </c>
+      <c r="H113" s="17">
+        <v>0</v>
+      </c>
+      <c r="I113" s="17">
+        <v>0</v>
+      </c>
+      <c r="J113" s="17">
+        <v>0</v>
+      </c>
+      <c r="K113" s="17">
+        <v>0</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M113" s="17">
+        <v>0</v>
+      </c>
+      <c r="N113" s="17">
+        <v>20</v>
+      </c>
+      <c r="O113" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T113" s="17">
+        <v>2</v>
+      </c>
+      <c r="U113" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V113" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W113" s="17">
+        <v>0</v>
+      </c>
+      <c r="X113" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y113" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z113" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA113" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB113" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC113" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A114" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="22">
+        <v>0</v>
+      </c>
+      <c r="D114" s="22">
+        <v>0</v>
+      </c>
+      <c r="E114" s="22">
+        <v>0</v>
+      </c>
+      <c r="F114" s="22">
+        <v>0</v>
+      </c>
+      <c r="G114" s="22">
+        <v>0</v>
+      </c>
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
+      <c r="J114" s="22">
+        <v>0</v>
+      </c>
+      <c r="K114" s="22">
+        <v>0</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M114" s="22">
+        <v>0</v>
+      </c>
+      <c r="N114" s="22">
+        <v>20</v>
+      </c>
+      <c r="O114" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T114" s="22">
+        <v>2</v>
+      </c>
+      <c r="U114" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="V114" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W114" s="22">
+        <v>0</v>
+      </c>
+      <c r="X114" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y114" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z114" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA114" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB114" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC114" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" s="17" customFormat="1">
+      <c r="A115" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C115" s="17">
+        <v>0</v>
+      </c>
+      <c r="D115" s="17">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
+        <v>0</v>
+      </c>
+      <c r="F115" s="17">
+        <v>0</v>
+      </c>
+      <c r="G115" s="17">
+        <v>0</v>
+      </c>
+      <c r="H115" s="17">
+        <v>0</v>
+      </c>
+      <c r="I115" s="17">
+        <v>0</v>
+      </c>
+      <c r="J115" s="17">
+        <v>0</v>
+      </c>
+      <c r="K115" s="17">
+        <v>0</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="M115" s="17">
+        <v>0</v>
+      </c>
+      <c r="N115" s="17">
+        <v>20</v>
+      </c>
+      <c r="O115" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T115" s="17">
+        <v>2</v>
+      </c>
+      <c r="U115" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V115" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W115" s="17">
+        <v>0</v>
+      </c>
+      <c r="X115" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y115" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z115" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA115" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB115" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC115" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" s="17" customFormat="1">
+      <c r="A116" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C116" s="17">
+        <v>0</v>
+      </c>
+      <c r="D116" s="17">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17">
+        <v>0</v>
+      </c>
+      <c r="F116" s="17">
+        <v>0</v>
+      </c>
+      <c r="G116" s="17">
+        <v>0</v>
+      </c>
+      <c r="H116" s="17">
+        <v>0</v>
+      </c>
+      <c r="I116" s="17">
+        <v>0</v>
+      </c>
+      <c r="J116" s="17">
+        <v>0</v>
+      </c>
+      <c r="K116" s="17">
+        <v>0</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M116" s="17">
+        <v>0</v>
+      </c>
+      <c r="N116" s="17">
+        <v>20</v>
+      </c>
+      <c r="O116" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T116" s="17">
+        <v>2</v>
+      </c>
+      <c r="U116" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V116" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W116" s="17">
+        <v>0</v>
+      </c>
+      <c r="X116" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y116" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z116" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA116" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB116" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC116" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A117" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="22">
+        <v>0</v>
+      </c>
+      <c r="D117" s="22">
+        <v>0</v>
+      </c>
+      <c r="E117" s="22">
+        <v>0</v>
+      </c>
+      <c r="F117" s="22">
+        <v>0</v>
+      </c>
+      <c r="G117" s="22">
+        <v>0</v>
+      </c>
+      <c r="H117" s="22">
+        <v>0</v>
+      </c>
+      <c r="I117" s="22">
+        <v>0</v>
+      </c>
+      <c r="J117" s="22">
+        <v>0</v>
+      </c>
+      <c r="K117" s="22">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="M117" s="22">
+        <v>0</v>
+      </c>
+      <c r="N117" s="22">
+        <v>20</v>
+      </c>
+      <c r="O117" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T117" s="22">
+        <v>2</v>
+      </c>
+      <c r="U117" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="V117" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W117" s="22">
+        <v>0</v>
+      </c>
+      <c r="X117" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y117" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z117" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA117" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB117" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC117" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="22">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="571">
   <si>
     <t>Id</t>
   </si>
@@ -1387,15 +1387,6 @@
     <t>Build_anti_air_tower_3</t>
   </si>
   <si>
-    <t>Prefabs/Object/NPC/anti_air_tower_upg_01</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC/anti_air_tower_upg_02</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC/anti_air_tower_upg_03</t>
-  </si>
-  <si>
     <t>Build_mana_well_1</t>
   </si>
   <si>
@@ -1403,6 +1394,357 @@
   </si>
   <si>
     <t>Build_mana_well_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_mine_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_mine_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_mine_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/townhall_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/townhall_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/townhall_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/camp_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/camp_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/camp_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_storage_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_storage_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/gold_storage_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_storage_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_storage_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_storage_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/barrack_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/barrack_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/barrack_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/bomb_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/bomb_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/bomb_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/worker_hut_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/worker_hut_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/worker_hut_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_well_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_well_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/mana_well_3</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_3</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_townhall_1</t>
+  </si>
+  <si>
+    <t>NameID_townhall_2</t>
+  </si>
+  <si>
+    <t>NameID_townhall_3</t>
+  </si>
+  <si>
+    <t>NameID_camp_1</t>
+  </si>
+  <si>
+    <t>NameID_camp_2</t>
+  </si>
+  <si>
+    <t>NameID_camp_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_barrack_1</t>
+  </si>
+  <si>
+    <t>NameID_barrack_2</t>
+  </si>
+  <si>
+    <t>NameID_barrack_3</t>
+  </si>
+  <si>
+    <t>NameID_bomb_1</t>
+  </si>
+  <si>
+    <t>NameID_bomb_2</t>
+  </si>
+  <si>
+    <t>NameID_bomb_3</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_1</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_2</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_3</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_3</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Icon_townhall_1</t>
+  </si>
+  <si>
+    <t>Icon_townhall_2</t>
+  </si>
+  <si>
+    <t>Icon_townhall_3</t>
+  </si>
+  <si>
+    <t>Icon_camp_1</t>
+  </si>
+  <si>
+    <t>Icon_camp_2</t>
+  </si>
+  <si>
+    <t>Icon_camp_3</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Icon_barrack_1</t>
+  </si>
+  <si>
+    <t>Icon_barrack_2</t>
+  </si>
+  <si>
+    <t>Icon_barrack_3</t>
+  </si>
+  <si>
+    <t>Icon_bomb_1</t>
+  </si>
+  <si>
+    <t>Icon_bomb_2</t>
+  </si>
+  <si>
+    <t>Icon_bomb_3</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_1</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_2</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_3</t>
+  </si>
+  <si>
+    <t>NameID_Abaddon</t>
+  </si>
+  <si>
+    <t>NameID_Beastmaster</t>
+  </si>
+  <si>
+    <t>NameID_BountyHunter</t>
+  </si>
+  <si>
+    <t>NameID_Bristleback</t>
+  </si>
+  <si>
+    <t>NameID_Clinkz</t>
+  </si>
+  <si>
+    <t>NameID_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NameID_Ezalor</t>
+  </si>
+  <si>
+    <t>NameID_Lifestealer</t>
+  </si>
+  <si>
+    <t>NameID_TeaantProtector</t>
   </si>
 </sst>
 </file>
@@ -2146,8 +2488,8 @@
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="9" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X73" sqref="X73:X81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2170,7 +2512,7 @@
     <col min="21" max="21" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
     <col min="23" max="23" width="13.796875" customWidth="1"/>
-    <col min="24" max="24" width="11.1328125" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1"/>
     <col min="25" max="25" width="13.9296875" customWidth="1"/>
     <col min="26" max="26" width="27.3984375" customWidth="1"/>
     <col min="27" max="27" width="22.1328125" customWidth="1"/>
@@ -8352,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="32" t="s">
-        <v>291</v>
+        <v>562</v>
       </c>
       <c r="Y73" s="33" t="s">
         <v>70</v>
@@ -8447,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="28" t="s">
-        <v>291</v>
+        <v>563</v>
       </c>
       <c r="Y74" s="29" t="s">
         <v>70</v>
@@ -8542,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="28" t="s">
-        <v>291</v>
+        <v>564</v>
       </c>
       <c r="Y75" s="29" t="s">
         <v>70</v>
@@ -8637,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="28" t="s">
-        <v>291</v>
+        <v>565</v>
       </c>
       <c r="Y76" s="29" t="s">
         <v>70</v>
@@ -8732,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="28" t="s">
-        <v>291</v>
+        <v>566</v>
       </c>
       <c r="Y77" s="29" t="s">
         <v>70</v>
@@ -8827,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="28" t="s">
-        <v>291</v>
+        <v>567</v>
       </c>
       <c r="Y78" s="29" t="s">
         <v>70</v>
@@ -8922,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="28" t="s">
-        <v>291</v>
+        <v>568</v>
       </c>
       <c r="Y79" s="29" t="s">
         <v>70</v>
@@ -9017,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="28" t="s">
-        <v>291</v>
+        <v>569</v>
       </c>
       <c r="Y80" s="29" t="s">
         <v>70</v>
@@ -9112,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="38" t="s">
-        <v>291</v>
+        <v>570</v>
       </c>
       <c r="Y81" s="39" t="s">
         <v>70</v>
@@ -9171,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="26" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M82" s="26">
         <v>0</v>
@@ -9195,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="26" t="s">
-        <v>234</v>
+        <v>490</v>
       </c>
       <c r="Y82" s="15" t="s">
         <v>70</v>
@@ -9204,7 +9546,7 @@
         <v>71</v>
       </c>
       <c r="AA82" s="26" t="s">
-        <v>232</v>
+        <v>526</v>
       </c>
       <c r="AB82" s="27" t="s">
         <v>72</v>
@@ -9254,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="26" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M83" s="17">
         <v>0</v>
@@ -9278,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="17" t="s">
-        <v>237</v>
+        <v>491</v>
       </c>
       <c r="Y83" s="18" t="s">
         <v>70</v>
@@ -9287,7 +9629,7 @@
         <v>71</v>
       </c>
       <c r="AA83" s="17" t="s">
-        <v>235</v>
+        <v>527</v>
       </c>
       <c r="AB83" s="19" t="s">
         <v>72</v>
@@ -9337,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M84" s="17">
         <v>0</v>
@@ -9361,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="17" t="s">
-        <v>240</v>
+        <v>492</v>
       </c>
       <c r="Y84" s="18" t="s">
         <v>70</v>
@@ -9370,7 +9712,7 @@
         <v>71</v>
       </c>
       <c r="AA84" s="17" t="s">
-        <v>238</v>
+        <v>528</v>
       </c>
       <c r="AB84" s="19" t="s">
         <v>72</v>
@@ -9420,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>242</v>
+        <v>457</v>
       </c>
       <c r="M85" s="17">
         <v>0</v>
@@ -9444,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="17" t="s">
-        <v>243</v>
+        <v>493</v>
       </c>
       <c r="Y85" s="18" t="s">
         <v>70</v>
@@ -9453,7 +9795,7 @@
         <v>71</v>
       </c>
       <c r="AA85" s="17" t="s">
-        <v>241</v>
+        <v>529</v>
       </c>
       <c r="AB85" s="19" t="s">
         <v>72</v>
@@ -9503,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="M86" s="17">
         <v>0</v>
@@ -9527,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="17" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="Y86" s="18" t="s">
         <v>70</v>
@@ -9536,7 +9878,7 @@
         <v>71</v>
       </c>
       <c r="AA86" s="17" t="s">
-        <v>244</v>
+        <v>530</v>
       </c>
       <c r="AB86" s="19" t="s">
         <v>72</v>
@@ -9586,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>248</v>
+        <v>459</v>
       </c>
       <c r="M87" s="17">
         <v>0</v>
@@ -9610,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="17" t="s">
-        <v>249</v>
+        <v>495</v>
       </c>
       <c r="Y87" s="18" t="s">
         <v>70</v>
@@ -9619,7 +9961,7 @@
         <v>71</v>
       </c>
       <c r="AA87" s="17" t="s">
-        <v>247</v>
+        <v>531</v>
       </c>
       <c r="AB87" s="19" t="s">
         <v>72</v>
@@ -9669,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>251</v>
+        <v>460</v>
       </c>
       <c r="M88" s="17">
         <v>0</v>
@@ -9693,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="17" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="Y88" s="18" t="s">
         <v>70</v>
@@ -9702,7 +10044,7 @@
         <v>71</v>
       </c>
       <c r="AA88" s="17" t="s">
-        <v>250</v>
+        <v>532</v>
       </c>
       <c r="AB88" s="19" t="s">
         <v>72</v>
@@ -9752,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>254</v>
+        <v>461</v>
       </c>
       <c r="M89" s="17">
         <v>0</v>
@@ -9776,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="17" t="s">
-        <v>255</v>
+        <v>497</v>
       </c>
       <c r="Y89" s="18" t="s">
         <v>70</v>
@@ -9785,7 +10127,7 @@
         <v>71</v>
       </c>
       <c r="AA89" s="17" t="s">
-        <v>253</v>
+        <v>533</v>
       </c>
       <c r="AB89" s="19" t="s">
         <v>72</v>
@@ -9835,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="M90" s="17">
         <v>0</v>
@@ -9859,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="17" t="s">
-        <v>258</v>
+        <v>498</v>
       </c>
       <c r="Y90" s="18" t="s">
         <v>70</v>
@@ -9868,7 +10210,7 @@
         <v>71</v>
       </c>
       <c r="AA90" s="17" t="s">
-        <v>256</v>
+        <v>534</v>
       </c>
       <c r="AB90" s="19" t="s">
         <v>72</v>
@@ -9918,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>260</v>
+        <v>463</v>
       </c>
       <c r="M91" s="17">
         <v>0</v>
@@ -9942,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="17" t="s">
-        <v>261</v>
+        <v>499</v>
       </c>
       <c r="Y91" s="18" t="s">
         <v>70</v>
@@ -9951,7 +10293,7 @@
         <v>71</v>
       </c>
       <c r="AA91" s="17" t="s">
-        <v>259</v>
+        <v>535</v>
       </c>
       <c r="AB91" s="19" t="s">
         <v>72</v>
@@ -10001,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="M92" s="17">
         <v>0</v>
@@ -10025,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="17" t="s">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="Y92" s="18" t="s">
         <v>70</v>
@@ -10034,7 +10376,7 @@
         <v>71</v>
       </c>
       <c r="AA92" s="17" t="s">
-        <v>262</v>
+        <v>536</v>
       </c>
       <c r="AB92" s="19" t="s">
         <v>72</v>
@@ -10084,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="M93" s="17">
         <v>0</v>
@@ -10108,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="17" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="Y93" s="18" t="s">
         <v>70</v>
@@ -10117,7 +10459,7 @@
         <v>71</v>
       </c>
       <c r="AA93" s="17" t="s">
-        <v>265</v>
+        <v>537</v>
       </c>
       <c r="AB93" s="19" t="s">
         <v>72</v>
@@ -10167,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
       <c r="M94" s="17">
         <v>0</v>
@@ -10191,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="17" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="Y94" s="18" t="s">
         <v>70</v>
@@ -10200,7 +10542,7 @@
         <v>71</v>
       </c>
       <c r="AA94" s="17" t="s">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="AB94" s="19" t="s">
         <v>72</v>
@@ -10250,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="M95" s="17">
         <v>0</v>
@@ -10274,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="17" t="s">
-        <v>273</v>
+        <v>503</v>
       </c>
       <c r="Y95" s="18" t="s">
         <v>70</v>
@@ -10283,7 +10625,7 @@
         <v>71</v>
       </c>
       <c r="AA95" s="17" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="AB95" s="19" t="s">
         <v>72</v>
@@ -10333,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="M96" s="17">
         <v>0</v>
@@ -10357,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="17" t="s">
-        <v>276</v>
+        <v>504</v>
       </c>
       <c r="Y96" s="18" t="s">
         <v>70</v>
@@ -10366,7 +10708,7 @@
         <v>71</v>
       </c>
       <c r="AA96" s="17" t="s">
-        <v>274</v>
+        <v>540</v>
       </c>
       <c r="AB96" s="19" t="s">
         <v>72</v>
@@ -10416,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>278</v>
+        <v>469</v>
       </c>
       <c r="M97" s="17">
         <v>0</v>
@@ -10440,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="17" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
       <c r="Y97" s="18" t="s">
         <v>70</v>
@@ -10449,7 +10791,7 @@
         <v>71</v>
       </c>
       <c r="AA97" s="17" t="s">
-        <v>277</v>
+        <v>541</v>
       </c>
       <c r="AB97" s="19" t="s">
         <v>72</v>
@@ -10499,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="M98" s="17">
         <v>0</v>
@@ -10523,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="17" t="s">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="Y98" s="18" t="s">
         <v>70</v>
@@ -10532,7 +10874,7 @@
         <v>71</v>
       </c>
       <c r="AA98" s="17" t="s">
-        <v>232</v>
+        <v>542</v>
       </c>
       <c r="AB98" s="19" t="s">
         <v>72</v>
@@ -10582,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>236</v>
+        <v>471</v>
       </c>
       <c r="M99" s="17">
         <v>0</v>
@@ -10606,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="17" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
       <c r="Y99" s="18" t="s">
         <v>70</v>
@@ -10615,7 +10957,7 @@
         <v>71</v>
       </c>
       <c r="AA99" s="17" t="s">
-        <v>235</v>
+        <v>543</v>
       </c>
       <c r="AB99" s="19" t="s">
         <v>72</v>
@@ -10665,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>239</v>
+        <v>472</v>
       </c>
       <c r="M100" s="17">
         <v>0</v>
@@ -10689,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="17" t="s">
-        <v>240</v>
+        <v>508</v>
       </c>
       <c r="Y100" s="18" t="s">
         <v>70</v>
@@ -10698,7 +11040,7 @@
         <v>71</v>
       </c>
       <c r="AA100" s="17" t="s">
-        <v>238</v>
+        <v>544</v>
       </c>
       <c r="AB100" s="19" t="s">
         <v>72</v>
@@ -10748,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>242</v>
+        <v>473</v>
       </c>
       <c r="M101" s="17">
         <v>0</v>
@@ -10772,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="17" t="s">
-        <v>243</v>
+        <v>509</v>
       </c>
       <c r="Y101" s="18" t="s">
         <v>70</v>
@@ -10781,7 +11123,7 @@
         <v>71</v>
       </c>
       <c r="AA101" s="17" t="s">
-        <v>241</v>
+        <v>545</v>
       </c>
       <c r="AB101" s="19" t="s">
         <v>72</v>
@@ -10831,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="M102" s="17">
         <v>0</v>
@@ -10855,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="17" t="s">
-        <v>246</v>
+        <v>510</v>
       </c>
       <c r="Y102" s="18" t="s">
         <v>70</v>
@@ -10864,7 +11206,7 @@
         <v>71</v>
       </c>
       <c r="AA102" s="17" t="s">
-        <v>244</v>
+        <v>546</v>
       </c>
       <c r="AB102" s="19" t="s">
         <v>72</v>
@@ -10914,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="M103" s="17">
         <v>0</v>
@@ -10938,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="17" t="s">
-        <v>249</v>
+        <v>511</v>
       </c>
       <c r="Y103" s="18" t="s">
         <v>70</v>
@@ -10947,7 +11289,7 @@
         <v>71</v>
       </c>
       <c r="AA103" s="17" t="s">
-        <v>247</v>
+        <v>547</v>
       </c>
       <c r="AB103" s="19" t="s">
         <v>72</v>
@@ -10997,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="M104" s="17">
         <v>0</v>
@@ -11021,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="17" t="s">
-        <v>252</v>
+        <v>512</v>
       </c>
       <c r="Y104" s="18" t="s">
         <v>70</v>
@@ -11030,7 +11372,7 @@
         <v>71</v>
       </c>
       <c r="AA104" s="17" t="s">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="AB104" s="19" t="s">
         <v>72</v>
@@ -11080,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
       <c r="M105" s="17">
         <v>0</v>
@@ -11104,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="17" t="s">
-        <v>255</v>
+        <v>513</v>
       </c>
       <c r="Y105" s="18" t="s">
         <v>70</v>
@@ -11113,7 +11455,7 @@
         <v>71</v>
       </c>
       <c r="AA105" s="17" t="s">
-        <v>253</v>
+        <v>549</v>
       </c>
       <c r="AB105" s="19" t="s">
         <v>72</v>
@@ -11163,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>257</v>
+        <v>478</v>
       </c>
       <c r="M106" s="17">
         <v>0</v>
@@ -11187,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="17" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
       <c r="Y106" s="18" t="s">
         <v>70</v>
@@ -11196,7 +11538,7 @@
         <v>71</v>
       </c>
       <c r="AA106" s="17" t="s">
-        <v>256</v>
+        <v>550</v>
       </c>
       <c r="AB106" s="19" t="s">
         <v>72</v>
@@ -11246,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>260</v>
+        <v>479</v>
       </c>
       <c r="M107" s="17">
         <v>0</v>
@@ -11270,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="17" t="s">
-        <v>261</v>
+        <v>515</v>
       </c>
       <c r="Y107" s="18" t="s">
         <v>70</v>
@@ -11279,7 +11621,7 @@
         <v>71</v>
       </c>
       <c r="AA107" s="17" t="s">
-        <v>259</v>
+        <v>551</v>
       </c>
       <c r="AB107" s="19" t="s">
         <v>72</v>
@@ -11329,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="M108" s="17">
         <v>0</v>
@@ -11353,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="17" t="s">
-        <v>264</v>
+        <v>516</v>
       </c>
       <c r="Y108" s="18" t="s">
         <v>70</v>
@@ -11362,7 +11704,7 @@
         <v>71</v>
       </c>
       <c r="AA108" s="17" t="s">
-        <v>262</v>
+        <v>552</v>
       </c>
       <c r="AB108" s="19" t="s">
         <v>72</v>
@@ -11412,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="17" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="M109" s="17">
         <v>0</v>
@@ -11436,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="17" t="s">
-        <v>267</v>
+        <v>517</v>
       </c>
       <c r="Y109" s="18" t="s">
         <v>70</v>
@@ -11445,7 +11787,7 @@
         <v>71</v>
       </c>
       <c r="AA109" s="17" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
       <c r="AB109" s="19" t="s">
         <v>72</v>
@@ -11495,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="17" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="M110" s="17">
         <v>0</v>
@@ -11519,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="17" t="s">
-        <v>270</v>
+        <v>518</v>
       </c>
       <c r="Y110" s="18" t="s">
         <v>70</v>
@@ -11528,7 +11870,7 @@
         <v>71</v>
       </c>
       <c r="AA110" s="17" t="s">
-        <v>268</v>
+        <v>554</v>
       </c>
       <c r="AB110" s="19" t="s">
         <v>72</v>
@@ -11578,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="M111" s="17">
         <v>0</v>
@@ -11602,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="17" t="s">
-        <v>273</v>
+        <v>519</v>
       </c>
       <c r="Y111" s="18" t="s">
         <v>70</v>
@@ -11611,7 +11953,7 @@
         <v>71</v>
       </c>
       <c r="AA111" s="17" t="s">
-        <v>271</v>
+        <v>555</v>
       </c>
       <c r="AB111" s="19" t="s">
         <v>72</v>
@@ -11661,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="M112" s="17">
         <v>0</v>
@@ -11685,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="17" t="s">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="Y112" s="18" t="s">
         <v>70</v>
@@ -11694,7 +12036,7 @@
         <v>71</v>
       </c>
       <c r="AA112" s="17" t="s">
-        <v>274</v>
+        <v>556</v>
       </c>
       <c r="AB112" s="19" t="s">
         <v>72</v>
@@ -11744,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="M113" s="17">
         <v>0</v>
@@ -11768,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="17" t="s">
-        <v>279</v>
+        <v>521</v>
       </c>
       <c r="Y113" s="18" t="s">
         <v>70</v>
@@ -11777,7 +12119,7 @@
         <v>71</v>
       </c>
       <c r="AA113" s="17" t="s">
-        <v>277</v>
+        <v>557</v>
       </c>
       <c r="AB113" s="19" t="s">
         <v>72</v>
@@ -11827,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="17" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="M114" s="22">
         <v>0</v>
@@ -11851,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="22" t="s">
-        <v>279</v>
+        <v>522</v>
       </c>
       <c r="Y114" s="23" t="s">
         <v>70</v>
@@ -11860,7 +12202,7 @@
         <v>71</v>
       </c>
       <c r="AA114" s="22" t="s">
-        <v>277</v>
+        <v>558</v>
       </c>
       <c r="AB114" s="24" t="s">
         <v>72</v>
@@ -11880,7 +12222,7 @@
     </row>
     <row r="115" spans="1:32" s="17" customFormat="1">
       <c r="A115" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C115" s="17">
         <v>0</v>
@@ -11910,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="M115" s="17">
         <v>0</v>
@@ -11934,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="17" t="s">
-        <v>276</v>
+        <v>523</v>
       </c>
       <c r="Y115" s="18" t="s">
         <v>70</v>
@@ -11943,7 +12285,7 @@
         <v>71</v>
       </c>
       <c r="AA115" s="17" t="s">
-        <v>274</v>
+        <v>559</v>
       </c>
       <c r="AB115" s="19" t="s">
         <v>72</v>
@@ -11963,7 +12305,7 @@
     </row>
     <row r="116" spans="1:32" s="17" customFormat="1">
       <c r="A116" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C116" s="17">
         <v>0</v>
@@ -11993,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="M116" s="17">
         <v>0</v>
@@ -12017,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="17" t="s">
-        <v>279</v>
+        <v>524</v>
       </c>
       <c r="Y116" s="18" t="s">
         <v>70</v>
@@ -12026,7 +12368,7 @@
         <v>71</v>
       </c>
       <c r="AA116" s="17" t="s">
-        <v>277</v>
+        <v>560</v>
       </c>
       <c r="AB116" s="19" t="s">
         <v>72</v>
@@ -12046,7 +12388,7 @@
     </row>
     <row r="117" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
       <c r="A117" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C117" s="22">
         <v>0</v>
@@ -12076,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="17" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="M117" s="22">
         <v>0</v>
@@ -12100,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="22" t="s">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="Y117" s="23" t="s">
         <v>70</v>
@@ -12109,7 +12451,7 @@
         <v>71</v>
       </c>
       <c r="AA117" s="22" t="s">
-        <v>277</v>
+        <v>561</v>
       </c>
       <c r="AB117" s="24" t="s">
         <v>72</v>

--- a/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="572">
   <si>
     <t>Id</t>
   </si>
@@ -1745,6 +1745,9 @@
   </si>
   <si>
     <t>NameID_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -2485,11 +2488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF117"/>
+  <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X73" sqref="X73:X81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3209,280 +3212,295 @@
     </row>
     <row r="8" spans="1:32" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="3" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="4" customFormat="1" ht="40.5">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="4" customFormat="1" ht="40.5">
+      <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="V10" t="s">
-        <v>68</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3512,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3527,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V11" t="s">
         <v>68</v>
@@ -3536,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>70</v>
@@ -3545,7 +3563,7 @@
         <v>71</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AB11" s="13" t="s">
         <v>72</v>
@@ -3565,7 +3583,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3610,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s">
         <v>68</v>
@@ -3619,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>70</v>
@@ -3628,7 +3646,7 @@
         <v>71</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB12" s="13" t="s">
         <v>72</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3693,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s">
         <v>68</v>
@@ -3702,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>70</v>
@@ -3711,7 +3729,7 @@
         <v>71</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AB13" s="13" t="s">
         <v>72</v>
@@ -3731,7 +3749,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3776,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
         <v>68</v>
@@ -3785,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>70</v>
@@ -3794,7 +3812,7 @@
         <v>71</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="13" t="s">
         <v>72</v>
@@ -3813,8 +3831,8 @@
       </c>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>86</v>
+      <c r="A15" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3844,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3859,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
         <v>68</v>
@@ -3868,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>70</v>
@@ -3876,8 +3894,8 @@
       <c r="Z15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AA15" t="s">
-        <v>86</v>
+      <c r="AA15" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>72</v>
@@ -3897,7 +3915,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3927,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3942,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
         <v>68</v>
@@ -3951,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>70</v>
@@ -3960,7 +3978,7 @@
         <v>71</v>
       </c>
       <c r="AA16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB16" s="13" t="s">
         <v>72</v>
@@ -3980,7 +3998,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4010,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4025,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V17" t="s">
         <v>68</v>
@@ -4034,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>70</v>
@@ -4043,7 +4061,7 @@
         <v>71</v>
       </c>
       <c r="AA17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>72</v>
@@ -4063,7 +4081,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4093,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -4108,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V18" t="s">
         <v>68</v>
@@ -4117,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>70</v>
@@ -4126,7 +4144,7 @@
         <v>71</v>
       </c>
       <c r="AA18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>72</v>
@@ -4146,7 +4164,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4176,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -4191,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V19" t="s">
         <v>68</v>
@@ -4200,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>70</v>
@@ -4209,7 +4227,7 @@
         <v>71</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>72</v>
@@ -4229,7 +4247,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4259,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -4274,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="V20" t="s">
         <v>68</v>
@@ -4283,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>70</v>
@@ -4292,7 +4310,7 @@
         <v>71</v>
       </c>
       <c r="AA20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AB20" s="13" t="s">
         <v>72</v>
@@ -4312,7 +4330,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4342,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4357,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V21" t="s">
         <v>68</v>
@@ -4366,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>70</v>
@@ -4375,7 +4393,7 @@
         <v>71</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB21" s="13" t="s">
         <v>72</v>
@@ -4395,7 +4413,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4425,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4440,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V22" t="s">
         <v>68</v>
@@ -4449,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>70</v>
@@ -4458,7 +4476,7 @@
         <v>71</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AB22" s="13" t="s">
         <v>72</v>
@@ -4478,7 +4496,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4508,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4523,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="V23" t="s">
         <v>68</v>
@@ -4532,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>70</v>
@@ -4541,7 +4559,7 @@
         <v>71</v>
       </c>
       <c r="AA23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AB23" s="13" t="s">
         <v>72</v>
@@ -4561,7 +4579,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4591,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4606,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="V24" t="s">
         <v>68</v>
@@ -4615,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>70</v>
@@ -4624,7 +4642,7 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB24" s="13" t="s">
         <v>72</v>
@@ -4644,7 +4662,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4674,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4689,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="V25" t="s">
         <v>68</v>
@@ -4698,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>70</v>
@@ -4707,7 +4725,7 @@
         <v>71</v>
       </c>
       <c r="AA25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB25" s="13" t="s">
         <v>72</v>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4757,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -4772,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="V26" t="s">
         <v>68</v>
@@ -4781,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>70</v>
@@ -4790,7 +4808,7 @@
         <v>71</v>
       </c>
       <c r="AA26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AB26" s="13" t="s">
         <v>72</v>
@@ -4810,7 +4828,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4840,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -4855,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V27" t="s">
         <v>68</v>
@@ -4864,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>70</v>
@@ -4873,7 +4891,7 @@
         <v>71</v>
       </c>
       <c r="AA27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AB27" s="13" t="s">
         <v>72</v>
@@ -4893,7 +4911,7 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4923,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -4938,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V28" t="s">
         <v>68</v>
@@ -4947,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>70</v>
@@ -4956,7 +4974,7 @@
         <v>71</v>
       </c>
       <c r="AA28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AB28" s="13" t="s">
         <v>72</v>
@@ -4976,7 +4994,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5006,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -5021,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V29" t="s">
         <v>68</v>
@@ -5030,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>70</v>
@@ -5039,7 +5057,7 @@
         <v>71</v>
       </c>
       <c r="AA29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AB29" s="13" t="s">
         <v>72</v>
@@ -5059,7 +5077,7 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5089,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5104,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V30" t="s">
         <v>68</v>
@@ -5113,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>70</v>
@@ -5122,7 +5140,7 @@
         <v>71</v>
       </c>
       <c r="AA30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AB30" s="13" t="s">
         <v>72</v>
@@ -5142,7 +5160,7 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5172,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5187,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V31" t="s">
         <v>68</v>
@@ -5196,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>70</v>
@@ -5205,7 +5223,7 @@
         <v>71</v>
       </c>
       <c r="AA31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB31" s="13" t="s">
         <v>72</v>
@@ -5225,7 +5243,7 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5255,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5270,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V32" t="s">
         <v>68</v>
@@ -5279,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>70</v>
@@ -5288,7 +5306,7 @@
         <v>71</v>
       </c>
       <c r="AA32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AB32" s="13" t="s">
         <v>72</v>
@@ -5308,7 +5326,7 @@
     </row>
     <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5338,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5353,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V33" t="s">
         <v>68</v>
@@ -5362,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>70</v>
@@ -5371,7 +5389,7 @@
         <v>71</v>
       </c>
       <c r="AA33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AB33" s="13" t="s">
         <v>72</v>
@@ -5391,7 +5409,7 @@
     </row>
     <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5421,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5436,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V34" t="s">
         <v>68</v>
@@ -5445,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>70</v>
@@ -5454,7 +5472,7 @@
         <v>71</v>
       </c>
       <c r="AA34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AB34" s="13" t="s">
         <v>72</v>
@@ -5474,7 +5492,7 @@
     </row>
     <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5504,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5519,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V35" t="s">
         <v>68</v>
@@ -5528,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y35" s="9" t="s">
         <v>70</v>
@@ -5537,7 +5555,7 @@
         <v>71</v>
       </c>
       <c r="AA35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB35" s="13" t="s">
         <v>72</v>
@@ -5557,7 +5575,7 @@
     </row>
     <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5587,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -5602,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="V36" t="s">
         <v>68</v>
@@ -5611,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>70</v>
@@ -5620,7 +5638,7 @@
         <v>71</v>
       </c>
       <c r="AA36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AB36" s="13" t="s">
         <v>72</v>
@@ -5640,7 +5658,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5670,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5685,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="V37" t="s">
         <v>68</v>
@@ -5694,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>70</v>
@@ -5703,7 +5721,7 @@
         <v>71</v>
       </c>
       <c r="AA37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AB37" s="13" t="s">
         <v>72</v>
@@ -5723,7 +5741,7 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5753,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -5768,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V38" t="s">
         <v>68</v>
@@ -5777,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>70</v>
@@ -5786,7 +5804,7 @@
         <v>71</v>
       </c>
       <c r="AA38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AB38" s="13" t="s">
         <v>72</v>
@@ -5806,7 +5824,7 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5836,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5851,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V39" t="s">
         <v>68</v>
@@ -5860,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y39" s="9" t="s">
         <v>70</v>
@@ -5869,7 +5887,7 @@
         <v>71</v>
       </c>
       <c r="AA39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AB39" s="13" t="s">
         <v>72</v>
@@ -5889,7 +5907,7 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5919,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5934,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V40" t="s">
         <v>68</v>
@@ -5943,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y40" s="9" t="s">
         <v>70</v>
@@ -5952,7 +5970,7 @@
         <v>71</v>
       </c>
       <c r="AA40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AB40" s="13" t="s">
         <v>72</v>
@@ -5972,7 +5990,7 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6002,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6017,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V41" t="s">
         <v>68</v>
@@ -6026,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y41" s="9" t="s">
         <v>70</v>
@@ -6035,7 +6053,7 @@
         <v>71</v>
       </c>
       <c r="AA41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AB41" s="13" t="s">
         <v>72</v>
@@ -6055,7 +6073,7 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6085,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6100,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="V42" t="s">
         <v>68</v>
@@ -6109,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>70</v>
@@ -6118,7 +6136,7 @@
         <v>71</v>
       </c>
       <c r="AA42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AB42" s="13" t="s">
         <v>72</v>
@@ -6138,7 +6156,7 @@
     </row>
     <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6168,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6183,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="V43" t="s">
         <v>68</v>
@@ -6192,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>70</v>
@@ -6201,7 +6219,7 @@
         <v>71</v>
       </c>
       <c r="AA43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AB43" s="13" t="s">
         <v>72</v>
@@ -6221,7 +6239,7 @@
     </row>
     <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6251,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6266,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V44" t="s">
         <v>68</v>
@@ -6275,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>70</v>
@@ -6284,7 +6302,7 @@
         <v>71</v>
       </c>
       <c r="AA44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AB44" s="13" t="s">
         <v>72</v>
@@ -6304,7 +6322,7 @@
     </row>
     <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6334,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6349,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="V45" t="s">
         <v>68</v>
@@ -6358,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>70</v>
@@ -6367,7 +6385,7 @@
         <v>71</v>
       </c>
       <c r="AA45" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AB45" s="13" t="s">
         <v>72</v>
@@ -6387,7 +6405,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6417,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6432,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V46" t="s">
         <v>68</v>
@@ -6441,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>70</v>
@@ -6450,7 +6468,7 @@
         <v>71</v>
       </c>
       <c r="AA46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AB46" s="13" t="s">
         <v>72</v>
@@ -6470,7 +6488,7 @@
     </row>
     <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6500,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6524,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>70</v>
@@ -6533,7 +6551,7 @@
         <v>71</v>
       </c>
       <c r="AA47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AB47" s="13" t="s">
         <v>72</v>
@@ -6553,7 +6571,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6583,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6607,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>70</v>
@@ -6616,7 +6634,7 @@
         <v>71</v>
       </c>
       <c r="AA48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AB48" s="13" t="s">
         <v>72</v>
@@ -6636,7 +6654,7 @@
     </row>
     <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6666,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6690,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>70</v>
@@ -6699,7 +6717,7 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AB49" s="13" t="s">
         <v>72</v>
@@ -6719,7 +6737,7 @@
     </row>
     <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6749,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -6773,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>70</v>
@@ -6782,7 +6800,7 @@
         <v>71</v>
       </c>
       <c r="AA50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AB50" s="13" t="s">
         <v>72</v>
@@ -6802,7 +6820,7 @@
     </row>
     <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6832,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -6856,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>70</v>
@@ -6865,7 +6883,7 @@
         <v>71</v>
       </c>
       <c r="AA51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AB51" s="13" t="s">
         <v>72</v>
@@ -6885,7 +6903,7 @@
     </row>
     <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6915,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -6939,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>70</v>
@@ -6948,7 +6966,7 @@
         <v>71</v>
       </c>
       <c r="AA52" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AB52" s="13" t="s">
         <v>72</v>
@@ -6968,7 +6986,7 @@
     </row>
     <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6998,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -7022,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>70</v>
@@ -7031,7 +7049,7 @@
         <v>71</v>
       </c>
       <c r="AA53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AB53" s="13" t="s">
         <v>72</v>
@@ -7051,7 +7069,7 @@
     </row>
     <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -7081,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -7105,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>70</v>
@@ -7114,7 +7132,7 @@
         <v>71</v>
       </c>
       <c r="AA54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB54" s="13" t="s">
         <v>72</v>
@@ -7134,7 +7152,7 @@
     </row>
     <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -7164,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -7188,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y55" s="9" t="s">
         <v>70</v>
@@ -7197,7 +7215,7 @@
         <v>71</v>
       </c>
       <c r="AA55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB55" s="13" t="s">
         <v>72</v>
@@ -7217,7 +7235,7 @@
     </row>
     <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -7247,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -7271,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y56" s="9" t="s">
         <v>70</v>
@@ -7280,7 +7298,7 @@
         <v>71</v>
       </c>
       <c r="AA56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AB56" s="13" t="s">
         <v>72</v>
@@ -7300,7 +7318,7 @@
     </row>
     <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -7330,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -7354,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y57" s="9" t="s">
         <v>70</v>
@@ -7363,7 +7381,7 @@
         <v>71</v>
       </c>
       <c r="AA57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AB57" s="13" t="s">
         <v>72</v>
@@ -7383,7 +7401,7 @@
     </row>
     <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -7413,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -7437,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y58" s="9" t="s">
         <v>70</v>
@@ -7446,7 +7464,7 @@
         <v>71</v>
       </c>
       <c r="AA58" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AB58" s="13" t="s">
         <v>72</v>
@@ -7466,7 +7484,7 @@
     </row>
     <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7496,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -7520,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y59" s="9" t="s">
         <v>70</v>
@@ -7529,7 +7547,7 @@
         <v>71</v>
       </c>
       <c r="AA59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AB59" s="13" t="s">
         <v>72</v>
@@ -7549,7 +7567,7 @@
     </row>
     <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7579,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7603,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y60" s="9" t="s">
         <v>70</v>
@@ -7612,7 +7630,7 @@
         <v>71</v>
       </c>
       <c r="AA60" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB60" s="13" t="s">
         <v>72</v>
@@ -7632,7 +7650,7 @@
     </row>
     <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7662,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -7686,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y61" s="9" t="s">
         <v>70</v>
@@ -7695,7 +7713,7 @@
         <v>71</v>
       </c>
       <c r="AA61" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AB61" s="13" t="s">
         <v>72</v>
@@ -7715,7 +7733,7 @@
     </row>
     <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7745,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -7769,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Y62" s="9" t="s">
         <v>70</v>
@@ -7778,7 +7796,7 @@
         <v>71</v>
       </c>
       <c r="AA62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AB62" s="13" t="s">
         <v>72</v>
@@ -7798,7 +7816,7 @@
     </row>
     <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7828,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -7852,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Y63" s="9" t="s">
         <v>70</v>
@@ -7861,7 +7879,7 @@
         <v>71</v>
       </c>
       <c r="AA63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AB63" s="13" t="s">
         <v>72</v>
@@ -7881,7 +7899,7 @@
     </row>
     <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7911,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -7935,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y64" s="9" t="s">
         <v>70</v>
@@ -7944,7 +7962,7 @@
         <v>71</v>
       </c>
       <c r="AA64" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AB64" s="13" t="s">
         <v>72</v>
@@ -7964,7 +7982,7 @@
     </row>
     <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7994,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -8018,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y65" s="9" t="s">
         <v>70</v>
@@ -8027,7 +8045,7 @@
         <v>71</v>
       </c>
       <c r="AA65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB65" s="13" t="s">
         <v>72</v>
@@ -8047,7 +8065,7 @@
     </row>
     <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -8077,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8101,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Y66" s="9" t="s">
         <v>70</v>
@@ -8110,7 +8128,7 @@
         <v>71</v>
       </c>
       <c r="AA66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AB66" s="13" t="s">
         <v>72</v>
@@ -8130,7 +8148,7 @@
     </row>
     <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -8160,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -8184,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y67" s="9" t="s">
         <v>70</v>
@@ -8193,7 +8211,7 @@
         <v>71</v>
       </c>
       <c r="AA67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AB67" s="13" t="s">
         <v>72</v>
@@ -8213,7 +8231,7 @@
     </row>
     <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -8243,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -8267,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y68" s="9" t="s">
         <v>70</v>
@@ -8276,7 +8294,7 @@
         <v>71</v>
       </c>
       <c r="AA68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AB68" s="13" t="s">
         <v>72</v>
@@ -8296,7 +8314,7 @@
     </row>
     <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8326,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -8350,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Y69" s="9" t="s">
         <v>70</v>
@@ -8359,7 +8377,7 @@
         <v>71</v>
       </c>
       <c r="AA69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AB69" s="13" t="s">
         <v>72</v>
@@ -8379,7 +8397,7 @@
     </row>
     <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8409,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8433,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Y70" s="9" t="s">
         <v>70</v>
@@ -8442,7 +8460,7 @@
         <v>71</v>
       </c>
       <c r="AA70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AB70" s="13" t="s">
         <v>72</v>
@@ -8462,7 +8480,7 @@
     </row>
     <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8492,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8516,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Y71" s="9" t="s">
         <v>70</v>
@@ -8525,7 +8543,7 @@
         <v>71</v>
       </c>
       <c r="AA71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AB71" s="13" t="s">
         <v>72</v>
@@ -8543,9 +8561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="13.9" thickBot="1">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8575,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -8599,16 +8617,16 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y72" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Z72" s="16" t="s">
+      <c r="Z72" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AA72" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AB72" s="13" t="s">
         <v>72</v>
@@ -8626,199 +8644,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="32" customFormat="1">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:32" ht="13.9" thickBot="1">
+      <c r="A73" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>290</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>20</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="V73" t="s">
+        <v>68</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y73" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z73" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB73" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="32" customFormat="1">
+      <c r="A74" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C73" s="32">
-        <v>0</v>
-      </c>
-      <c r="D73" s="32">
-        <v>0</v>
-      </c>
-      <c r="E73" s="32">
-        <v>0</v>
-      </c>
-      <c r="F73" s="32">
-        <v>0</v>
-      </c>
-      <c r="G73" s="32">
-        <v>0</v>
-      </c>
-      <c r="H73" s="32">
-        <v>0</v>
-      </c>
-      <c r="I73" s="32">
-        <v>0</v>
-      </c>
-      <c r="J73" s="32">
-        <v>0</v>
-      </c>
-      <c r="K73" s="32">
-        <v>0</v>
-      </c>
-      <c r="L73" s="32" t="s">
+      <c r="C74" s="32">
+        <v>0</v>
+      </c>
+      <c r="D74" s="32">
+        <v>0</v>
+      </c>
+      <c r="E74" s="32">
+        <v>0</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+      <c r="H74" s="32">
+        <v>0</v>
+      </c>
+      <c r="I74" s="32">
+        <v>0</v>
+      </c>
+      <c r="J74" s="32">
+        <v>0</v>
+      </c>
+      <c r="K74" s="32">
+        <v>0</v>
+      </c>
+      <c r="L74" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="M73" s="32">
-        <v>0</v>
-      </c>
-      <c r="N73" s="32">
+      <c r="M74" s="32">
+        <v>0</v>
+      </c>
+      <c r="N74" s="32">
         <v>20</v>
       </c>
-      <c r="O73" s="32" t="s">
+      <c r="O74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P73" s="32" t="s">
+      <c r="P74" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="Q73" s="32" t="s">
+      <c r="Q74" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="R73" s="32" t="s">
+      <c r="R74" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="S73" s="32" t="s">
+      <c r="S74" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="T73" s="32">
+      <c r="T74" s="32">
         <v>2</v>
       </c>
-      <c r="U73" s="33" t="s">
+      <c r="U74" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="V73" s="32" t="s">
+      <c r="V74" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="W73" s="32">
-        <v>0</v>
-      </c>
-      <c r="X73" s="32" t="s">
+      <c r="W74" s="32">
+        <v>0</v>
+      </c>
+      <c r="X74" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="Y73" s="33" t="s">
+      <c r="Y74" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Z73" s="34" t="s">
+      <c r="Z74" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="AA73" s="35" t="s">
+      <c r="AA74" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="AB73" s="32" t="s">
+      <c r="AB74" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="AC73" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" s="28" customFormat="1">
-      <c r="A74" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="28">
-        <v>0</v>
-      </c>
-      <c r="D74" s="28">
-        <v>0</v>
-      </c>
-      <c r="E74" s="28">
-        <v>0</v>
-      </c>
-      <c r="F74" s="28">
-        <v>0</v>
-      </c>
-      <c r="G74" s="28">
-        <v>0</v>
-      </c>
-      <c r="H74" s="28">
-        <v>0</v>
-      </c>
-      <c r="I74" s="28">
-        <v>0</v>
-      </c>
-      <c r="J74" s="28">
-        <v>0</v>
-      </c>
-      <c r="K74" s="28">
-        <v>0</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M74" s="28">
-        <v>1</v>
-      </c>
-      <c r="N74" s="28">
-        <v>20</v>
-      </c>
-      <c r="O74" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P74" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q74" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="R74" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="S74" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="T74" s="28">
-        <v>2</v>
-      </c>
-      <c r="U74" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="V74" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W74" s="28">
-        <v>0</v>
-      </c>
-      <c r="X74" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y74" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z74" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA74" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB74" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC74" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="28">
+      <c r="AC74" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:32" s="28" customFormat="1">
       <c r="A75" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C75" s="28">
         <v>0</v>
@@ -8848,10 +8854,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="M75" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="28">
         <v>20</v>
@@ -8860,16 +8866,16 @@
         <v>66</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q75" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R75" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S75" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T75" s="28">
         <v>2</v>
@@ -8884,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Y75" s="29" t="s">
         <v>70</v>
@@ -8893,10 +8899,10 @@
         <v>366</v>
       </c>
       <c r="AA75" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB75" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AC75" s="28">
         <v>0</v>
@@ -8913,7 +8919,7 @@
     </row>
     <row r="76" spans="1:32" s="28" customFormat="1">
       <c r="A76" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C76" s="28">
         <v>0</v>
@@ -8943,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="M76" s="28">
         <v>0</v>
@@ -8955,16 +8961,16 @@
         <v>66</v>
       </c>
       <c r="P76" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R76" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S76" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T76" s="28">
         <v>2</v>
@@ -8979,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Y76" s="29" t="s">
         <v>70</v>
@@ -8988,10 +8994,10 @@
         <v>366</v>
       </c>
       <c r="AA76" s="14" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AB76" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AC76" s="28">
         <v>0</v>
@@ -9008,7 +9014,7 @@
     </row>
     <row r="77" spans="1:32" s="28" customFormat="1">
       <c r="A77" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C77" s="28">
         <v>0</v>
@@ -9038,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>73</v>
+        <v>377</v>
       </c>
       <c r="M77" s="28">
         <v>0</v>
@@ -9050,16 +9056,16 @@
         <v>66</v>
       </c>
       <c r="P77" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q77" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R77" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S77" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T77" s="28">
         <v>2</v>
@@ -9074,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Y77" s="29" t="s">
         <v>70</v>
@@ -9083,10 +9089,10 @@
         <v>366</v>
       </c>
       <c r="AA77" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB77" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC77" s="28">
         <v>0</v>
@@ -9103,7 +9109,7 @@
     </row>
     <row r="78" spans="1:32" s="28" customFormat="1">
       <c r="A78" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C78" s="28">
         <v>0</v>
@@ -9145,16 +9151,16 @@
         <v>66</v>
       </c>
       <c r="P78" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R78" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T78" s="28">
         <v>2</v>
@@ -9169,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Y78" s="29" t="s">
         <v>70</v>
@@ -9178,10 +9184,10 @@
         <v>366</v>
       </c>
       <c r="AA78" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB78" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AC78" s="28">
         <v>0</v>
@@ -9198,7 +9204,7 @@
     </row>
     <row r="79" spans="1:32" s="28" customFormat="1">
       <c r="A79" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C79" s="28">
         <v>0</v>
@@ -9240,16 +9246,16 @@
         <v>66</v>
       </c>
       <c r="P79" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q79" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R79" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S79" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T79" s="28">
         <v>2</v>
@@ -9264,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Y79" s="29" t="s">
         <v>70</v>
@@ -9273,10 +9279,10 @@
         <v>366</v>
       </c>
       <c r="AA79" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB79" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AC79" s="28">
         <v>0</v>
@@ -9293,7 +9299,7 @@
     </row>
     <row r="80" spans="1:32" s="28" customFormat="1">
       <c r="A80" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C80" s="28">
         <v>0</v>
@@ -9335,16 +9341,16 @@
         <v>66</v>
       </c>
       <c r="P80" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R80" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S80" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T80" s="28">
         <v>2</v>
@@ -9359,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y80" s="29" t="s">
         <v>70</v>
@@ -9368,288 +9374,300 @@
         <v>366</v>
       </c>
       <c r="AA80" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB80" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" s="28" customFormat="1">
+      <c r="A81" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" s="28">
+        <v>0</v>
+      </c>
+      <c r="D81" s="28">
+        <v>0</v>
+      </c>
+      <c r="E81" s="28">
+        <v>0</v>
+      </c>
+      <c r="F81" s="28">
+        <v>0</v>
+      </c>
+      <c r="G81" s="28">
+        <v>0</v>
+      </c>
+      <c r="H81" s="28">
+        <v>0</v>
+      </c>
+      <c r="I81" s="28">
+        <v>0</v>
+      </c>
+      <c r="J81" s="28">
+        <v>0</v>
+      </c>
+      <c r="K81" s="28">
+        <v>0</v>
+      </c>
+      <c r="L81" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M81" s="28">
+        <v>0</v>
+      </c>
+      <c r="N81" s="28">
+        <v>20</v>
+      </c>
+      <c r="O81" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q81" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="R81" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="S81" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="T81" s="28">
+        <v>2</v>
+      </c>
+      <c r="U81" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="V81" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="W81" s="28">
+        <v>0</v>
+      </c>
+      <c r="X81" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y81" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z81" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA81" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="AB80" s="28" t="s">
+      <c r="AB81" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="AC80" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" s="38" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A81" s="37" t="s">
+      <c r="AC81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" s="38" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A82" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="38">
-        <v>0</v>
-      </c>
-      <c r="D81" s="38">
-        <v>0</v>
-      </c>
-      <c r="E81" s="38">
-        <v>0</v>
-      </c>
-      <c r="F81" s="38">
-        <v>0</v>
-      </c>
-      <c r="G81" s="38">
-        <v>0</v>
-      </c>
-      <c r="H81" s="38">
-        <v>0</v>
-      </c>
-      <c r="I81" s="38">
-        <v>0</v>
-      </c>
-      <c r="J81" s="38">
-        <v>0</v>
-      </c>
-      <c r="K81" s="38">
-        <v>0</v>
-      </c>
-      <c r="L81" s="38" t="s">
+      <c r="C82" s="38">
+        <v>0</v>
+      </c>
+      <c r="D82" s="38">
+        <v>0</v>
+      </c>
+      <c r="E82" s="38">
+        <v>0</v>
+      </c>
+      <c r="F82" s="38">
+        <v>0</v>
+      </c>
+      <c r="G82" s="38">
+        <v>0</v>
+      </c>
+      <c r="H82" s="38">
+        <v>0</v>
+      </c>
+      <c r="I82" s="38">
+        <v>0</v>
+      </c>
+      <c r="J82" s="38">
+        <v>0</v>
+      </c>
+      <c r="K82" s="38">
+        <v>0</v>
+      </c>
+      <c r="L82" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="M81" s="38">
-        <v>0</v>
-      </c>
-      <c r="N81" s="38">
+      <c r="M82" s="38">
+        <v>0</v>
+      </c>
+      <c r="N82" s="38">
         <v>20</v>
       </c>
-      <c r="O81" s="38" t="s">
+      <c r="O82" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P81" s="38" t="s">
+      <c r="P82" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="Q81" s="38" t="s">
+      <c r="Q82" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="R81" s="38" t="s">
+      <c r="R82" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="S81" s="38" t="s">
+      <c r="S82" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="T81" s="38">
+      <c r="T82" s="38">
         <v>2</v>
       </c>
-      <c r="U81" s="39" t="s">
+      <c r="U82" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="V81" s="38" t="s">
+      <c r="V82" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="W81" s="38">
-        <v>0</v>
-      </c>
-      <c r="X81" s="38" t="s">
+      <c r="W82" s="38">
+        <v>0</v>
+      </c>
+      <c r="X82" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="Y81" s="39" t="s">
+      <c r="Y82" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="Z81" s="40" t="s">
+      <c r="Z82" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AA81" s="41" t="s">
+      <c r="AA82" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AB81" s="38" t="s">
+      <c r="AB82" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="AC81" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" s="26" customFormat="1">
-      <c r="A82" s="25" t="s">
+      <c r="AC82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" s="26" customFormat="1">
+      <c r="A83" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="26">
-        <v>0</v>
-      </c>
-      <c r="D82" s="26">
-        <v>0</v>
-      </c>
-      <c r="E82" s="26">
-        <v>0</v>
-      </c>
-      <c r="F82" s="26">
-        <v>0</v>
-      </c>
-      <c r="G82" s="26">
-        <v>0</v>
-      </c>
-      <c r="H82" s="26">
-        <v>0</v>
-      </c>
-      <c r="I82" s="26">
-        <v>0</v>
-      </c>
-      <c r="J82" s="26">
-        <v>0</v>
-      </c>
-      <c r="K82" s="26">
-        <v>0</v>
-      </c>
-      <c r="L82" s="26" t="s">
+      <c r="C83" s="26">
+        <v>0</v>
+      </c>
+      <c r="D83" s="26">
+        <v>0</v>
+      </c>
+      <c r="E83" s="26">
+        <v>0</v>
+      </c>
+      <c r="F83" s="26">
+        <v>0</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>0</v>
+      </c>
+      <c r="I83" s="26">
+        <v>0</v>
+      </c>
+      <c r="J83" s="26">
+        <v>0</v>
+      </c>
+      <c r="K83" s="26">
+        <v>0</v>
+      </c>
+      <c r="L83" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="M82" s="26">
-        <v>0</v>
-      </c>
-      <c r="N82" s="26">
+      <c r="M83" s="26">
+        <v>0</v>
+      </c>
+      <c r="N83" s="26">
         <v>20</v>
       </c>
-      <c r="O82" s="26" t="s">
+      <c r="O83" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="T82" s="26">
+      <c r="T83" s="26">
         <v>2</v>
       </c>
-      <c r="U82" s="15" t="s">
+      <c r="U83" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="V82" s="26" t="s">
+      <c r="V83" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W82" s="26">
-        <v>0</v>
-      </c>
-      <c r="X82" s="26" t="s">
+      <c r="W83" s="26">
+        <v>0</v>
+      </c>
+      <c r="X83" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="Y82" s="15" t="s">
+      <c r="Y83" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Z82" s="15" t="s">
+      <c r="Z83" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AA82" s="26" t="s">
+      <c r="AA83" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="AB82" s="27" t="s">
+      <c r="AB83" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AC82" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" s="17" customFormat="1">
-      <c r="A83" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C83" s="17">
-        <v>0</v>
-      </c>
-      <c r="D83" s="17">
-        <v>0</v>
-      </c>
-      <c r="E83" s="17">
-        <v>0</v>
-      </c>
-      <c r="F83" s="17">
-        <v>0</v>
-      </c>
-      <c r="G83" s="17">
-        <v>0</v>
-      </c>
-      <c r="H83" s="17">
-        <v>0</v>
-      </c>
-      <c r="I83" s="17">
-        <v>0</v>
-      </c>
-      <c r="J83" s="17">
-        <v>0</v>
-      </c>
-      <c r="K83" s="17">
-        <v>0</v>
-      </c>
-      <c r="L83" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="M83" s="17">
-        <v>0</v>
-      </c>
-      <c r="N83" s="17">
-        <v>20</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="T83" s="17">
-        <v>2</v>
-      </c>
-      <c r="U83" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="V83" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="W83" s="17">
-        <v>0</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y83" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z83" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA83" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB83" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC83" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="17">
+      <c r="AC83" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:32" s="17" customFormat="1">
       <c r="A84" s="20" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C84" s="17">
         <v>0</v>
@@ -9679,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M84" s="17">
         <v>0</v>
@@ -9703,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y84" s="18" t="s">
         <v>70</v>
@@ -9712,7 +9730,7 @@
         <v>71</v>
       </c>
       <c r="AA84" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB84" s="19" t="s">
         <v>72</v>
@@ -9732,7 +9750,7 @@
     </row>
     <row r="85" spans="1:32" s="17" customFormat="1">
       <c r="A85" s="20" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="C85" s="17">
         <v>0</v>
@@ -9761,8 +9779,8 @@
       <c r="K85" s="17">
         <v>0</v>
       </c>
-      <c r="L85" s="17" t="s">
-        <v>457</v>
+      <c r="L85" s="26" t="s">
+        <v>456</v>
       </c>
       <c r="M85" s="17">
         <v>0</v>
@@ -9786,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y85" s="18" t="s">
         <v>70</v>
@@ -9795,7 +9813,7 @@
         <v>71</v>
       </c>
       <c r="AA85" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB85" s="19" t="s">
         <v>72</v>
@@ -9815,7 +9833,7 @@
     </row>
     <row r="86" spans="1:32" s="17" customFormat="1">
       <c r="A86" s="20" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C86" s="17">
         <v>0</v>
@@ -9845,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M86" s="17">
         <v>0</v>
@@ -9869,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y86" s="18" t="s">
         <v>70</v>
@@ -9878,7 +9896,7 @@
         <v>71</v>
       </c>
       <c r="AA86" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB86" s="19" t="s">
         <v>72</v>
@@ -9898,7 +9916,7 @@
     </row>
     <row r="87" spans="1:32" s="17" customFormat="1">
       <c r="A87" s="20" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C87" s="17">
         <v>0</v>
@@ -9928,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M87" s="17">
         <v>0</v>
@@ -9952,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y87" s="18" t="s">
         <v>70</v>
@@ -9961,7 +9979,7 @@
         <v>71</v>
       </c>
       <c r="AA87" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB87" s="19" t="s">
         <v>72</v>
@@ -9981,7 +9999,7 @@
     </row>
     <row r="88" spans="1:32" s="17" customFormat="1">
       <c r="A88" s="20" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="C88" s="17">
         <v>0</v>
@@ -10011,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M88" s="17">
         <v>0</v>
@@ -10035,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y88" s="18" t="s">
         <v>70</v>
@@ -10044,7 +10062,7 @@
         <v>71</v>
       </c>
       <c r="AA88" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB88" s="19" t="s">
         <v>72</v>
@@ -10064,7 +10082,7 @@
     </row>
     <row r="89" spans="1:32" s="17" customFormat="1">
       <c r="A89" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C89" s="17">
         <v>0</v>
@@ -10094,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M89" s="17">
         <v>0</v>
@@ -10118,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y89" s="18" t="s">
         <v>70</v>
@@ -10127,7 +10145,7 @@
         <v>71</v>
       </c>
       <c r="AA89" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB89" s="19" t="s">
         <v>72</v>
@@ -10147,7 +10165,7 @@
     </row>
     <row r="90" spans="1:32" s="17" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C90" s="17">
         <v>0</v>
@@ -10177,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M90" s="17">
         <v>0</v>
@@ -10201,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Y90" s="18" t="s">
         <v>70</v>
@@ -10210,7 +10228,7 @@
         <v>71</v>
       </c>
       <c r="AA90" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB90" s="19" t="s">
         <v>72</v>
@@ -10230,7 +10248,7 @@
     </row>
     <row r="91" spans="1:32" s="17" customFormat="1">
       <c r="A91" s="20" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
@@ -10260,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M91" s="17">
         <v>0</v>
@@ -10284,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y91" s="18" t="s">
         <v>70</v>
@@ -10293,7 +10311,7 @@
         <v>71</v>
       </c>
       <c r="AA91" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB91" s="19" t="s">
         <v>72</v>
@@ -10313,7 +10331,7 @@
     </row>
     <row r="92" spans="1:32" s="17" customFormat="1">
       <c r="A92" s="20" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C92" s="17">
         <v>0</v>
@@ -10343,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M92" s="17">
         <v>0</v>
@@ -10367,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y92" s="18" t="s">
         <v>70</v>
@@ -10376,7 +10394,7 @@
         <v>71</v>
       </c>
       <c r="AA92" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB92" s="19" t="s">
         <v>72</v>
@@ -10396,7 +10414,7 @@
     </row>
     <row r="93" spans="1:32" s="17" customFormat="1">
       <c r="A93" s="20" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C93" s="17">
         <v>0</v>
@@ -10426,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M93" s="17">
         <v>0</v>
@@ -10450,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y93" s="18" t="s">
         <v>70</v>
@@ -10459,7 +10477,7 @@
         <v>71</v>
       </c>
       <c r="AA93" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB93" s="19" t="s">
         <v>72</v>
@@ -10479,7 +10497,7 @@
     </row>
     <row r="94" spans="1:32" s="17" customFormat="1">
       <c r="A94" s="20" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C94" s="17">
         <v>0</v>
@@ -10509,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M94" s="17">
         <v>0</v>
@@ -10533,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y94" s="18" t="s">
         <v>70</v>
@@ -10542,7 +10560,7 @@
         <v>71</v>
       </c>
       <c r="AA94" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AB94" s="19" t="s">
         <v>72</v>
@@ -10562,7 +10580,7 @@
     </row>
     <row r="95" spans="1:32" s="17" customFormat="1">
       <c r="A95" s="20" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
@@ -10592,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M95" s="17">
         <v>0</v>
@@ -10616,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y95" s="18" t="s">
         <v>70</v>
@@ -10625,7 +10643,7 @@
         <v>71</v>
       </c>
       <c r="AA95" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB95" s="19" t="s">
         <v>72</v>
@@ -10645,7 +10663,7 @@
     </row>
     <row r="96" spans="1:32" s="17" customFormat="1">
       <c r="A96" s="20" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
@@ -10675,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M96" s="17">
         <v>0</v>
@@ -10699,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y96" s="18" t="s">
         <v>70</v>
@@ -10708,7 +10726,7 @@
         <v>71</v>
       </c>
       <c r="AA96" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AB96" s="19" t="s">
         <v>72</v>
@@ -10728,7 +10746,7 @@
     </row>
     <row r="97" spans="1:32" s="17" customFormat="1">
       <c r="A97" s="20" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="C97" s="17">
         <v>0</v>
@@ -10758,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M97" s="17">
         <v>0</v>
@@ -10782,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y97" s="18" t="s">
         <v>70</v>
@@ -10791,7 +10809,7 @@
         <v>71</v>
       </c>
       <c r="AA97" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AB97" s="19" t="s">
         <v>72</v>
@@ -10811,7 +10829,7 @@
     </row>
     <row r="98" spans="1:32" s="17" customFormat="1">
       <c r="A98" s="20" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C98" s="17">
         <v>0</v>
@@ -10841,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M98" s="17">
         <v>0</v>
@@ -10865,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y98" s="18" t="s">
         <v>70</v>
@@ -10874,7 +10892,7 @@
         <v>71</v>
       </c>
       <c r="AA98" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AB98" s="19" t="s">
         <v>72</v>
@@ -10894,7 +10912,7 @@
     </row>
     <row r="99" spans="1:32" s="17" customFormat="1">
       <c r="A99" s="20" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C99" s="17">
         <v>0</v>
@@ -10924,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M99" s="17">
         <v>0</v>
@@ -10948,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y99" s="18" t="s">
         <v>70</v>
@@ -10957,7 +10975,7 @@
         <v>71</v>
       </c>
       <c r="AA99" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AB99" s="19" t="s">
         <v>72</v>
@@ -10977,7 +10995,7 @@
     </row>
     <row r="100" spans="1:32" s="17" customFormat="1">
       <c r="A100" s="20" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C100" s="17">
         <v>0</v>
@@ -11007,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M100" s="17">
         <v>0</v>
@@ -11031,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y100" s="18" t="s">
         <v>70</v>
@@ -11040,7 +11058,7 @@
         <v>71</v>
       </c>
       <c r="AA100" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AB100" s="19" t="s">
         <v>72</v>
@@ -11060,7 +11078,7 @@
     </row>
     <row r="101" spans="1:32" s="17" customFormat="1">
       <c r="A101" s="20" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C101" s="17">
         <v>0</v>
@@ -11090,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M101" s="17">
         <v>0</v>
@@ -11114,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y101" s="18" t="s">
         <v>70</v>
@@ -11123,7 +11141,7 @@
         <v>71</v>
       </c>
       <c r="AA101" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AB101" s="19" t="s">
         <v>72</v>
@@ -11143,7 +11161,7 @@
     </row>
     <row r="102" spans="1:32" s="17" customFormat="1">
       <c r="A102" s="20" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C102" s="17">
         <v>0</v>
@@ -11173,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M102" s="17">
         <v>0</v>
@@ -11197,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y102" s="18" t="s">
         <v>70</v>
@@ -11206,7 +11224,7 @@
         <v>71</v>
       </c>
       <c r="AA102" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AB102" s="19" t="s">
         <v>72</v>
@@ -11226,7 +11244,7 @@
     </row>
     <row r="103" spans="1:32" s="17" customFormat="1">
       <c r="A103" s="20" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="C103" s="17">
         <v>0</v>
@@ -11256,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M103" s="17">
         <v>0</v>
@@ -11280,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Y103" s="18" t="s">
         <v>70</v>
@@ -11289,7 +11307,7 @@
         <v>71</v>
       </c>
       <c r="AA103" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AB103" s="19" t="s">
         <v>72</v>
@@ -11309,7 +11327,7 @@
     </row>
     <row r="104" spans="1:32" s="17" customFormat="1">
       <c r="A104" s="20" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C104" s="17">
         <v>0</v>
@@ -11339,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M104" s="17">
         <v>0</v>
@@ -11363,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Y104" s="18" t="s">
         <v>70</v>
@@ -11372,7 +11390,7 @@
         <v>71</v>
       </c>
       <c r="AA104" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AB104" s="19" t="s">
         <v>72</v>
@@ -11392,7 +11410,7 @@
     </row>
     <row r="105" spans="1:32" s="17" customFormat="1">
       <c r="A105" s="20" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C105" s="17">
         <v>0</v>
@@ -11422,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M105" s="17">
         <v>0</v>
@@ -11446,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y105" s="18" t="s">
         <v>70</v>
@@ -11455,7 +11473,7 @@
         <v>71</v>
       </c>
       <c r="AA105" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AB105" s="19" t="s">
         <v>72</v>
@@ -11475,7 +11493,7 @@
     </row>
     <row r="106" spans="1:32" s="17" customFormat="1">
       <c r="A106" s="20" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="C106" s="17">
         <v>0</v>
@@ -11505,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M106" s="17">
         <v>0</v>
@@ -11529,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y106" s="18" t="s">
         <v>70</v>
@@ -11538,7 +11556,7 @@
         <v>71</v>
       </c>
       <c r="AA106" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AB106" s="19" t="s">
         <v>72</v>
@@ -11558,7 +11576,7 @@
     </row>
     <row r="107" spans="1:32" s="17" customFormat="1">
       <c r="A107" s="20" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C107" s="17">
         <v>0</v>
@@ -11588,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M107" s="17">
         <v>0</v>
@@ -11612,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y107" s="18" t="s">
         <v>70</v>
@@ -11621,7 +11639,7 @@
         <v>71</v>
       </c>
       <c r="AA107" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AB107" s="19" t="s">
         <v>72</v>
@@ -11641,7 +11659,7 @@
     </row>
     <row r="108" spans="1:32" s="17" customFormat="1">
       <c r="A108" s="20" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C108" s="17">
         <v>0</v>
@@ -11671,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M108" s="17">
         <v>0</v>
@@ -11695,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y108" s="18" t="s">
         <v>70</v>
@@ -11704,7 +11722,7 @@
         <v>71</v>
       </c>
       <c r="AA108" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB108" s="19" t="s">
         <v>72</v>
@@ -11724,7 +11742,7 @@
     </row>
     <row r="109" spans="1:32" s="17" customFormat="1">
       <c r="A109" s="20" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="C109" s="17">
         <v>0</v>
@@ -11754,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M109" s="17">
         <v>0</v>
@@ -11778,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Y109" s="18" t="s">
         <v>70</v>
@@ -11787,7 +11805,7 @@
         <v>71</v>
       </c>
       <c r="AA109" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AB109" s="19" t="s">
         <v>72</v>
@@ -11807,7 +11825,7 @@
     </row>
     <row r="110" spans="1:32" s="17" customFormat="1">
       <c r="A110" s="20" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
@@ -11837,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M110" s="17">
         <v>0</v>
@@ -11861,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Y110" s="18" t="s">
         <v>70</v>
@@ -11870,7 +11888,7 @@
         <v>71</v>
       </c>
       <c r="AA110" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB110" s="19" t="s">
         <v>72</v>
@@ -11890,7 +11908,7 @@
     </row>
     <row r="111" spans="1:32" s="17" customFormat="1">
       <c r="A111" s="20" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
@@ -11920,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M111" s="17">
         <v>0</v>
@@ -11944,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y111" s="18" t="s">
         <v>70</v>
@@ -11953,7 +11971,7 @@
         <v>71</v>
       </c>
       <c r="AA111" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AB111" s="19" t="s">
         <v>72</v>
@@ -11973,7 +11991,7 @@
     </row>
     <row r="112" spans="1:32" s="17" customFormat="1">
       <c r="A112" s="20" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="C112" s="17">
         <v>0</v>
@@ -12003,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M112" s="17">
         <v>0</v>
@@ -12027,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Y112" s="18" t="s">
         <v>70</v>
@@ -12036,7 +12054,7 @@
         <v>71</v>
       </c>
       <c r="AA112" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AB112" s="19" t="s">
         <v>72</v>
@@ -12056,7 +12074,7 @@
     </row>
     <row r="113" spans="1:32" s="17" customFormat="1">
       <c r="A113" s="20" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C113" s="17">
         <v>0</v>
@@ -12086,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M113" s="17">
         <v>0</v>
@@ -12110,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Y113" s="18" t="s">
         <v>70</v>
@@ -12119,7 +12137,7 @@
         <v>71</v>
       </c>
       <c r="AA113" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB113" s="19" t="s">
         <v>72</v>
@@ -12137,175 +12155,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A114" s="21" t="s">
+    <row r="114" spans="1:32" s="17" customFormat="1">
+      <c r="A114" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" s="17">
+        <v>0</v>
+      </c>
+      <c r="D114" s="17">
+        <v>0</v>
+      </c>
+      <c r="E114" s="17">
+        <v>0</v>
+      </c>
+      <c r="F114" s="17">
+        <v>0</v>
+      </c>
+      <c r="G114" s="17">
+        <v>0</v>
+      </c>
+      <c r="H114" s="17">
+        <v>0</v>
+      </c>
+      <c r="I114" s="17">
+        <v>0</v>
+      </c>
+      <c r="J114" s="17">
+        <v>0</v>
+      </c>
+      <c r="K114" s="17">
+        <v>0</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="M114" s="17">
+        <v>0</v>
+      </c>
+      <c r="N114" s="17">
+        <v>20</v>
+      </c>
+      <c r="O114" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T114" s="17">
+        <v>2</v>
+      </c>
+      <c r="U114" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V114" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W114" s="17">
+        <v>0</v>
+      </c>
+      <c r="X114" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y114" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z114" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA114" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB114" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC114" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A115" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C114" s="22">
-        <v>0</v>
-      </c>
-      <c r="D114" s="22">
-        <v>0</v>
-      </c>
-      <c r="E114" s="22">
-        <v>0</v>
-      </c>
-      <c r="F114" s="22">
-        <v>0</v>
-      </c>
-      <c r="G114" s="22">
-        <v>0</v>
-      </c>
-      <c r="H114" s="22">
-        <v>0</v>
-      </c>
-      <c r="I114" s="22">
-        <v>0</v>
-      </c>
-      <c r="J114" s="22">
-        <v>0</v>
-      </c>
-      <c r="K114" s="22">
-        <v>0</v>
-      </c>
-      <c r="L114" s="17" t="s">
+      <c r="C115" s="22">
+        <v>0</v>
+      </c>
+      <c r="D115" s="22">
+        <v>0</v>
+      </c>
+      <c r="E115" s="22">
+        <v>0</v>
+      </c>
+      <c r="F115" s="22">
+        <v>0</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22">
+        <v>0</v>
+      </c>
+      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="J115" s="22">
+        <v>0</v>
+      </c>
+      <c r="K115" s="22">
+        <v>0</v>
+      </c>
+      <c r="L115" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="M114" s="22">
-        <v>0</v>
-      </c>
-      <c r="N114" s="22">
+      <c r="M115" s="22">
+        <v>0</v>
+      </c>
+      <c r="N115" s="22">
         <v>20</v>
       </c>
-      <c r="O114" s="22" t="s">
+      <c r="O115" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T114" s="22">
+      <c r="T115" s="22">
         <v>2</v>
       </c>
-      <c r="U114" s="23" t="s">
+      <c r="U115" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="V114" s="22" t="s">
+      <c r="V115" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W114" s="22">
-        <v>0</v>
-      </c>
-      <c r="X114" s="22" t="s">
+      <c r="W115" s="22">
+        <v>0</v>
+      </c>
+      <c r="X115" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="Y114" s="23" t="s">
+      <c r="Y115" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Z114" s="23" t="s">
+      <c r="Z115" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AA114" s="22" t="s">
+      <c r="AA115" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="AB114" s="24" t="s">
+      <c r="AB115" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AC114" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD114" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE114" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF114" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:32" s="17" customFormat="1">
-      <c r="A115" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C115" s="17">
-        <v>0</v>
-      </c>
-      <c r="D115" s="17">
-        <v>0</v>
-      </c>
-      <c r="E115" s="17">
-        <v>0</v>
-      </c>
-      <c r="F115" s="17">
-        <v>0</v>
-      </c>
-      <c r="G115" s="17">
-        <v>0</v>
-      </c>
-      <c r="H115" s="17">
-        <v>0</v>
-      </c>
-      <c r="I115" s="17">
-        <v>0</v>
-      </c>
-      <c r="J115" s="17">
-        <v>0</v>
-      </c>
-      <c r="K115" s="17">
-        <v>0</v>
-      </c>
-      <c r="L115" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="M115" s="17">
-        <v>0</v>
-      </c>
-      <c r="N115" s="17">
-        <v>20</v>
-      </c>
-      <c r="O115" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="T115" s="17">
-        <v>2</v>
-      </c>
-      <c r="U115" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="V115" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="W115" s="17">
-        <v>0</v>
-      </c>
-      <c r="X115" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y115" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z115" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA115" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="AB115" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC115" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD115" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF115" s="17">
+      <c r="AC115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:32" s="17" customFormat="1">
       <c r="A116" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C116" s="17">
         <v>0</v>
@@ -12335,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M116" s="17">
         <v>0</v>
@@ -12359,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Y116" s="18" t="s">
         <v>70</v>
@@ -12368,7 +12386,7 @@
         <v>71</v>
       </c>
       <c r="AA116" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AB116" s="19" t="s">
         <v>72</v>
@@ -12386,93 +12404,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A117" s="21" t="s">
+    <row r="117" spans="1:32" s="17" customFormat="1">
+      <c r="A117" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C117" s="17">
+        <v>0</v>
+      </c>
+      <c r="D117" s="17">
+        <v>0</v>
+      </c>
+      <c r="E117" s="17">
+        <v>0</v>
+      </c>
+      <c r="F117" s="17">
+        <v>0</v>
+      </c>
+      <c r="G117" s="17">
+        <v>0</v>
+      </c>
+      <c r="H117" s="17">
+        <v>0</v>
+      </c>
+      <c r="I117" s="17">
+        <v>0</v>
+      </c>
+      <c r="J117" s="17">
+        <v>0</v>
+      </c>
+      <c r="K117" s="17">
+        <v>0</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="M117" s="17">
+        <v>0</v>
+      </c>
+      <c r="N117" s="17">
+        <v>20</v>
+      </c>
+      <c r="O117" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T117" s="17">
+        <v>2</v>
+      </c>
+      <c r="U117" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="V117" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="W117" s="17">
+        <v>0</v>
+      </c>
+      <c r="X117" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y117" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z117" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA117" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB117" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC117" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" s="22" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A118" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C117" s="22">
-        <v>0</v>
-      </c>
-      <c r="D117" s="22">
-        <v>0</v>
-      </c>
-      <c r="E117" s="22">
-        <v>0</v>
-      </c>
-      <c r="F117" s="22">
-        <v>0</v>
-      </c>
-      <c r="G117" s="22">
-        <v>0</v>
-      </c>
-      <c r="H117" s="22">
-        <v>0</v>
-      </c>
-      <c r="I117" s="22">
-        <v>0</v>
-      </c>
-      <c r="J117" s="22">
-        <v>0</v>
-      </c>
-      <c r="K117" s="22">
-        <v>0</v>
-      </c>
-      <c r="L117" s="17" t="s">
+      <c r="C118" s="22">
+        <v>0</v>
+      </c>
+      <c r="D118" s="22">
+        <v>0</v>
+      </c>
+      <c r="E118" s="22">
+        <v>0</v>
+      </c>
+      <c r="F118" s="22">
+        <v>0</v>
+      </c>
+      <c r="G118" s="22">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22">
+        <v>0</v>
+      </c>
+      <c r="I118" s="22">
+        <v>0</v>
+      </c>
+      <c r="J118" s="22">
+        <v>0</v>
+      </c>
+      <c r="K118" s="22">
+        <v>0</v>
+      </c>
+      <c r="L118" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="M117" s="22">
-        <v>0</v>
-      </c>
-      <c r="N117" s="22">
+      <c r="M118" s="22">
+        <v>0</v>
+      </c>
+      <c r="N118" s="22">
         <v>20</v>
       </c>
-      <c r="O117" s="22" t="s">
+      <c r="O118" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T117" s="22">
+      <c r="T118" s="22">
         <v>2</v>
       </c>
-      <c r="U117" s="23" t="s">
+      <c r="U118" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="V117" s="22" t="s">
+      <c r="V118" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W117" s="22">
-        <v>0</v>
-      </c>
-      <c r="X117" s="22" t="s">
+      <c r="W118" s="22">
+        <v>0</v>
+      </c>
+      <c r="X118" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="Y117" s="23" t="s">
+      <c r="Y118" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Z117" s="23" t="s">
+      <c r="Z118" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="AA117" s="22" t="s">
+      <c r="AA118" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="AB117" s="24" t="s">
+      <c r="AB118" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AC117" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD117" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE117" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF117" s="22">
+      <c r="AC118" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AF8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12484,10 +12585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13141,190 +13242,279 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="3" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="4" customFormat="1" ht="54">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="54">
+      <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="9"/>
@@ -13383,10 +13573,13 @@
     <row r="29" spans="1:1">
       <c r="A29" s="9"/>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
